--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2188 +418,2440 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.9178713717300292</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>7.002605973343729</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.00271303406616491</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.002899300338631364</v>
+      </c>
+      <c r="E2">
         <v>0.275775102519542</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.624840906982042</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2.934984233896784</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.2338778052774193</v>
+      </c>
+      <c r="I2">
+        <v>1.733412331527735</v>
+      </c>
+      <c r="J2">
         <v>1.738807376926667</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>2.302929731000189</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>9.310974997158512</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>5.858956066461814</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.06345859639867146</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.2637376686475978</v>
       </c>
-      <c r="N2" t="n">
-        <v>32.29765505913175</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>34.26513146220937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.7992254030687432</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6.097434514193951</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.006201220722662652</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.006626972202585974</v>
+      </c>
+      <c r="E3">
         <v>0.6303430914732387</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.8034927561999111</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1.45136582994896</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.1676859735951308</v>
+      </c>
+      <c r="I3">
+        <v>1.242823935812338</v>
+      </c>
+      <c r="J3">
         <v>2.077096749869598</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>2.750970534696723</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>7.483053525323712</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>4.708731562616552</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.05499745021218189</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.2285726461612514</v>
       </c>
-      <c r="N3" t="n">
-        <v>27.09148528448748</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>28.50242094537488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.8534101761581497</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>6.510819904986765</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.006007432575079445</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.006419879321255162</v>
+      </c>
+      <c r="E4">
         <v>0.6106448698647001</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.4105761719954</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2.547953345910395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1809243399315885</v>
+      </c>
+      <c r="I4">
+        <v>1.340941614955418</v>
+      </c>
+      <c r="J4">
         <v>1.725275802008949</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>2.285008098852327</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>8.054278985272088</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>5.068176720068198</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.0676891694919162</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.281320179890771</v>
       </c>
-      <c r="N4" t="n">
-        <v>29.42116085707474</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>30.94343925870792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.7870805401349109</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6.004779167981773</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.004166445173038971</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.004452496948612452</v>
+      </c>
+      <c r="E5">
         <v>0.4235117645835822</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.107034464097656</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.999659587929677</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.1853371287104077</v>
+      </c>
+      <c r="I5">
+        <v>1.373647508003111</v>
+      </c>
+      <c r="J5">
         <v>1.454644303654604</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>1.926575455895099</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>7.654421163308225</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>4.816565109852046</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.07615031567840573</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.3164852023771173</v>
       </c>
-      <c r="N5" t="n">
-        <v>26.57107352066614</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>28.13034420915523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.8137058165667745</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>6.20790819621617</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.004747809615788594</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.005073775592604887</v>
+      </c>
+      <c r="E6">
         <v>0.4826064294091983</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1.696262485310924</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>3.063994529892246</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.1853371287104077</v>
+      </c>
+      <c r="I6">
+        <v>1.373647508003111</v>
+      </c>
+      <c r="J6">
         <v>1.765870526762101</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>2.338772995295912</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>6.740460427390823</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>4.241452857929413</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.07191974258516096</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.2989026911339442</v>
       </c>
-      <c r="N6" t="n">
-        <v>27.72660450810845</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>29.28591511079879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.8384626525472797</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6.396782555802541</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.004457127394413781</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.004763136270608669</v>
+      </c>
+      <c r="E7">
         <v>0.4530590969963904</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.678407090728703</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>3.031741955893382</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.1544476072586731</v>
+      </c>
+      <c r="I7">
+        <v>1.144706256669259</v>
+      </c>
+      <c r="J7">
         <v>1.826762613891828</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>2.419420339961288</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>7.825788801292735</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>4.924398657087539</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.08884203495814001</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.3692327361066369</v>
       </c>
-      <c r="N7" t="n">
-        <v>29.85735566266088</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>31.156815535465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.8893776548468083</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6.785222276461302</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.004650915541996989</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.004970229151939481</v>
+      </c>
+      <c r="E8">
         <v>0.472757318604929</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1.714117879893144</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>3.096247103891112</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.132383663364577</v>
+      </c>
+      <c r="I8">
+        <v>0.9811767914307935</v>
+      </c>
+      <c r="J8">
         <v>1.847059976268405</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>2.446302788183079</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>4.455558587597324</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>2.803672228122832</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.09730318114462951</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.4043977585929833</v>
       </c>
-      <c r="N8" t="n">
-        <v>25.01666766914854</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>26.13054743755386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.040721331406874</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7.939850436951564</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.003972657025455762</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.00424540406728164</v>
+      </c>
+      <c r="E9">
         <v>0.4038135429750435</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2.017659587790888</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>3.644540861871831</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.1853371287104077</v>
+      </c>
+      <c r="I9">
+        <v>1.373647508003111</v>
+      </c>
+      <c r="J9">
         <v>1.759104739303242</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>2.32981217922198</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>4.455558587597324</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>2.803672228122832</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.07615031567840573</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.3164852023771173</v>
       </c>
-      <c r="N9" t="n">
-        <v>26.79134167032256</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>28.3505990540779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.178518814694588</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>8.991132249743631</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.003778868877872554</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.004038311185950829</v>
+      </c>
+      <c r="E10">
         <v>0.3841153213665048</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1.392720777413179</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>2.515700771911529</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.3133080032961653</v>
+      </c>
+      <c r="I10">
+        <v>2.322118406386211</v>
+      </c>
+      <c r="J10">
         <v>1.190778592759118</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>1.577103629011802</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>2.456269477778013</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>1.545614177042075</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.1226866197040981</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.5098928260520225</v>
       </c>
-      <c r="N10" t="n">
-        <v>21.86831212635443</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>24.50399797834489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1.187861016951382</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>9.062405592983767</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.00368197480408095</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.003934764745285422</v>
+      </c>
+      <c r="E11">
         <v>0.3742662105622354</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1.232022226173197</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>2.225427605921738</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.3133080032961653</v>
+      </c>
+      <c r="I11">
+        <v>2.322118406386211</v>
+      </c>
+      <c r="J11">
         <v>0.9675076066167833</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>1.281396698572089</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>0.5141029139535372</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>0.3235006417064807</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.05076687711893713</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.2109901349180782</v>
       </c>
-      <c r="N11" t="n">
-        <v>17.4339295002823</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>20.06960869990588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.8926474256366855</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>6.810167946595351</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.001744093328248871</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.001863835931977305</v>
+      </c>
+      <c r="E12">
         <v>0.1772839944768484</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.8749143345287922</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1.580376125944422</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.2868312706232501</v>
+      </c>
+      <c r="I12">
+        <v>2.125883048100053</v>
+      </c>
+      <c r="J12">
         <v>0.6562813835092866</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>0.8691991591712775</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>1.028205827907074</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>0.6470012834129614</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.01269171927973428</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.05274753372951956</v>
       </c>
-      <c r="N12" t="n">
-        <v>13.6032608275202</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>16.01609488884723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.7305602164813063</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>5.573575441378923</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.002616139992373307</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.002795753897965958</v>
+      </c>
+      <c r="E13">
         <v>0.2659259917152725</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.5892280212132681</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1.06433494196257</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.3221335808538038</v>
+      </c>
+      <c r="I13">
+        <v>2.387530192481598</v>
+      </c>
+      <c r="J13">
         <v>0.3991814600726588</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.5286881483619111</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.9710832819122371</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>0.6110567676677968</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.01269171927973428</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.05274753372951956</v>
       </c>
-      <c r="N13" t="n">
-        <v>10.80168966376757</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>13.51153305100857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.5343739690886279</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.076835233335992</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.001453411106874059</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.001553196609981088</v>
+      </c>
+      <c r="E14">
         <v>0.1477366620640403</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.499951048302167</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.9030720719682411</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.2427033828350577</v>
+      </c>
+      <c r="I14">
+        <v>1.798824117623121</v>
+      </c>
+      <c r="J14">
         <v>0.3585867353195069</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.4749232519183268</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>0.5141029139535372</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>0.3235006417064807</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14">
         <v>0.008461146186489524</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14">
         <v>0.03516502248634638</v>
       </c>
-      <c r="N14" t="n">
-        <v>7.87816210743663</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>9.919789393397915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.3755565307231264</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2.865188398253616</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.001744093328248871</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.001863835931977305</v>
+      </c>
+      <c r="E15">
         <v>0.1772839944768484</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.2499755241510835</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.4515360359841206</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.1235580858069384</v>
+      </c>
+      <c r="I15">
+        <v>0.9157650053354071</v>
+      </c>
+      <c r="J15">
         <v>0.1962078363069</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.2598636661439901</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>1.085328373901912</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>0.6829457991581259</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15">
         <v>0.008461146186489524</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15">
         <v>0.03516502248634638</v>
       </c>
-      <c r="N15" t="n">
-        <v>6.389256421100807</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>7.42869925484688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.223745744050221</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.706996570601346</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.002034775549623683</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.002174475253973523</v>
+      </c>
+      <c r="E16">
         <v>0.2068313268896564</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.2142647349866429</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.387030887986389</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.05295346534583076</v>
+      </c>
+      <c r="I16">
+        <v>0.3924707165723174</v>
+      </c>
+      <c r="J16">
         <v>0.1759104739303242</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.2329812179221981</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.6854705519380497</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>0.4313341889419742</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16">
         <v>0.008461146186489524</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16">
         <v>0.03516502248634638</v>
       </c>
-      <c r="N16" t="n">
-        <v>4.310226641469261</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>4.755790523091759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.1648898698324175</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.257974508188466</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.003197504435122931</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.003417032541958394</v>
+      </c>
+      <c r="E17">
         <v>0.3250206565408887</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.01785539458222025</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.03225257399886577</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.02647673267291538</v>
+      </c>
+      <c r="I17">
+        <v>0.1962353582861587</v>
+      </c>
+      <c r="J17">
         <v>0.2773972858132035</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.3673934590311586</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>0.9139607359173997</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>0.5751122519226324</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>3.935054240262376</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>4.157985859328285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.09622468324498021</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.7341154353734389</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.002325457770998495</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.002485114575969741</v>
+      </c>
+      <c r="E18">
         <v>0.2363786593024645</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.01785539458222025</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.03225257399886577</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.01765115511527693</v>
+      </c>
+      <c r="I18">
+        <v>0.1308235721907725</v>
+      </c>
+      <c r="J18">
         <v>0.216505198683476</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.2867461143657822</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>0.8568381899225623</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>0.5391677361774678</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18">
         <v>0.004230573093244762</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18">
         <v>0.01758251124317319</v>
       </c>
-      <c r="N18" t="n">
-        <v>3.040222527758675</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>3.188856911869695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.07380339782867415</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.5630594115971036</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.003294398508914534</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.003520578982623798</v>
+      </c>
+      <c r="E19">
         <v>0.3348697673451581</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.142843156657762</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.2580205919909261</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.004412788778819231</v>
+      </c>
+      <c r="I19">
+        <v>0.03270589304769311</v>
+      </c>
+      <c r="J19">
         <v>0.1420815366360311</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.1881771375525446</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>1.14245091989675</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>0.7188903149032903</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>3.567490632917154</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>3.604835495217376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.09155358211658308</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.6984787637533693</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.001744093328248871</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.001863835931977305</v>
+      </c>
+      <c r="E20">
         <v>0.1772839944768484</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.1071323674933215</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.1935154439931945</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.03971509900937309</v>
+      </c>
+      <c r="I20">
+        <v>0.294353037429238</v>
+      </c>
+      <c r="J20">
         <v>0.1759104739303242</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>0.2329812179221981</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>0.9710832819122371</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>0.6110567676677968</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20">
         <v>0.004230573093244762</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20">
         <v>0.01758251124317319</v>
       </c>
-      <c r="N20" t="n">
-        <v>3.28255307093054</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>3.61674094997288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.1349948226106762</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.029899809820019</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.0004844703689580198</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.0005177322033270293</v>
+      </c>
+      <c r="E21">
         <v>0.04924555402134677</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.2321201295688633</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.4192834619852548</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.02206394389409615</v>
+      </c>
+      <c r="I21">
+        <v>0.1635294652384655</v>
+      </c>
+      <c r="J21">
         <v>0.3247577980252139</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>0.4301191715486734</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>1.656553833850287</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>1.042390956609771</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.004230573093244762</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.01758251124317319</v>
       </c>
-      <c r="N21" t="n">
-        <v>5.341663092745481</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>5.527289763712412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.3578063464352177</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2.729769046097351</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.0009689407379160396</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.001035464406654059</v>
+      </c>
+      <c r="E22">
         <v>0.09849110804269354</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.4642402591377265</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>0.8385669239705097</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.1588603960374924</v>
+      </c>
+      <c r="I22">
+        <v>1.177412149716952</v>
+      </c>
+      <c r="J22">
         <v>0.6968761082624381</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>0.9229640556148616</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>2.570514569767688</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>1.617503208532403</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.008461146186489524</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.03516502248634638</v>
       </c>
-      <c r="N22" t="n">
-        <v>10.34132673527164</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>11.67766580469482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.5871574118395152</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4.479529622642779</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.002131669623415287</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.002278021694638929</v>
+      </c>
+      <c r="E23">
         <v>0.2166804376939258</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.9284805182754531</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>1.677133847941019</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.3883254125360923</v>
+      </c>
+      <c r="I23">
+        <v>2.878118588196994</v>
+      </c>
+      <c r="J23">
         <v>1.231373317512269</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>1.630868525455386</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>3.427352759690249</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>2.156670944709871</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.05499745021218189</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.2285726461612514</v>
       </c>
-      <c r="N23" t="n">
-        <v>16.62094915175732</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>19.88753950456163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.9870036684303075</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>7.530028713320764</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.002131669623415287</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.002278021694638929</v>
+      </c>
+      <c r="E24">
         <v>0.2166804376939258</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1.517708539488722</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>2.74146878990359</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.4898195544489348</v>
+      </c>
+      <c r="I24">
+        <v>3.630354128293934</v>
+      </c>
+      <c r="J24">
         <v>1.549365328078625</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>2.052026880930129</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>6.511970243411474</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>4.097674794948755</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.1099949004243638</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.4571452923225028</v>
       </c>
-      <c r="N24" t="n">
-        <v>27.77319925857658</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>31.89351929339067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.135077574200495</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>8.659711203676977</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.001937881475832079</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.002070928813308117</v>
+      </c>
+      <c r="E25">
         <v>0.1969822160853871</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1.392720777413179</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>2.515700771911529</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.2735929042867922</v>
+      </c>
+      <c r="I25">
+        <v>2.027765368956973</v>
+      </c>
+      <c r="J25">
         <v>1.285499617183138</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>1.702555054046832</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>3.770088035659275</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>2.372338039180859</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.05922802330542665</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.2461551574044246</v>
       </c>
-      <c r="N25" t="n">
-        <v>23.33799435154335</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>25.63948567212459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.9178713717300292</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>7.002605973343729</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.00271303406616491</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.002899300338631364</v>
+      </c>
+      <c r="E26">
         <v>0.275775102519542</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1.624840906982042</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2.934984233896784</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.2338778052774193</v>
+      </c>
+      <c r="I26">
+        <v>1.733412331527735</v>
+      </c>
+      <c r="J26">
         <v>1.738807376926667</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>2.302929731000189</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>9.310974997158512</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>5.858956066461814</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.06345859639867146</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.2637376686475978</v>
       </c>
-      <c r="N26" t="n">
-        <v>32.29765505913175</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>34.26513146220937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.7894160906991096</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>6.02259750379181</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.005329174058538216</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.005695054236597321</v>
+      </c>
+      <c r="E27">
         <v>0.5417010942348145</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1.464142355742061</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2.644711067906993</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.1809243399315885</v>
+      </c>
+      <c r="I27">
+        <v>1.340941614955418</v>
+      </c>
+      <c r="J27">
         <v>2.036502025116445</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>2.69720563825314</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>8.397014261241109</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>5.283843814539183</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.09307260805138477</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.3868152473498101</v>
       </c>
-      <c r="N27" t="n">
-        <v>30.36235088098439</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>31.88458271604946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.8314560008546832</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>6.343327548372435</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.004941597763371801</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.005280868473935698</v>
+      </c>
+      <c r="E28">
         <v>0.502304651017737</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1.392720777413179</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>2.515700771911529</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.2559417491715154</v>
+      </c>
+      <c r="I28">
+        <v>1.896941796766201</v>
+      </c>
+      <c r="J28">
         <v>1.677915289796938</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>2.222282386334812</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>9.767955365117214</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>6.146512192423132</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.09730318114462951</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.4043977585929833</v>
       </c>
-      <c r="N28" t="n">
-        <v>31.90681752074264</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>34.06004033739092</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.8286533401776448</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>6.321945545400396</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.004554021468205385</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.004866682711274075</v>
+      </c>
+      <c r="E29">
         <v>0.4629082078006597</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>1.178456042426536</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2.128669883925141</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.1720987623739501</v>
+      </c>
+      <c r="I29">
+        <v>1.275529828860031</v>
+      </c>
+      <c r="J29">
         <v>1.535833753160908</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>2.034105248782268</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>7.311685887339197</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>4.600898015381059</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.05922802330542665</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.2461551574044246</v>
       </c>
-      <c r="N29" t="n">
-        <v>26.71309312657187</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>28.16103437904891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.8767656818001355</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>6.689003263087112</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.004747809615788594</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.005073775592604887</v>
+      </c>
+      <c r="E30">
         <v>0.4826064294091983</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1.142745253262096</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>2.064164735927409</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.2029882838256847</v>
+      </c>
+      <c r="I30">
+        <v>1.504471080193884</v>
+      </c>
+      <c r="J30">
         <v>1.91471785085699</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>2.535910948922387</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>6.054989875452773</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>3.810118668987439</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.08884203495814001</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.3692327361066369</v>
       </c>
-      <c r="N30" t="n">
-        <v>26.0338452883861</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>27.74163061838249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.8454693042398745</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>6.450237563232649</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.003778868877872554</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.004038311185950829</v>
+      </c>
+      <c r="E31">
         <v>0.3841153213665048</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1.624840906982042</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>2.934984233896784</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.1853371287104077</v>
+      </c>
+      <c r="I31">
+        <v>1.373647508003111</v>
+      </c>
+      <c r="J31">
         <v>1.813231038974111</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>2.401498707813427</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>5.769377145478587</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>3.630396090261616</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.1015337542378743</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.4219802698361565</v>
       </c>
-      <c r="N31" t="n">
-        <v>26.3814432051975</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>27.94068728421909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.8954500863137238</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>6.831549949567395</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.004360233320622178</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.004659589829943264</v>
+      </c>
+      <c r="E32">
         <v>0.443209986192121</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>1.606985512399822</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>2.902731659897919</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.1941627062680461</v>
+      </c>
+      <c r="I32">
+        <v>1.439059294098497</v>
+      </c>
+      <c r="J32">
         <v>1.765870526762101</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>2.338772995295912</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>5.712254599483749</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>3.594451574516451</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.05922802330542665</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.2461551574044246</v>
       </c>
-      <c r="N32" t="n">
-        <v>26.40102030445967</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>28.03454166133553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.040721331406874</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>7.939850436951564</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.003972657025455762</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.00424540406728164</v>
+      </c>
+      <c r="E33">
         <v>0.4038135429750435</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>2.017659587790888</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>3.644540861871831</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.1853371287104077</v>
+      </c>
+      <c r="I33">
+        <v>1.373647508003111</v>
+      </c>
+      <c r="J33">
         <v>1.759104739303242</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>2.32981217922198</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>4.455558587597324</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>2.803672228122832</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.07615031567840573</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.3164852023771173</v>
       </c>
-      <c r="N33" t="n">
-        <v>26.79134167032256</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>28.3505990540779</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1.178518814694588</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>8.991132249743631</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.003778868877872554</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.004038311185950829</v>
+      </c>
+      <c r="E34">
         <v>0.3841153213665048</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1.392720777413179</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>2.515700771911529</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.3133080032961653</v>
+      </c>
+      <c r="I34">
+        <v>2.322118406386211</v>
+      </c>
+      <c r="J34">
         <v>1.190778592759118</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>1.577103629011802</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>2.456269477778013</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>1.545614177042075</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.1226866197040981</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.5098928260520225</v>
       </c>
-      <c r="N34" t="n">
-        <v>21.86831212635443</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>24.50399797834489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1.187861016951382</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>9.062405592983767</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.00368197480408095</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.003934764745285422</v>
+      </c>
+      <c r="E35">
         <v>0.3742662105622354</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.232022226173197</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>2.225427605921738</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.3133080032961653</v>
+      </c>
+      <c r="I35">
+        <v>2.322118406386211</v>
+      </c>
+      <c r="J35">
         <v>0.9675076066167833</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>1.281396698572089</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>0.5141029139535372</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>0.3235006417064807</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.05076687711893713</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.2109901349180782</v>
       </c>
-      <c r="N35" t="n">
-        <v>17.4339295002823</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>20.06960869990588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.8926474256366855</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>6.810167946595351</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.001744093328248871</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.001863835931977305</v>
+      </c>
+      <c r="E36">
         <v>0.1772839944768484</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.8749143345287922</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>1.580376125944422</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.2868312706232501</v>
+      </c>
+      <c r="I36">
+        <v>2.125883048100053</v>
+      </c>
+      <c r="J36">
         <v>0.6562813835092866</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>0.8691991591712775</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>1.028205827907074</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>0.6470012834129614</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.01269171927973428</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.05274753372951956</v>
       </c>
-      <c r="N36" t="n">
-        <v>13.6032608275202</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>16.01609488884723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.7305602164813063</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>5.573575441378923</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.002616139992373307</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.002795753897965958</v>
+      </c>
+      <c r="E37">
         <v>0.2659259917152725</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.5892280212132681</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>1.06433494196257</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.3221335808538038</v>
+      </c>
+      <c r="I37">
+        <v>2.387530192481598</v>
+      </c>
+      <c r="J37">
         <v>0.3991814600726588</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>0.5286881483619111</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>0.9710832819122371</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>0.6110567676677968</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.01269171927973428</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.05274753372951956</v>
       </c>
-      <c r="N37" t="n">
-        <v>10.80168966376757</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>13.51153305100857</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.5343739690886279</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>4.076835233335992</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.001453411106874059</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.001553196609981088</v>
+      </c>
+      <c r="E38">
         <v>0.1477366620640403</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.499951048302167</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.9030720719682411</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.2427033828350577</v>
+      </c>
+      <c r="I38">
+        <v>1.798824117623121</v>
+      </c>
+      <c r="J38">
         <v>0.3585867353195069</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.4749232519183268</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>0.5141029139535372</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>0.3235006417064807</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38">
         <v>0.008461146186489524</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38">
         <v>0.03516502248634638</v>
       </c>
-      <c r="N38" t="n">
-        <v>7.87816210743663</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>9.919789393397915</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.3755565307231264</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>2.865188398253616</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.001744093328248871</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.001863835931977305</v>
+      </c>
+      <c r="E39">
         <v>0.1772839944768484</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.2499755241510835</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.4515360359841206</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.1235580858069384</v>
+      </c>
+      <c r="I39">
+        <v>0.9157650053354071</v>
+      </c>
+      <c r="J39">
         <v>0.1962078363069</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.2598636661439901</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>1.085328373901912</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>0.6829457991581259</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.008461146186489524</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.03516502248634638</v>
       </c>
-      <c r="N39" t="n">
-        <v>6.389256421100807</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>7.42869925484688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.223745744050221</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1.706996570601346</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.002034775549623683</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.002174475253973523</v>
+      </c>
+      <c r="E40">
         <v>0.2068313268896564</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.2142647349866429</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.387030887986389</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.05295346534583076</v>
+      </c>
+      <c r="I40">
+        <v>0.3924707165723174</v>
+      </c>
+      <c r="J40">
         <v>0.1759104739303242</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.2329812179221981</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>0.6854705519380497</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>0.4313341889419742</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40">
         <v>0.008461146186489524</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40">
         <v>0.03516502248634638</v>
       </c>
-      <c r="N40" t="n">
-        <v>4.310226641469261</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>4.755790523091759</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.1648898698324175</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.257974508188466</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.003197504435122931</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.003417032541958394</v>
+      </c>
+      <c r="E41">
         <v>0.3250206565408887</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.01785539458222025</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.03225257399886577</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.02647673267291538</v>
+      </c>
+      <c r="I41">
+        <v>0.1962353582861587</v>
+      </c>
+      <c r="J41">
         <v>0.2773972858132035</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.3673934590311586</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>0.9139607359173997</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>0.5751122519226324</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>3.935054240262376</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>4.157985859328285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.09622468324498021</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.7341154353734389</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.002325457770998495</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.002485114575969741</v>
+      </c>
+      <c r="E42">
         <v>0.2363786593024645</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.01785539458222025</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.03225257399886577</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.01765115511527693</v>
+      </c>
+      <c r="I42">
+        <v>0.1308235721907725</v>
+      </c>
+      <c r="J42">
         <v>0.216505198683476</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.2867461143657822</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>0.8568381899225623</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>0.5391677361774678</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42">
         <v>0.004230573093244762</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42">
         <v>0.01758251124317319</v>
       </c>
-      <c r="N42" t="n">
-        <v>3.040222527758675</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>3.188856911869695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.07380339782867415</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.5630594115971036</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.003294398508914534</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.003520578982623798</v>
+      </c>
+      <c r="E43">
         <v>0.3348697673451581</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.142843156657762</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.2580205919909261</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.004412788778819231</v>
+      </c>
+      <c r="I43">
+        <v>0.03270589304769311</v>
+      </c>
+      <c r="J43">
         <v>0.1420815366360311</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.1881771375525446</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>1.14245091989675</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>0.7188903149032903</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>3.567490632917154</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>3.604835495217376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.09155358211658308</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.6984787637533693</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.001744093328248871</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.001863835931977305</v>
+      </c>
+      <c r="E44">
         <v>0.1772839944768484</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.1071323674933215</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.1935154439931945</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.03971509900937309</v>
+      </c>
+      <c r="I44">
+        <v>0.294353037429238</v>
+      </c>
+      <c r="J44">
         <v>0.1759104739303242</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>0.2329812179221981</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>0.9710832819122371</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>0.6110567676677968</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44">
         <v>0.004230573093244762</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44">
         <v>0.01758251124317319</v>
       </c>
-      <c r="N44" t="n">
-        <v>3.28255307093054</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>3.61674094997288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.1349948226106762</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1.029899809820019</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.0004844703689580198</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.0005177322033270293</v>
+      </c>
+      <c r="E45">
         <v>0.04924555402134677</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.2321201295688633</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.4192834619852548</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.02206394389409615</v>
+      </c>
+      <c r="I45">
+        <v>0.1635294652384655</v>
+      </c>
+      <c r="J45">
         <v>0.3247577980252139</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>0.4301191715486734</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>1.656553833850287</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>1.042390956609771</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.004230573093244762</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.01758251124317319</v>
       </c>
-      <c r="N45" t="n">
-        <v>5.341663092745481</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>5.527289763712412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.3578063464352177</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>2.729769046097351</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.0009689407379160396</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.001035464406654059</v>
+      </c>
+      <c r="E46">
         <v>0.09849110804269354</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.4642402591377265</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>0.8385669239705097</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.1588603960374924</v>
+      </c>
+      <c r="I46">
+        <v>1.177412149716952</v>
+      </c>
+      <c r="J46">
         <v>0.6968761082624381</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>0.9229640556148616</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>2.570514569767688</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>1.617503208532403</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.008461146186489524</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.03516502248634638</v>
       </c>
-      <c r="N46" t="n">
-        <v>10.34132673527164</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>11.67766580469482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.5871574118395152</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>4.479529622642779</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.002131669623415287</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.002278021694638929</v>
+      </c>
+      <c r="E47">
         <v>0.2166804376939258</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>0.9284805182754531</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>1.677133847941019</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.3883254125360923</v>
+      </c>
+      <c r="I47">
+        <v>2.878118588196994</v>
+      </c>
+      <c r="J47">
         <v>1.231373317512269</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>1.630868525455386</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>3.427352759690249</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>2.156670944709871</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.05499745021218189</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.2285726461612514</v>
       </c>
-      <c r="N47" t="n">
-        <v>16.62094915175732</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>19.88753950456163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>0.9870036684303075</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>7.530028713320764</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.002131669623415287</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.002278021694638929</v>
+      </c>
+      <c r="E48">
         <v>0.2166804376939258</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1.517708539488722</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>2.74146878990359</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.4898195544489348</v>
+      </c>
+      <c r="I48">
+        <v>3.630354128293934</v>
+      </c>
+      <c r="J48">
         <v>1.549365328078625</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>2.052026880930129</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>6.511970243411474</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>4.097674794948755</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.1099949004243638</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.4571452923225028</v>
       </c>
-      <c r="N48" t="n">
-        <v>27.77319925857658</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>31.89351929339067</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.135077574200495</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>8.659711203676977</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.001937881475832079</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.002070928813308117</v>
+      </c>
+      <c r="E49">
         <v>0.1969822160853871</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>1.392720777413179</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>2.515700771911529</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.2735929042867922</v>
+      </c>
+      <c r="I49">
+        <v>2.027765368956973</v>
+      </c>
+      <c r="J49">
         <v>1.285499617183138</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>1.702555054046832</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>3.770088035659275</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>2.372338039180859</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.05922802330542665</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.2461551574044246</v>
       </c>
-      <c r="N49" t="n">
-        <v>23.33799435154335</v>
+      <c r="P49">
+        <v>25.63948567212459</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.9178713717300292</v>
+        <v>2.823414219504158</v>
       </c>
       <c r="C2">
-        <v>7.002605973343729</v>
+        <v>21.54033548454402</v>
       </c>
       <c r="D2">
-        <v>0.002899300338631364</v>
+        <v>0.008918380129098</v>
       </c>
       <c r="E2">
-        <v>0.275775102519542</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="F2">
-        <v>1.624840906982042</v>
+        <v>4.998084767104459</v>
       </c>
       <c r="G2">
-        <v>2.934984233896784</v>
+        <v>9.028145419096953</v>
       </c>
       <c r="H2">
-        <v>0.2338778052774193</v>
+        <v>0.7194188002640007</v>
       </c>
       <c r="I2">
-        <v>1.733412331527735</v>
+        <v>5.332055422836265</v>
       </c>
       <c r="J2">
-        <v>1.738807376926667</v>
+        <v>5.348650828645145</v>
       </c>
       <c r="K2">
-        <v>2.302929731000189</v>
+        <v>7.083916929198299</v>
       </c>
       <c r="L2">
-        <v>9.310974997158512</v>
+        <v>28.64098392662067</v>
       </c>
       <c r="M2">
-        <v>5.858956066461814</v>
+        <v>18.02241618923046</v>
       </c>
       <c r="N2">
-        <v>0.06345859639867146</v>
+        <v>0.1952015379715787</v>
       </c>
       <c r="O2">
-        <v>0.2637376686475978</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="P2">
-        <v>34.26513146220937</v>
+        <v>105.4011078058075</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.7992254030687432</v>
+        <v>2.45845380639777</v>
       </c>
       <c r="C3">
-        <v>6.097434514193951</v>
+        <v>18.75598677560042</v>
       </c>
       <c r="D3">
-        <v>0.006626972202585974</v>
+        <v>0.0203848688665097</v>
       </c>
       <c r="E3">
-        <v>0.6303430914732387</v>
+        <v>1.938964110273194</v>
       </c>
       <c r="F3">
-        <v>0.8034927561999111</v>
+        <v>2.471580379337369</v>
       </c>
       <c r="G3">
-        <v>1.45136582994896</v>
+        <v>4.464467514938054</v>
       </c>
       <c r="H3">
-        <v>0.1676859735951308</v>
+        <v>0.5158097058496608</v>
       </c>
       <c r="I3">
-        <v>1.242823935812338</v>
+        <v>3.822983133354303</v>
       </c>
       <c r="J3">
-        <v>2.077096749869598</v>
+        <v>6.389244375074163</v>
       </c>
       <c r="K3">
-        <v>2.750970534696723</v>
+        <v>8.462110884295246</v>
       </c>
       <c r="L3">
-        <v>7.483053525323712</v>
+        <v>23.01821407599575</v>
       </c>
       <c r="M3">
-        <v>4.708731562616552</v>
+        <v>14.48427313367601</v>
       </c>
       <c r="N3">
-        <v>0.05499745021218189</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O3">
-        <v>0.2285726461612514</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P3">
-        <v>28.50242094537488</v>
+        <v>87.67474731866267</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.8534101761581497</v>
+        <v>2.625128640729824</v>
       </c>
       <c r="C4">
-        <v>6.510819904986765</v>
+        <v>20.02757909936994</v>
       </c>
       <c r="D4">
-        <v>0.006419879321255162</v>
+        <v>0.01974784171443128</v>
       </c>
       <c r="E4">
-        <v>0.6106448698647001</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="F4">
-        <v>1.4105761719954</v>
+        <v>4.338996665947825</v>
       </c>
       <c r="G4">
-        <v>2.547953345910395</v>
+        <v>7.837620748446807</v>
       </c>
       <c r="H4">
-        <v>0.1809243399315885</v>
+        <v>0.556531524732529</v>
       </c>
       <c r="I4">
-        <v>1.340941614955418</v>
+        <v>4.124797591250696</v>
       </c>
       <c r="J4">
-        <v>1.725275802008949</v>
+        <v>5.307027086787984</v>
       </c>
       <c r="K4">
-        <v>2.285008098852327</v>
+        <v>7.028789170994421</v>
       </c>
       <c r="L4">
-        <v>8.054278985272088</v>
+        <v>24.77532965431603</v>
       </c>
       <c r="M4">
-        <v>5.068176720068198</v>
+        <v>15.58994283853677</v>
       </c>
       <c r="N4">
-        <v>0.0676891694919162</v>
+        <v>0.2082149738363506</v>
       </c>
       <c r="O4">
-        <v>0.281320179890771</v>
+        <v>0.8653537092457557</v>
       </c>
       <c r="P4">
-        <v>30.94343925870792</v>
+        <v>95.18343102773652</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.7870805401349109</v>
+        <v>2.421095653875066</v>
       </c>
       <c r="C5">
-        <v>6.004779167981773</v>
+        <v>18.47097470303139</v>
       </c>
       <c r="D5">
-        <v>0.004452496948612452</v>
+        <v>0.01369608376968621</v>
       </c>
       <c r="E5">
-        <v>0.4235117645835822</v>
+        <v>1.302741511589802</v>
       </c>
       <c r="F5">
-        <v>1.107034464097656</v>
+        <v>3.405288522642598</v>
       </c>
       <c r="G5">
-        <v>1.999659587929677</v>
+        <v>6.151044131692429</v>
       </c>
       <c r="H5">
-        <v>0.1853371287104077</v>
+        <v>0.5701054643601513</v>
       </c>
       <c r="I5">
-        <v>1.373647508003111</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="J5">
-        <v>1.454644303654604</v>
+        <v>4.474552249644771</v>
       </c>
       <c r="K5">
-        <v>1.926575455895099</v>
+        <v>5.926234006916865</v>
       </c>
       <c r="L5">
-        <v>7.654421163308225</v>
+        <v>23.54534874949183</v>
       </c>
       <c r="M5">
-        <v>4.816565109852046</v>
+        <v>14.81597404513424</v>
       </c>
       <c r="N5">
-        <v>0.07615031567840573</v>
+        <v>0.2342418455658944</v>
       </c>
       <c r="O5">
-        <v>0.3164852023771173</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="P5">
-        <v>28.13034420915523</v>
+        <v>86.53022230116571</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.8137058165667745</v>
+        <v>2.502996219020989</v>
       </c>
       <c r="C6">
-        <v>6.20790819621617</v>
+        <v>19.09580886212503</v>
       </c>
       <c r="D6">
-        <v>0.005073775592604887</v>
+        <v>0.01560716522592149</v>
       </c>
       <c r="E6">
-        <v>0.4826064294091983</v>
+        <v>1.484519396927914</v>
       </c>
       <c r="F6">
-        <v>1.696262485310924</v>
+        <v>5.217780800823338</v>
       </c>
       <c r="G6">
-        <v>3.063994529892246</v>
+        <v>9.424986975980337</v>
       </c>
       <c r="H6">
-        <v>0.1853371287104077</v>
+        <v>0.5701054643601513</v>
       </c>
       <c r="I6">
-        <v>1.373647508003111</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="J6">
-        <v>1.765870526762101</v>
+        <v>5.431898312359467</v>
       </c>
       <c r="K6">
-        <v>2.338772995295912</v>
+        <v>7.194172445606054</v>
       </c>
       <c r="L6">
-        <v>6.740460427390823</v>
+        <v>20.73396382417938</v>
       </c>
       <c r="M6">
-        <v>4.241452857929413</v>
+        <v>13.04690251735702</v>
       </c>
       <c r="N6">
-        <v>0.07191974258516096</v>
+        <v>0.2212284097011225</v>
       </c>
       <c r="O6">
-        <v>0.2989026911339442</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="P6">
-        <v>29.28591511079879</v>
+        <v>90.08481112028983</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.8384626525472797</v>
+        <v>2.579149376086496</v>
       </c>
       <c r="C7">
-        <v>6.396782555802541</v>
+        <v>19.6767950100542</v>
       </c>
       <c r="D7">
-        <v>0.004763136270608669</v>
+        <v>0.01465162449780386</v>
       </c>
       <c r="E7">
-        <v>0.4530590969963904</v>
+        <v>1.393630454258859</v>
       </c>
       <c r="F7">
-        <v>1.678407090728703</v>
+        <v>5.162856792393615</v>
       </c>
       <c r="G7">
-        <v>3.031741955893382</v>
+        <v>9.325776586759492</v>
       </c>
       <c r="H7">
-        <v>0.1544476072586731</v>
+        <v>0.4750878869667927</v>
       </c>
       <c r="I7">
-        <v>1.144706256669259</v>
+        <v>3.52116867545791</v>
       </c>
       <c r="J7">
-        <v>1.826762613891828</v>
+        <v>5.61920515071669</v>
       </c>
       <c r="K7">
-        <v>2.419420339961288</v>
+        <v>7.442247357523505</v>
       </c>
       <c r="L7">
-        <v>7.825788801292735</v>
+        <v>24.07248342298792</v>
       </c>
       <c r="M7">
-        <v>4.924398657087539</v>
+        <v>15.14767495659247</v>
       </c>
       <c r="N7">
-        <v>0.08884203495814001</v>
+        <v>0.27328215316021</v>
       </c>
       <c r="O7">
-        <v>0.3692327361066369</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="P7">
-        <v>31.156815535465</v>
+        <v>95.83978619084102</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.8893776548468083</v>
+        <v>2.735766246277822</v>
       </c>
       <c r="C8">
-        <v>6.785222276461302</v>
+        <v>20.87165331428591</v>
       </c>
       <c r="D8">
-        <v>0.004970229151939481</v>
+        <v>0.01528865164988228</v>
       </c>
       <c r="E8">
-        <v>0.472757318604929</v>
+        <v>1.454223082704896</v>
       </c>
       <c r="F8">
-        <v>1.714117879893144</v>
+        <v>5.272704809253056</v>
       </c>
       <c r="G8">
-        <v>3.096247103891112</v>
+        <v>9.524197365201177</v>
       </c>
       <c r="H8">
-        <v>0.132383663364577</v>
+        <v>0.4072181888286796</v>
       </c>
       <c r="I8">
-        <v>0.9811767914307935</v>
+        <v>3.018144578963924</v>
       </c>
       <c r="J8">
-        <v>1.847059976268405</v>
+        <v>5.681640763502429</v>
       </c>
       <c r="K8">
-        <v>2.446302788183079</v>
+        <v>7.524938994829323</v>
       </c>
       <c r="L8">
-        <v>4.455558587597324</v>
+        <v>13.70550151089824</v>
       </c>
       <c r="M8">
-        <v>2.803672228122832</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="N8">
-        <v>0.09730318114462951</v>
+        <v>0.299309024889754</v>
       </c>
       <c r="O8">
-        <v>0.4043977585929833</v>
+        <v>1.243945957040774</v>
       </c>
       <c r="P8">
-        <v>26.13054743755386</v>
+        <v>80.37875618623983</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.040721331406874</v>
+        <v>3.201306300791486</v>
       </c>
       <c r="C9">
-        <v>7.939850436951564</v>
+        <v>24.42334221860767</v>
       </c>
       <c r="D9">
-        <v>0.00424540406728164</v>
+        <v>0.01305905661760778</v>
       </c>
       <c r="E9">
-        <v>0.4038135429750435</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="F9">
-        <v>2.017659587790888</v>
+        <v>6.206412952558284</v>
       </c>
       <c r="G9">
-        <v>3.644540861871831</v>
+        <v>11.21077398195556</v>
       </c>
       <c r="H9">
-        <v>0.1853371287104077</v>
+        <v>0.5701054643601513</v>
       </c>
       <c r="I9">
-        <v>1.373647508003111</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="J9">
-        <v>1.759104739303242</v>
+        <v>5.411086441430886</v>
       </c>
       <c r="K9">
-        <v>2.32981217922198</v>
+        <v>7.166608566504115</v>
       </c>
       <c r="L9">
-        <v>4.455558587597324</v>
+        <v>13.70550151089824</v>
       </c>
       <c r="M9">
-        <v>2.803672228122832</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="N9">
-        <v>0.07615031567840573</v>
+        <v>0.2342418455658944</v>
       </c>
       <c r="O9">
-        <v>0.3164852023771173</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="P9">
-        <v>28.3505990540779</v>
+        <v>87.20773625379859</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.178518814694588</v>
+        <v>3.625177646722136</v>
       </c>
       <c r="C10">
-        <v>8.991132249743631</v>
+        <v>27.65713304198705</v>
       </c>
       <c r="D10">
-        <v>0.004038311185950829</v>
+        <v>0.01242202946552935</v>
       </c>
       <c r="E10">
-        <v>0.3841153213665048</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="F10">
-        <v>1.392720777413179</v>
+        <v>4.284072657518107</v>
       </c>
       <c r="G10">
-        <v>2.515700771911529</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="H10">
-        <v>0.3133080032961653</v>
+        <v>0.9637497135612084</v>
       </c>
       <c r="I10">
-        <v>2.322118406386211</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="J10">
-        <v>1.190778592759118</v>
+        <v>3.662889283430138</v>
       </c>
       <c r="K10">
-        <v>1.577103629011802</v>
+        <v>4.851242721941247</v>
       </c>
       <c r="L10">
-        <v>2.456269477778013</v>
+        <v>7.555596986777231</v>
       </c>
       <c r="M10">
-        <v>1.545614177042075</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="N10">
-        <v>0.1226866197040981</v>
+        <v>0.3773896400783854</v>
       </c>
       <c r="O10">
-        <v>0.5098928260520225</v>
+        <v>1.568453598007932</v>
       </c>
       <c r="P10">
-        <v>24.50399797834489</v>
+        <v>75.37541583452857</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.187861016951382</v>
+        <v>3.653914687124211</v>
       </c>
       <c r="C11">
-        <v>9.062405592983767</v>
+        <v>27.87637309780939</v>
       </c>
       <c r="D11">
-        <v>0.003934764745285422</v>
+        <v>0.01210351588949014</v>
       </c>
       <c r="E11">
-        <v>0.3742662105622354</v>
+        <v>1.151259940474709</v>
       </c>
       <c r="F11">
-        <v>1.232022226173197</v>
+        <v>3.789756581650634</v>
       </c>
       <c r="G11">
-        <v>2.225427605921738</v>
+        <v>6.845516856238347</v>
       </c>
       <c r="H11">
-        <v>0.3133080032961653</v>
+        <v>0.9637497135612084</v>
       </c>
       <c r="I11">
-        <v>2.322118406386211</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="J11">
-        <v>0.9675076066167833</v>
+        <v>2.976097542786988</v>
       </c>
       <c r="K11">
-        <v>1.281396698572089</v>
+        <v>3.941634711577264</v>
       </c>
       <c r="L11">
-        <v>0.5141029139535372</v>
+        <v>1.581404020488258</v>
       </c>
       <c r="M11">
-        <v>0.3235006417064807</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="N11">
-        <v>0.05076687711893713</v>
+        <v>0.156161230377263</v>
       </c>
       <c r="O11">
-        <v>0.2109901349180782</v>
+        <v>0.6490152819343167</v>
       </c>
       <c r="P11">
-        <v>20.06960869990588</v>
+        <v>61.73503208450138</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.8926474256366855</v>
+        <v>2.745824210418549</v>
       </c>
       <c r="C12">
-        <v>6.810167946595351</v>
+        <v>20.94838733382372</v>
       </c>
       <c r="D12">
-        <v>0.001863835931977305</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E12">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F12">
-        <v>0.8749143345287922</v>
+        <v>2.691276413056247</v>
       </c>
       <c r="G12">
-        <v>1.580376125944422</v>
+        <v>4.861309071821434</v>
       </c>
       <c r="H12">
-        <v>0.2868312706232501</v>
+        <v>0.8823060757954726</v>
       </c>
       <c r="I12">
-        <v>2.125883048100053</v>
+        <v>6.539313254421834</v>
       </c>
       <c r="J12">
-        <v>0.6562813835092866</v>
+        <v>2.018751480072293</v>
       </c>
       <c r="K12">
-        <v>0.8691991591712775</v>
+        <v>2.673696272888074</v>
       </c>
       <c r="L12">
-        <v>1.028205827907074</v>
+        <v>3.162808040976515</v>
       </c>
       <c r="M12">
-        <v>0.6470012834129614</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="N12">
-        <v>0.01269171927973428</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O12">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P12">
-        <v>16.01609488884723</v>
+        <v>49.26623865048445</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.7305602164813063</v>
+        <v>2.247236559442495</v>
       </c>
       <c r="C13">
-        <v>5.573575441378923</v>
+        <v>17.14457236530628</v>
       </c>
       <c r="D13">
-        <v>0.002795753897965958</v>
+        <v>0.008599866553058784</v>
       </c>
       <c r="E13">
-        <v>0.2659259917152725</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="F13">
-        <v>0.5892280212132681</v>
+        <v>1.812492278180738</v>
       </c>
       <c r="G13">
-        <v>1.06433494196257</v>
+        <v>3.273942844287906</v>
       </c>
       <c r="H13">
-        <v>0.3221335808538038</v>
+        <v>0.9908975928164536</v>
       </c>
       <c r="I13">
-        <v>2.387530192481598</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="J13">
-        <v>0.3991814600726588</v>
+        <v>1.227900384786239</v>
       </c>
       <c r="K13">
-        <v>0.5286881483619111</v>
+        <v>1.626268867014395</v>
       </c>
       <c r="L13">
-        <v>0.9710832819122371</v>
+        <v>2.987096483144486</v>
       </c>
       <c r="M13">
-        <v>0.6110567676677968</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="N13">
-        <v>0.01269171927973428</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O13">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P13">
-        <v>13.51153305100857</v>
+        <v>41.56209216070696</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.5343739690886279</v>
+        <v>1.643758710998859</v>
       </c>
       <c r="C14">
-        <v>4.076835233335992</v>
+        <v>12.54053119303733</v>
       </c>
       <c r="D14">
-        <v>0.001553196609981088</v>
+        <v>0.004777703640588213</v>
       </c>
       <c r="E14">
-        <v>0.1477366620640403</v>
+        <v>0.4544447133452799</v>
       </c>
       <c r="F14">
-        <v>0.499951048302167</v>
+        <v>1.537872236032141</v>
       </c>
       <c r="G14">
-        <v>0.9030720719682411</v>
+        <v>2.777890898183678</v>
       </c>
       <c r="H14">
-        <v>0.2427033828350577</v>
+        <v>0.7465666795192458</v>
       </c>
       <c r="I14">
-        <v>1.798824117623121</v>
+        <v>5.533265061433859</v>
       </c>
       <c r="J14">
-        <v>0.3585867353195069</v>
+        <v>1.103029159214757</v>
       </c>
       <c r="K14">
-        <v>0.4749232519183268</v>
+        <v>1.460885592402762</v>
       </c>
       <c r="L14">
-        <v>0.5141029139535372</v>
+        <v>1.581404020488258</v>
       </c>
       <c r="M14">
-        <v>0.3235006417064807</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="N14">
-        <v>0.008461146186489524</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O14">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P14">
-        <v>9.919789393397915</v>
+        <v>30.5137247880567</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.3755565307231264</v>
+        <v>1.155229024163533</v>
       </c>
       <c r="C15">
-        <v>2.865188398253616</v>
+        <v>8.813450244057705</v>
       </c>
       <c r="D15">
-        <v>0.001863835931977305</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E15">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F15">
-        <v>0.2499755241510835</v>
+        <v>0.7689361180160706</v>
       </c>
       <c r="G15">
-        <v>0.4515360359841206</v>
+        <v>1.388945449091839</v>
       </c>
       <c r="H15">
-        <v>0.1235580858069384</v>
+        <v>0.3800703095734344</v>
       </c>
       <c r="I15">
-        <v>0.9157650053354071</v>
+        <v>2.816934940366329</v>
       </c>
       <c r="J15">
-        <v>0.1962078363069</v>
+        <v>0.6035442569288295</v>
       </c>
       <c r="K15">
-        <v>0.2598636661439901</v>
+        <v>0.7993524939562283</v>
       </c>
       <c r="L15">
-        <v>1.085328373901912</v>
+        <v>3.338519598808545</v>
       </c>
       <c r="M15">
-        <v>0.6829457991581259</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="N15">
-        <v>0.008461146186489524</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O15">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P15">
-        <v>7.42869925484688</v>
+        <v>22.85101785996627</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.223745744050221</v>
+        <v>0.6882521176297677</v>
       </c>
       <c r="C16">
-        <v>1.706996570601346</v>
+        <v>5.250799336944826</v>
       </c>
       <c r="D16">
-        <v>0.002174475253973523</v>
+        <v>0.0066887850968235</v>
       </c>
       <c r="E16">
-        <v>0.2068313268896564</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="F16">
-        <v>0.2142647349866429</v>
+        <v>0.659088101156632</v>
       </c>
       <c r="G16">
-        <v>0.387030887986389</v>
+        <v>1.190524670650147</v>
       </c>
       <c r="H16">
-        <v>0.05295346534583076</v>
+        <v>0.1628872755314719</v>
       </c>
       <c r="I16">
-        <v>0.3924707165723174</v>
+        <v>1.207257831585569</v>
       </c>
       <c r="J16">
-        <v>0.1759104739303242</v>
+        <v>0.5411086441430887</v>
       </c>
       <c r="K16">
-        <v>0.2329812179221981</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="L16">
-        <v>0.6854705519380497</v>
+        <v>2.108538693984344</v>
       </c>
       <c r="M16">
-        <v>0.4313341889419742</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="N16">
-        <v>0.008461146186489524</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O16">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P16">
-        <v>4.755790523091759</v>
+        <v>14.62902864327465</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1648898698324175</v>
+        <v>0.5072087630966761</v>
       </c>
       <c r="C17">
-        <v>1.257974508188466</v>
+        <v>3.869586985264143</v>
       </c>
       <c r="D17">
-        <v>0.003417032541958394</v>
+        <v>0.01051094800929407</v>
       </c>
       <c r="E17">
-        <v>0.3250206565408887</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="F17">
-        <v>0.01785539458222025</v>
+        <v>0.05492400842971935</v>
       </c>
       <c r="G17">
-        <v>0.03225257399886577</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="H17">
-        <v>0.02647673267291538</v>
+        <v>0.08144363776573593</v>
       </c>
       <c r="I17">
-        <v>0.1962353582861587</v>
+        <v>0.6036289157927845</v>
       </c>
       <c r="J17">
-        <v>0.2773972858132035</v>
+        <v>0.8532867080717937</v>
       </c>
       <c r="K17">
-        <v>0.3673934590311586</v>
+        <v>1.130119043179495</v>
       </c>
       <c r="L17">
-        <v>0.9139607359173997</v>
+        <v>2.811384925312458</v>
       </c>
       <c r="M17">
-        <v>0.5751122519226324</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="P17">
-        <v>4.157985859328285</v>
+        <v>12.79015422127978</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.09622468324498021</v>
+        <v>0.2959915161414029</v>
       </c>
       <c r="C18">
-        <v>0.7341154353734389</v>
+        <v>2.258172574970009</v>
       </c>
       <c r="D18">
-        <v>0.002485114575969741</v>
+        <v>0.007644325824941142</v>
       </c>
       <c r="E18">
-        <v>0.2363786593024645</v>
+        <v>0.7271115413524478</v>
       </c>
       <c r="F18">
-        <v>0.01785539458222025</v>
+        <v>0.05492400842971935</v>
       </c>
       <c r="G18">
-        <v>0.03225257399886577</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="H18">
-        <v>0.01765115511527693</v>
+        <v>0.05429575851049061</v>
       </c>
       <c r="I18">
-        <v>0.1308235721907725</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="J18">
-        <v>0.216505198683476</v>
+        <v>0.6659798697145706</v>
       </c>
       <c r="K18">
-        <v>0.2867461143657822</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="L18">
-        <v>0.8568381899225623</v>
+        <v>2.63567336748043</v>
       </c>
       <c r="M18">
-        <v>0.5391677361774678</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="N18">
-        <v>0.004230573093244762</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O18">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P18">
-        <v>3.188856911869695</v>
+        <v>9.809069360085871</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,43 +1324,43 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.07380339782867415</v>
+        <v>0.2270226191764159</v>
       </c>
       <c r="C19">
-        <v>0.5630594115971036</v>
+        <v>1.731996440996414</v>
       </c>
       <c r="D19">
-        <v>0.003520578982623798</v>
+        <v>0.01082946158533328</v>
       </c>
       <c r="E19">
-        <v>0.3348697673451581</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="F19">
-        <v>0.142843156657762</v>
+        <v>0.4393920674377548</v>
       </c>
       <c r="G19">
-        <v>0.2580205919909261</v>
+        <v>0.793683113766765</v>
       </c>
       <c r="H19">
-        <v>0.004412788778819231</v>
+        <v>0.01357393962762265</v>
       </c>
       <c r="I19">
-        <v>0.03270589304769311</v>
+        <v>0.1006048192987975</v>
       </c>
       <c r="J19">
-        <v>0.1420815366360311</v>
+        <v>0.4370492895001868</v>
       </c>
       <c r="K19">
-        <v>0.1881771375525446</v>
+        <v>0.5788414611407171</v>
       </c>
       <c r="L19">
-        <v>1.14245091989675</v>
+        <v>3.514231156640572</v>
       </c>
       <c r="M19">
-        <v>0.7188903149032903</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="P19">
-        <v>3.604835495217376</v>
+        <v>11.08863846247474</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,49 +1368,49 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.09155358211658308</v>
+        <v>0.2816229959403642</v>
       </c>
       <c r="C20">
-        <v>0.6984787637533693</v>
+        <v>2.148552547058843</v>
       </c>
       <c r="D20">
-        <v>0.001863835931977305</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E20">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F20">
-        <v>0.1071323674933215</v>
+        <v>0.329544050578316</v>
       </c>
       <c r="G20">
-        <v>0.1935154439931945</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="H20">
-        <v>0.03971509900937309</v>
+        <v>0.1221654566486039</v>
       </c>
       <c r="I20">
-        <v>0.294353037429238</v>
+        <v>0.9054433736891769</v>
       </c>
       <c r="J20">
-        <v>0.1759104739303242</v>
+        <v>0.5411086441430887</v>
       </c>
       <c r="K20">
-        <v>0.2329812179221981</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="L20">
-        <v>0.9710832819122371</v>
+        <v>2.987096483144486</v>
       </c>
       <c r="M20">
-        <v>0.6110567676677968</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="N20">
-        <v>0.004230573093244762</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O20">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P20">
-        <v>3.61674094997288</v>
+        <v>11.12526018451734</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1418,49 +1418,49 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.1349948226106762</v>
+        <v>0.4152502338100266</v>
       </c>
       <c r="C21">
-        <v>1.029899809820019</v>
+        <v>3.168018806632681</v>
       </c>
       <c r="D21">
-        <v>0.0005177322033270293</v>
+        <v>0.001592567880196071</v>
       </c>
       <c r="E21">
-        <v>0.04924555402134677</v>
+        <v>0.1514815711150933</v>
       </c>
       <c r="F21">
-        <v>0.2321201295688633</v>
+        <v>0.7140121095863513</v>
       </c>
       <c r="G21">
-        <v>0.4192834619852548</v>
+        <v>1.289735059870993</v>
       </c>
       <c r="H21">
-        <v>0.02206394389409615</v>
+        <v>0.06786969813811328</v>
       </c>
       <c r="I21">
-        <v>0.1635294652384655</v>
+        <v>0.5030240964939872</v>
       </c>
       <c r="J21">
-        <v>0.3247577980252139</v>
+        <v>0.9989698045718556</v>
       </c>
       <c r="K21">
-        <v>0.4301191715486734</v>
+        <v>1.323066196893068</v>
       </c>
       <c r="L21">
-        <v>1.656553833850287</v>
+        <v>5.095635177128834</v>
       </c>
       <c r="M21">
-        <v>1.042390956609771</v>
+        <v>3.206442144096216</v>
       </c>
       <c r="N21">
-        <v>0.004230573093244762</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O21">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P21">
-        <v>5.527289763712412</v>
+        <v>17.00219550891005</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1468,49 +1468,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.3578063464352177</v>
+        <v>1.100628647399585</v>
       </c>
       <c r="C22">
-        <v>2.729769046097351</v>
+        <v>8.396894137995279</v>
       </c>
       <c r="D22">
-        <v>0.001035464406654059</v>
+        <v>0.003185135760392143</v>
       </c>
       <c r="E22">
-        <v>0.09849110804269354</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="F22">
-        <v>0.4642402591377265</v>
+        <v>1.428024219172703</v>
       </c>
       <c r="G22">
-        <v>0.8385669239705097</v>
+        <v>2.579470119741985</v>
       </c>
       <c r="H22">
-        <v>0.1588603960374924</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I22">
-        <v>1.177412149716952</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J22">
-        <v>0.6968761082624381</v>
+        <v>2.143622705643774</v>
       </c>
       <c r="K22">
-        <v>0.9229640556148616</v>
+        <v>2.839079547499707</v>
       </c>
       <c r="L22">
-        <v>2.570514569767688</v>
+        <v>7.907020102441287</v>
       </c>
       <c r="M22">
-        <v>1.617503208532403</v>
+        <v>4.975513671873439</v>
       </c>
       <c r="N22">
-        <v>0.008461146186489524</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O22">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P22">
-        <v>11.67766580469482</v>
+        <v>35.92103283649472</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1518,49 +1518,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.5871574118395152</v>
+        <v>1.806122989270601</v>
       </c>
       <c r="C23">
-        <v>4.479529622642779</v>
+        <v>13.7792375084335</v>
       </c>
       <c r="D23">
-        <v>0.002278021694638929</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E23">
-        <v>0.2166804376939258</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F23">
-        <v>0.9284805182754531</v>
+        <v>2.856048438345405</v>
       </c>
       <c r="G23">
-        <v>1.677133847941019</v>
+        <v>5.158940239483971</v>
       </c>
       <c r="H23">
-        <v>0.3883254125360923</v>
+        <v>1.194506687230793</v>
       </c>
       <c r="I23">
-        <v>2.878118588196994</v>
+        <v>8.853224098294174</v>
       </c>
       <c r="J23">
-        <v>1.231373317512269</v>
+        <v>3.78776050900162</v>
       </c>
       <c r="K23">
-        <v>1.630868525455386</v>
+        <v>5.016625996552881</v>
       </c>
       <c r="L23">
-        <v>3.427352759690249</v>
+        <v>10.54269346992172</v>
       </c>
       <c r="M23">
-        <v>2.156670944709871</v>
+        <v>6.634018229164585</v>
       </c>
       <c r="N23">
-        <v>0.05499745021218189</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O23">
-        <v>0.2285726461612514</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P23">
-        <v>19.88753950456163</v>
+        <v>61.17497893228273</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1568,49 +1568,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.9870036684303075</v>
+        <v>3.036068318479538</v>
       </c>
       <c r="C24">
-        <v>7.530028713320764</v>
+        <v>23.16271189762928</v>
       </c>
       <c r="D24">
-        <v>0.002278021694638929</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E24">
-        <v>0.2166804376939258</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F24">
-        <v>1.517708539488722</v>
+        <v>4.668540716526143</v>
       </c>
       <c r="G24">
-        <v>2.74146878990359</v>
+        <v>8.432883083771877</v>
       </c>
       <c r="H24">
-        <v>0.4898195544489348</v>
+        <v>1.506707298666115</v>
       </c>
       <c r="I24">
-        <v>3.630354128293934</v>
+        <v>11.16713494216652</v>
       </c>
       <c r="J24">
-        <v>1.549365328078625</v>
+        <v>4.765918442644898</v>
       </c>
       <c r="K24">
-        <v>2.052026880930129</v>
+        <v>6.31212831434401</v>
       </c>
       <c r="L24">
-        <v>6.511970243411474</v>
+        <v>20.03111759285126</v>
       </c>
       <c r="M24">
-        <v>4.097674794948755</v>
+        <v>12.60463463541271</v>
       </c>
       <c r="N24">
-        <v>0.1099949004243638</v>
+        <v>0.3383493324840698</v>
       </c>
       <c r="O24">
-        <v>0.4571452923225028</v>
+        <v>1.406199777524353</v>
       </c>
       <c r="P24">
-        <v>31.89351929339067</v>
+        <v>98.10592056408002</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1618,49 +1618,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.135077574200495</v>
+        <v>3.491550408852473</v>
       </c>
       <c r="C25">
-        <v>8.659711203676977</v>
+        <v>26.63766678241322</v>
       </c>
       <c r="D25">
-        <v>0.002070928813308117</v>
+        <v>0.006370271520784286</v>
       </c>
       <c r="E25">
-        <v>0.1969822160853871</v>
+        <v>0.6059262844603731</v>
       </c>
       <c r="F25">
-        <v>1.392720777413179</v>
+        <v>4.284072657518107</v>
       </c>
       <c r="G25">
-        <v>2.515700771911529</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="H25">
-        <v>0.2735929042867922</v>
+        <v>0.8415842569126046</v>
       </c>
       <c r="I25">
-        <v>2.027765368956973</v>
+        <v>6.237498796525441</v>
       </c>
       <c r="J25">
-        <v>1.285499617183138</v>
+        <v>3.954255476430262</v>
       </c>
       <c r="K25">
-        <v>1.702555054046832</v>
+        <v>5.237137029368393</v>
       </c>
       <c r="L25">
-        <v>3.770088035659275</v>
+        <v>11.59696281691389</v>
       </c>
       <c r="M25">
-        <v>2.372338039180859</v>
+        <v>7.297420052081044</v>
       </c>
       <c r="N25">
-        <v>0.05922802330542665</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O25">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P25">
-        <v>25.63948567212459</v>
+        <v>78.8682277899194</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1668,49 +1668,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.9178713717300292</v>
+        <v>2.823414219504158</v>
       </c>
       <c r="C26">
-        <v>7.002605973343729</v>
+        <v>21.54033548454402</v>
       </c>
       <c r="D26">
-        <v>0.002899300338631364</v>
+        <v>0.008918380129098</v>
       </c>
       <c r="E26">
-        <v>0.275775102519542</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="F26">
-        <v>1.624840906982042</v>
+        <v>4.998084767104459</v>
       </c>
       <c r="G26">
-        <v>2.934984233896784</v>
+        <v>9.028145419096953</v>
       </c>
       <c r="H26">
-        <v>0.2338778052774193</v>
+        <v>0.7194188002640007</v>
       </c>
       <c r="I26">
-        <v>1.733412331527735</v>
+        <v>5.332055422836265</v>
       </c>
       <c r="J26">
-        <v>1.738807376926667</v>
+        <v>5.348650828645145</v>
       </c>
       <c r="K26">
-        <v>2.302929731000189</v>
+        <v>7.083916929198299</v>
       </c>
       <c r="L26">
-        <v>9.310974997158512</v>
+        <v>28.64098392662067</v>
       </c>
       <c r="M26">
-        <v>5.858956066461814</v>
+        <v>18.02241618923046</v>
       </c>
       <c r="N26">
-        <v>0.06345859639867146</v>
+        <v>0.1952015379715787</v>
       </c>
       <c r="O26">
-        <v>0.2637376686475978</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="P26">
-        <v>34.26513146220937</v>
+        <v>105.4011078058075</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1718,49 +1718,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.7894160906991096</v>
+        <v>2.428279913975586</v>
       </c>
       <c r="C27">
-        <v>6.02259750379181</v>
+        <v>18.52578471698697</v>
       </c>
       <c r="D27">
-        <v>0.005695054236597321</v>
+        <v>0.01751824668215678</v>
       </c>
       <c r="E27">
-        <v>0.5417010942348145</v>
+        <v>1.666297282266026</v>
       </c>
       <c r="F27">
-        <v>1.464142355742061</v>
+        <v>4.503768691236986</v>
       </c>
       <c r="G27">
-        <v>2.644711067906993</v>
+        <v>8.135251916109343</v>
       </c>
       <c r="H27">
-        <v>0.1809243399315885</v>
+        <v>0.556531524732529</v>
       </c>
       <c r="I27">
-        <v>1.340941614955418</v>
+        <v>4.124797591250696</v>
       </c>
       <c r="J27">
-        <v>2.036502025116445</v>
+        <v>6.26437314950268</v>
       </c>
       <c r="K27">
-        <v>2.69720563825314</v>
+        <v>8.296727609683611</v>
       </c>
       <c r="L27">
-        <v>8.397014261241109</v>
+        <v>25.82959900130821</v>
       </c>
       <c r="M27">
-        <v>5.283843814539183</v>
+        <v>16.25334466145323</v>
       </c>
       <c r="N27">
-        <v>0.09307260805138477</v>
+        <v>0.2862955890249821</v>
       </c>
       <c r="O27">
-        <v>0.3868152473498101</v>
+        <v>1.189861350212914</v>
       </c>
       <c r="P27">
-        <v>31.88458271604946</v>
+        <v>98.07843124442591</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1768,49 +1768,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.8314560008546832</v>
+        <v>2.557596595784939</v>
       </c>
       <c r="C28">
-        <v>6.343327548372435</v>
+        <v>19.51236496818745</v>
       </c>
       <c r="D28">
-        <v>0.005280868473935698</v>
+        <v>0.01624419237799993</v>
       </c>
       <c r="E28">
-        <v>0.502304651017737</v>
+        <v>1.545112025373952</v>
       </c>
       <c r="F28">
-        <v>1.392720777413179</v>
+        <v>4.284072657518107</v>
       </c>
       <c r="G28">
-        <v>2.515700771911529</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="H28">
-        <v>0.2559417491715154</v>
+        <v>0.7872884984021138</v>
       </c>
       <c r="I28">
-        <v>1.896941796766201</v>
+        <v>5.835079519330253</v>
       </c>
       <c r="J28">
-        <v>1.677915289796938</v>
+        <v>5.161343990287922</v>
       </c>
       <c r="K28">
-        <v>2.222282386334812</v>
+        <v>6.835842017280848</v>
       </c>
       <c r="L28">
-        <v>9.767955365117214</v>
+        <v>30.0466763892769</v>
       </c>
       <c r="M28">
-        <v>6.146512192423132</v>
+        <v>18.90695195311906</v>
       </c>
       <c r="N28">
-        <v>0.09730318114462951</v>
+        <v>0.299309024889754</v>
       </c>
       <c r="O28">
-        <v>0.4043977585929833</v>
+        <v>1.243945957040774</v>
       </c>
       <c r="P28">
-        <v>34.06004033739092</v>
+        <v>104.770238148096</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1818,49 +1818,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.8286533401776448</v>
+        <v>2.548975483664316</v>
       </c>
       <c r="C29">
-        <v>6.321945545400396</v>
+        <v>19.44659295144075</v>
       </c>
       <c r="D29">
-        <v>0.004866682711274075</v>
+        <v>0.01497013807384306</v>
       </c>
       <c r="E29">
-        <v>0.4629082078006597</v>
+        <v>1.423926768481877</v>
       </c>
       <c r="F29">
-        <v>1.178456042426536</v>
+        <v>3.624984556361475</v>
       </c>
       <c r="G29">
-        <v>2.128669883925141</v>
+        <v>6.547885688575812</v>
       </c>
       <c r="H29">
-        <v>0.1720987623739501</v>
+        <v>0.5293836454772834</v>
       </c>
       <c r="I29">
-        <v>1.275529828860031</v>
+        <v>3.923587952653101</v>
       </c>
       <c r="J29">
-        <v>1.535833753160908</v>
+        <v>4.724294700787735</v>
       </c>
       <c r="K29">
-        <v>2.034105248782268</v>
+        <v>6.257000556140132</v>
       </c>
       <c r="L29">
-        <v>7.311685887339197</v>
+        <v>22.49107940249966</v>
       </c>
       <c r="M29">
-        <v>4.600898015381059</v>
+        <v>14.15257222221778</v>
       </c>
       <c r="N29">
-        <v>0.05922802330542665</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O29">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P29">
-        <v>28.16103437904891</v>
+        <v>86.62462666407062</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1868,49 +1868,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.8767656818001355</v>
+        <v>2.696971241735017</v>
       </c>
       <c r="C30">
-        <v>6.689003263087112</v>
+        <v>20.57567923892576</v>
       </c>
       <c r="D30">
-        <v>0.005073775592604887</v>
+        <v>0.01560716522592149</v>
       </c>
       <c r="E30">
-        <v>0.4826064294091983</v>
+        <v>1.484519396927914</v>
       </c>
       <c r="F30">
-        <v>1.142745253262096</v>
+        <v>3.515136539502038</v>
       </c>
       <c r="G30">
-        <v>2.064164735927409</v>
+        <v>6.34946491013412</v>
       </c>
       <c r="H30">
-        <v>0.2029882838256847</v>
+        <v>0.624401222870642</v>
       </c>
       <c r="I30">
-        <v>1.504471080193884</v>
+        <v>4.627821687744682</v>
       </c>
       <c r="J30">
-        <v>1.91471785085699</v>
+        <v>5.889759472788234</v>
       </c>
       <c r="K30">
-        <v>2.535910948922387</v>
+        <v>7.80057778584871</v>
       </c>
       <c r="L30">
-        <v>6.054989875452773</v>
+        <v>18.62542513019504</v>
       </c>
       <c r="M30">
-        <v>3.810118668987439</v>
+        <v>11.7200988715241</v>
       </c>
       <c r="N30">
-        <v>0.08884203495814001</v>
+        <v>0.27328215316021</v>
       </c>
       <c r="O30">
-        <v>0.3692327361066369</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="P30">
-        <v>27.74163061838249</v>
+        <v>85.33452155996746</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1918,49 +1918,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.8454693042398745</v>
+        <v>2.600702156388057</v>
       </c>
       <c r="C31">
-        <v>6.450237563232649</v>
+        <v>19.84122505192096</v>
       </c>
       <c r="D31">
-        <v>0.004038311185950829</v>
+        <v>0.01242202946552935</v>
       </c>
       <c r="E31">
-        <v>0.3841153213665048</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="F31">
-        <v>1.624840906982042</v>
+        <v>4.998084767104459</v>
       </c>
       <c r="G31">
-        <v>2.934984233896784</v>
+        <v>9.028145419096953</v>
       </c>
       <c r="H31">
-        <v>0.1853371287104077</v>
+        <v>0.5701054643601513</v>
       </c>
       <c r="I31">
-        <v>1.373647508003111</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="J31">
-        <v>1.813231038974111</v>
+        <v>5.577581408859529</v>
       </c>
       <c r="K31">
-        <v>2.401498707813427</v>
+        <v>7.387119599319627</v>
       </c>
       <c r="L31">
-        <v>5.769377145478587</v>
+        <v>17.7468673410349</v>
       </c>
       <c r="M31">
-        <v>3.630396090261616</v>
+        <v>11.16726401909372</v>
       </c>
       <c r="N31">
-        <v>0.1015337542378743</v>
+        <v>0.3123224607545259</v>
       </c>
       <c r="O31">
-        <v>0.4219802698361565</v>
+        <v>1.298030563868633</v>
       </c>
       <c r="P31">
-        <v>27.94068728421909</v>
+        <v>85.94682894651427</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1968,49 +1968,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.8954500863137238</v>
+        <v>2.754445322539171</v>
       </c>
       <c r="C32">
-        <v>6.831549949567395</v>
+        <v>21.01415935057042</v>
       </c>
       <c r="D32">
-        <v>0.004659589829943264</v>
+        <v>0.01433311092176464</v>
       </c>
       <c r="E32">
-        <v>0.443209986192121</v>
+        <v>1.36333414003584</v>
       </c>
       <c r="F32">
-        <v>1.606985512399822</v>
+        <v>4.943160758674738</v>
       </c>
       <c r="G32">
-        <v>2.902731659897919</v>
+        <v>8.928935029876108</v>
       </c>
       <c r="H32">
-        <v>0.1941627062680461</v>
+        <v>0.5972533436153967</v>
       </c>
       <c r="I32">
-        <v>1.439059294098497</v>
+        <v>4.426612049147087</v>
       </c>
       <c r="J32">
-        <v>1.765870526762101</v>
+        <v>5.431898312359467</v>
       </c>
       <c r="K32">
-        <v>2.338772995295912</v>
+        <v>7.194172445606054</v>
       </c>
       <c r="L32">
-        <v>5.712254599483749</v>
+        <v>17.57115578320287</v>
       </c>
       <c r="M32">
-        <v>3.594451574516451</v>
+        <v>11.05669704860764</v>
       </c>
       <c r="N32">
-        <v>0.05922802330542665</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O32">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P32">
-        <v>28.03454166133553</v>
+        <v>86.23552929285341</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2018,49 +2018,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.040721331406874</v>
+        <v>3.201306300791486</v>
       </c>
       <c r="C33">
-        <v>7.939850436951564</v>
+        <v>24.42334221860767</v>
       </c>
       <c r="D33">
-        <v>0.00424540406728164</v>
+        <v>0.01305905661760778</v>
       </c>
       <c r="E33">
-        <v>0.4038135429750435</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="F33">
-        <v>2.017659587790888</v>
+        <v>6.206412952558284</v>
       </c>
       <c r="G33">
-        <v>3.644540861871831</v>
+        <v>11.21077398195556</v>
       </c>
       <c r="H33">
-        <v>0.1853371287104077</v>
+        <v>0.5701054643601513</v>
       </c>
       <c r="I33">
-        <v>1.373647508003111</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="J33">
-        <v>1.759104739303242</v>
+        <v>5.411086441430886</v>
       </c>
       <c r="K33">
-        <v>2.32981217922198</v>
+        <v>7.166608566504115</v>
       </c>
       <c r="L33">
-        <v>4.455558587597324</v>
+        <v>13.70550151089824</v>
       </c>
       <c r="M33">
-        <v>2.803672228122832</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="N33">
-        <v>0.07615031567840573</v>
+        <v>0.2342418455658944</v>
       </c>
       <c r="O33">
-        <v>0.3164852023771173</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="P33">
-        <v>28.3505990540779</v>
+        <v>87.20773625379859</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2068,49 +2068,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.178518814694588</v>
+        <v>3.625177646722136</v>
       </c>
       <c r="C34">
-        <v>8.991132249743631</v>
+        <v>27.65713304198705</v>
       </c>
       <c r="D34">
-        <v>0.004038311185950829</v>
+        <v>0.01242202946552935</v>
       </c>
       <c r="E34">
-        <v>0.3841153213665048</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="F34">
-        <v>1.392720777413179</v>
+        <v>4.284072657518107</v>
       </c>
       <c r="G34">
-        <v>2.515700771911529</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="H34">
-        <v>0.3133080032961653</v>
+        <v>0.9637497135612084</v>
       </c>
       <c r="I34">
-        <v>2.322118406386211</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="J34">
-        <v>1.190778592759118</v>
+        <v>3.662889283430138</v>
       </c>
       <c r="K34">
-        <v>1.577103629011802</v>
+        <v>4.851242721941247</v>
       </c>
       <c r="L34">
-        <v>2.456269477778013</v>
+        <v>7.555596986777231</v>
       </c>
       <c r="M34">
-        <v>1.545614177042075</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="N34">
-        <v>0.1226866197040981</v>
+        <v>0.3773896400783854</v>
       </c>
       <c r="O34">
-        <v>0.5098928260520225</v>
+        <v>1.568453598007932</v>
       </c>
       <c r="P34">
-        <v>24.50399797834489</v>
+        <v>75.37541583452857</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2118,49 +2118,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.187861016951382</v>
+        <v>3.653914687124211</v>
       </c>
       <c r="C35">
-        <v>9.062405592983767</v>
+        <v>27.87637309780939</v>
       </c>
       <c r="D35">
-        <v>0.003934764745285422</v>
+        <v>0.01210351588949014</v>
       </c>
       <c r="E35">
-        <v>0.3742662105622354</v>
+        <v>1.151259940474709</v>
       </c>
       <c r="F35">
-        <v>1.232022226173197</v>
+        <v>3.789756581650634</v>
       </c>
       <c r="G35">
-        <v>2.225427605921738</v>
+        <v>6.845516856238347</v>
       </c>
       <c r="H35">
-        <v>0.3133080032961653</v>
+        <v>0.9637497135612084</v>
       </c>
       <c r="I35">
-        <v>2.322118406386211</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="J35">
-        <v>0.9675076066167833</v>
+        <v>2.976097542786988</v>
       </c>
       <c r="K35">
-        <v>1.281396698572089</v>
+        <v>3.941634711577264</v>
       </c>
       <c r="L35">
-        <v>0.5141029139535372</v>
+        <v>1.581404020488258</v>
       </c>
       <c r="M35">
-        <v>0.3235006417064807</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="N35">
-        <v>0.05076687711893713</v>
+        <v>0.156161230377263</v>
       </c>
       <c r="O35">
-        <v>0.2109901349180782</v>
+        <v>0.6490152819343167</v>
       </c>
       <c r="P35">
-        <v>20.06960869990588</v>
+        <v>61.73503208450138</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2168,49 +2168,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.8926474256366855</v>
+        <v>2.745824210418549</v>
       </c>
       <c r="C36">
-        <v>6.810167946595351</v>
+        <v>20.94838733382372</v>
       </c>
       <c r="D36">
-        <v>0.001863835931977305</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E36">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F36">
-        <v>0.8749143345287922</v>
+        <v>2.691276413056247</v>
       </c>
       <c r="G36">
-        <v>1.580376125944422</v>
+        <v>4.861309071821434</v>
       </c>
       <c r="H36">
-        <v>0.2868312706232501</v>
+        <v>0.8823060757954726</v>
       </c>
       <c r="I36">
-        <v>2.125883048100053</v>
+        <v>6.539313254421834</v>
       </c>
       <c r="J36">
-        <v>0.6562813835092866</v>
+        <v>2.018751480072293</v>
       </c>
       <c r="K36">
-        <v>0.8691991591712775</v>
+        <v>2.673696272888074</v>
       </c>
       <c r="L36">
-        <v>1.028205827907074</v>
+        <v>3.162808040976515</v>
       </c>
       <c r="M36">
-        <v>0.6470012834129614</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="N36">
-        <v>0.01269171927973428</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O36">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P36">
-        <v>16.01609488884723</v>
+        <v>49.26623865048445</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2218,49 +2218,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.7305602164813063</v>
+        <v>2.247236559442495</v>
       </c>
       <c r="C37">
-        <v>5.573575441378923</v>
+        <v>17.14457236530628</v>
       </c>
       <c r="D37">
-        <v>0.002795753897965958</v>
+        <v>0.008599866553058784</v>
       </c>
       <c r="E37">
-        <v>0.2659259917152725</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="F37">
-        <v>0.5892280212132681</v>
+        <v>1.812492278180738</v>
       </c>
       <c r="G37">
-        <v>1.06433494196257</v>
+        <v>3.273942844287906</v>
       </c>
       <c r="H37">
-        <v>0.3221335808538038</v>
+        <v>0.9908975928164536</v>
       </c>
       <c r="I37">
-        <v>2.387530192481598</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="J37">
-        <v>0.3991814600726588</v>
+        <v>1.227900384786239</v>
       </c>
       <c r="K37">
-        <v>0.5286881483619111</v>
+        <v>1.626268867014395</v>
       </c>
       <c r="L37">
-        <v>0.9710832819122371</v>
+        <v>2.987096483144486</v>
       </c>
       <c r="M37">
-        <v>0.6110567676677968</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="N37">
-        <v>0.01269171927973428</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O37">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P37">
-        <v>13.51153305100857</v>
+        <v>41.56209216070696</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2268,49 +2268,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.5343739690886279</v>
+        <v>1.643758710998859</v>
       </c>
       <c r="C38">
-        <v>4.076835233335992</v>
+        <v>12.54053119303733</v>
       </c>
       <c r="D38">
-        <v>0.001553196609981088</v>
+        <v>0.004777703640588213</v>
       </c>
       <c r="E38">
-        <v>0.1477366620640403</v>
+        <v>0.4544447133452799</v>
       </c>
       <c r="F38">
-        <v>0.499951048302167</v>
+        <v>1.537872236032141</v>
       </c>
       <c r="G38">
-        <v>0.9030720719682411</v>
+        <v>2.777890898183678</v>
       </c>
       <c r="H38">
-        <v>0.2427033828350577</v>
+        <v>0.7465666795192458</v>
       </c>
       <c r="I38">
-        <v>1.798824117623121</v>
+        <v>5.533265061433859</v>
       </c>
       <c r="J38">
-        <v>0.3585867353195069</v>
+        <v>1.103029159214757</v>
       </c>
       <c r="K38">
-        <v>0.4749232519183268</v>
+        <v>1.460885592402762</v>
       </c>
       <c r="L38">
-        <v>0.5141029139535372</v>
+        <v>1.581404020488258</v>
       </c>
       <c r="M38">
-        <v>0.3235006417064807</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="N38">
-        <v>0.008461146186489524</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O38">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P38">
-        <v>9.919789393397915</v>
+        <v>30.5137247880567</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2318,49 +2318,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.3755565307231264</v>
+        <v>1.155229024163533</v>
       </c>
       <c r="C39">
-        <v>2.865188398253616</v>
+        <v>8.813450244057705</v>
       </c>
       <c r="D39">
-        <v>0.001863835931977305</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E39">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F39">
-        <v>0.2499755241510835</v>
+        <v>0.7689361180160706</v>
       </c>
       <c r="G39">
-        <v>0.4515360359841206</v>
+        <v>1.388945449091839</v>
       </c>
       <c r="H39">
-        <v>0.1235580858069384</v>
+        <v>0.3800703095734344</v>
       </c>
       <c r="I39">
-        <v>0.9157650053354071</v>
+        <v>2.816934940366329</v>
       </c>
       <c r="J39">
-        <v>0.1962078363069</v>
+        <v>0.6035442569288295</v>
       </c>
       <c r="K39">
-        <v>0.2598636661439901</v>
+        <v>0.7993524939562283</v>
       </c>
       <c r="L39">
-        <v>1.085328373901912</v>
+        <v>3.338519598808545</v>
       </c>
       <c r="M39">
-        <v>0.6829457991581259</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="N39">
-        <v>0.008461146186489524</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O39">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P39">
-        <v>7.42869925484688</v>
+        <v>22.85101785996627</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2368,49 +2368,49 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.223745744050221</v>
+        <v>0.6882521176297677</v>
       </c>
       <c r="C40">
-        <v>1.706996570601346</v>
+        <v>5.250799336944826</v>
       </c>
       <c r="D40">
-        <v>0.002174475253973523</v>
+        <v>0.0066887850968235</v>
       </c>
       <c r="E40">
-        <v>0.2068313268896564</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="F40">
-        <v>0.2142647349866429</v>
+        <v>0.659088101156632</v>
       </c>
       <c r="G40">
-        <v>0.387030887986389</v>
+        <v>1.190524670650147</v>
       </c>
       <c r="H40">
-        <v>0.05295346534583076</v>
+        <v>0.1628872755314719</v>
       </c>
       <c r="I40">
-        <v>0.3924707165723174</v>
+        <v>1.207257831585569</v>
       </c>
       <c r="J40">
-        <v>0.1759104739303242</v>
+        <v>0.5411086441430887</v>
       </c>
       <c r="K40">
-        <v>0.2329812179221981</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="L40">
-        <v>0.6854705519380497</v>
+        <v>2.108538693984344</v>
       </c>
       <c r="M40">
-        <v>0.4313341889419742</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="N40">
-        <v>0.008461146186489524</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O40">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P40">
-        <v>4.755790523091759</v>
+        <v>14.62902864327465</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2418,43 +2418,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1648898698324175</v>
+        <v>0.5072087630966761</v>
       </c>
       <c r="C41">
-        <v>1.257974508188466</v>
+        <v>3.869586985264143</v>
       </c>
       <c r="D41">
-        <v>0.003417032541958394</v>
+        <v>0.01051094800929407</v>
       </c>
       <c r="E41">
-        <v>0.3250206565408887</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="F41">
-        <v>0.01785539458222025</v>
+        <v>0.05492400842971935</v>
       </c>
       <c r="G41">
-        <v>0.03225257399886577</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="H41">
-        <v>0.02647673267291538</v>
+        <v>0.08144363776573593</v>
       </c>
       <c r="I41">
-        <v>0.1962353582861587</v>
+        <v>0.6036289157927845</v>
       </c>
       <c r="J41">
-        <v>0.2773972858132035</v>
+        <v>0.8532867080717937</v>
       </c>
       <c r="K41">
-        <v>0.3673934590311586</v>
+        <v>1.130119043179495</v>
       </c>
       <c r="L41">
-        <v>0.9139607359173997</v>
+        <v>2.811384925312458</v>
       </c>
       <c r="M41">
-        <v>0.5751122519226324</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="P41">
-        <v>4.157985859328285</v>
+        <v>12.79015422127978</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.09622468324498021</v>
+        <v>0.2959915161414029</v>
       </c>
       <c r="C42">
-        <v>0.7341154353734389</v>
+        <v>2.258172574970009</v>
       </c>
       <c r="D42">
-        <v>0.002485114575969741</v>
+        <v>0.007644325824941142</v>
       </c>
       <c r="E42">
-        <v>0.2363786593024645</v>
+        <v>0.7271115413524478</v>
       </c>
       <c r="F42">
-        <v>0.01785539458222025</v>
+        <v>0.05492400842971935</v>
       </c>
       <c r="G42">
-        <v>0.03225257399886577</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="H42">
-        <v>0.01765115511527693</v>
+        <v>0.05429575851049061</v>
       </c>
       <c r="I42">
-        <v>0.1308235721907725</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="J42">
-        <v>0.216505198683476</v>
+        <v>0.6659798697145706</v>
       </c>
       <c r="K42">
-        <v>0.2867461143657822</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="L42">
-        <v>0.8568381899225623</v>
+        <v>2.63567336748043</v>
       </c>
       <c r="M42">
-        <v>0.5391677361774678</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="N42">
-        <v>0.004230573093244762</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O42">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P42">
-        <v>3.188856911869695</v>
+        <v>9.809069360085871</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2512,43 +2512,43 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.07380339782867415</v>
+        <v>0.2270226191764159</v>
       </c>
       <c r="C43">
-        <v>0.5630594115971036</v>
+        <v>1.731996440996414</v>
       </c>
       <c r="D43">
-        <v>0.003520578982623798</v>
+        <v>0.01082946158533328</v>
       </c>
       <c r="E43">
-        <v>0.3348697673451581</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="F43">
-        <v>0.142843156657762</v>
+        <v>0.4393920674377548</v>
       </c>
       <c r="G43">
-        <v>0.2580205919909261</v>
+        <v>0.793683113766765</v>
       </c>
       <c r="H43">
-        <v>0.004412788778819231</v>
+        <v>0.01357393962762265</v>
       </c>
       <c r="I43">
-        <v>0.03270589304769311</v>
+        <v>0.1006048192987975</v>
       </c>
       <c r="J43">
-        <v>0.1420815366360311</v>
+        <v>0.4370492895001868</v>
       </c>
       <c r="K43">
-        <v>0.1881771375525446</v>
+        <v>0.5788414611407171</v>
       </c>
       <c r="L43">
-        <v>1.14245091989675</v>
+        <v>3.514231156640572</v>
       </c>
       <c r="M43">
-        <v>0.7188903149032903</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="P43">
-        <v>3.604835495217376</v>
+        <v>11.08863846247474</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2556,49 +2556,49 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.09155358211658308</v>
+        <v>0.2816229959403642</v>
       </c>
       <c r="C44">
-        <v>0.6984787637533693</v>
+        <v>2.148552547058843</v>
       </c>
       <c r="D44">
-        <v>0.001863835931977305</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E44">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F44">
-        <v>0.1071323674933215</v>
+        <v>0.329544050578316</v>
       </c>
       <c r="G44">
-        <v>0.1935154439931945</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="H44">
-        <v>0.03971509900937309</v>
+        <v>0.1221654566486039</v>
       </c>
       <c r="I44">
-        <v>0.294353037429238</v>
+        <v>0.9054433736891769</v>
       </c>
       <c r="J44">
-        <v>0.1759104739303242</v>
+        <v>0.5411086441430887</v>
       </c>
       <c r="K44">
-        <v>0.2329812179221981</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="L44">
-        <v>0.9710832819122371</v>
+        <v>2.987096483144486</v>
       </c>
       <c r="M44">
-        <v>0.6110567676677968</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="N44">
-        <v>0.004230573093244762</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O44">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P44">
-        <v>3.61674094997288</v>
+        <v>11.12526018451734</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2606,49 +2606,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.1349948226106762</v>
+        <v>0.4152502338100266</v>
       </c>
       <c r="C45">
-        <v>1.029899809820019</v>
+        <v>3.168018806632681</v>
       </c>
       <c r="D45">
-        <v>0.0005177322033270293</v>
+        <v>0.001592567880196071</v>
       </c>
       <c r="E45">
-        <v>0.04924555402134677</v>
+        <v>0.1514815711150933</v>
       </c>
       <c r="F45">
-        <v>0.2321201295688633</v>
+        <v>0.7140121095863513</v>
       </c>
       <c r="G45">
-        <v>0.4192834619852548</v>
+        <v>1.289735059870993</v>
       </c>
       <c r="H45">
-        <v>0.02206394389409615</v>
+        <v>0.06786969813811328</v>
       </c>
       <c r="I45">
-        <v>0.1635294652384655</v>
+        <v>0.5030240964939872</v>
       </c>
       <c r="J45">
-        <v>0.3247577980252139</v>
+        <v>0.9989698045718556</v>
       </c>
       <c r="K45">
-        <v>0.4301191715486734</v>
+        <v>1.323066196893068</v>
       </c>
       <c r="L45">
-        <v>1.656553833850287</v>
+        <v>5.095635177128834</v>
       </c>
       <c r="M45">
-        <v>1.042390956609771</v>
+        <v>3.206442144096216</v>
       </c>
       <c r="N45">
-        <v>0.004230573093244762</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O45">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P45">
-        <v>5.527289763712412</v>
+        <v>17.00219550891005</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2656,49 +2656,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.3578063464352177</v>
+        <v>1.100628647399585</v>
       </c>
       <c r="C46">
-        <v>2.729769046097351</v>
+        <v>8.396894137995279</v>
       </c>
       <c r="D46">
-        <v>0.001035464406654059</v>
+        <v>0.003185135760392143</v>
       </c>
       <c r="E46">
-        <v>0.09849110804269354</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="F46">
-        <v>0.4642402591377265</v>
+        <v>1.428024219172703</v>
       </c>
       <c r="G46">
-        <v>0.8385669239705097</v>
+        <v>2.579470119741985</v>
       </c>
       <c r="H46">
-        <v>0.1588603960374924</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I46">
-        <v>1.177412149716952</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J46">
-        <v>0.6968761082624381</v>
+        <v>2.143622705643774</v>
       </c>
       <c r="K46">
-        <v>0.9229640556148616</v>
+        <v>2.839079547499707</v>
       </c>
       <c r="L46">
-        <v>2.570514569767688</v>
+        <v>7.907020102441287</v>
       </c>
       <c r="M46">
-        <v>1.617503208532403</v>
+        <v>4.975513671873439</v>
       </c>
       <c r="N46">
-        <v>0.008461146186489524</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O46">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P46">
-        <v>11.67766580469482</v>
+        <v>35.92103283649472</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2706,49 +2706,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.5871574118395152</v>
+        <v>1.806122989270601</v>
       </c>
       <c r="C47">
-        <v>4.479529622642779</v>
+        <v>13.7792375084335</v>
       </c>
       <c r="D47">
-        <v>0.002278021694638929</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E47">
-        <v>0.2166804376939258</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F47">
-        <v>0.9284805182754531</v>
+        <v>2.856048438345405</v>
       </c>
       <c r="G47">
-        <v>1.677133847941019</v>
+        <v>5.158940239483971</v>
       </c>
       <c r="H47">
-        <v>0.3883254125360923</v>
+        <v>1.194506687230793</v>
       </c>
       <c r="I47">
-        <v>2.878118588196994</v>
+        <v>8.853224098294174</v>
       </c>
       <c r="J47">
-        <v>1.231373317512269</v>
+        <v>3.78776050900162</v>
       </c>
       <c r="K47">
-        <v>1.630868525455386</v>
+        <v>5.016625996552881</v>
       </c>
       <c r="L47">
-        <v>3.427352759690249</v>
+        <v>10.54269346992172</v>
       </c>
       <c r="M47">
-        <v>2.156670944709871</v>
+        <v>6.634018229164585</v>
       </c>
       <c r="N47">
-        <v>0.05499745021218189</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O47">
-        <v>0.2285726461612514</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P47">
-        <v>19.88753950456163</v>
+        <v>61.17497893228273</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2756,49 +2756,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.9870036684303075</v>
+        <v>3.036068318479538</v>
       </c>
       <c r="C48">
-        <v>7.530028713320764</v>
+        <v>23.16271189762928</v>
       </c>
       <c r="D48">
-        <v>0.002278021694638929</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E48">
-        <v>0.2166804376939258</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F48">
-        <v>1.517708539488722</v>
+        <v>4.668540716526143</v>
       </c>
       <c r="G48">
-        <v>2.74146878990359</v>
+        <v>8.432883083771877</v>
       </c>
       <c r="H48">
-        <v>0.4898195544489348</v>
+        <v>1.506707298666115</v>
       </c>
       <c r="I48">
-        <v>3.630354128293934</v>
+        <v>11.16713494216652</v>
       </c>
       <c r="J48">
-        <v>1.549365328078625</v>
+        <v>4.765918442644898</v>
       </c>
       <c r="K48">
-        <v>2.052026880930129</v>
+        <v>6.31212831434401</v>
       </c>
       <c r="L48">
-        <v>6.511970243411474</v>
+        <v>20.03111759285126</v>
       </c>
       <c r="M48">
-        <v>4.097674794948755</v>
+        <v>12.60463463541271</v>
       </c>
       <c r="N48">
-        <v>0.1099949004243638</v>
+        <v>0.3383493324840698</v>
       </c>
       <c r="O48">
-        <v>0.4571452923225028</v>
+        <v>1.406199777524353</v>
       </c>
       <c r="P48">
-        <v>31.89351929339067</v>
+        <v>98.10592056408002</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2806,49 +2806,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.135077574200495</v>
+        <v>3.491550408852473</v>
       </c>
       <c r="C49">
-        <v>8.659711203676977</v>
+        <v>26.63766678241322</v>
       </c>
       <c r="D49">
-        <v>0.002070928813308117</v>
+        <v>0.006370271520784286</v>
       </c>
       <c r="E49">
-        <v>0.1969822160853871</v>
+        <v>0.6059262844603731</v>
       </c>
       <c r="F49">
-        <v>1.392720777413179</v>
+        <v>4.284072657518107</v>
       </c>
       <c r="G49">
-        <v>2.515700771911529</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="H49">
-        <v>0.2735929042867922</v>
+        <v>0.8415842569126046</v>
       </c>
       <c r="I49">
-        <v>2.027765368956973</v>
+        <v>6.237498796525441</v>
       </c>
       <c r="J49">
-        <v>1.285499617183138</v>
+        <v>3.954255476430262</v>
       </c>
       <c r="K49">
-        <v>1.702555054046832</v>
+        <v>5.237137029368393</v>
       </c>
       <c r="L49">
-        <v>3.770088035659275</v>
+        <v>11.59696281691389</v>
       </c>
       <c r="M49">
-        <v>2.372338039180859</v>
+        <v>7.297420052081044</v>
       </c>
       <c r="N49">
-        <v>0.05922802330542665</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O49">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P49">
-        <v>25.63948567212459</v>
+        <v>78.8682277899194</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2.823414219504158</v>
+        <v>0.8829713195729942</v>
       </c>
       <c r="C2">
-        <v>21.54033548454402</v>
+        <v>6.736347191087312</v>
       </c>
       <c r="D2">
-        <v>0.008918380129098</v>
+        <v>0.002789060782029411</v>
       </c>
       <c r="E2">
-        <v>0.8482967982445224</v>
+        <v>0.2652893571765936</v>
       </c>
       <c r="F2">
-        <v>4.998084767104459</v>
+        <v>1.563059883902877</v>
       </c>
       <c r="G2">
-        <v>9.028145419096953</v>
+        <v>2.823387875193485</v>
       </c>
       <c r="H2">
-        <v>0.7194188002640007</v>
+        <v>0.2249851130615477</v>
       </c>
       <c r="I2">
-        <v>5.332055422836265</v>
+        <v>1.667503117401205</v>
       </c>
       <c r="J2">
-        <v>5.348650828645145</v>
+        <v>1.672693027994093</v>
       </c>
       <c r="K2">
-        <v>7.083916929198299</v>
+        <v>2.215365862901322</v>
       </c>
       <c r="L2">
-        <v>28.64098392662067</v>
+        <v>8.956945529585946</v>
       </c>
       <c r="M2">
-        <v>18.02241618923046</v>
+        <v>5.636182071539312</v>
       </c>
       <c r="N2">
-        <v>0.1952015379715787</v>
+        <v>0.06104572201088925</v>
       </c>
       <c r="O2">
-        <v>0.811269102417896</v>
+        <v>0.2537096204100465</v>
       </c>
       <c r="P2">
-        <v>105.4011078058075</v>
+        <v>32.96227475261966</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2.45845380639777</v>
+        <v>0.7688366044729742</v>
       </c>
       <c r="C3">
-        <v>18.75598677560042</v>
+        <v>5.865592897684679</v>
       </c>
       <c r="D3">
-        <v>0.0203848688665097</v>
+        <v>0.006374996073210081</v>
       </c>
       <c r="E3">
-        <v>1.938964110273194</v>
+        <v>0.6063756735464995</v>
       </c>
       <c r="F3">
-        <v>2.471580379337369</v>
+        <v>0.772941700831093</v>
       </c>
       <c r="G3">
-        <v>4.464467514938054</v>
+        <v>1.396180817403372</v>
       </c>
       <c r="H3">
-        <v>0.5158097058496608</v>
+        <v>0.1613100810629965</v>
       </c>
       <c r="I3">
-        <v>3.822983133354303</v>
+        <v>1.195568272853694</v>
       </c>
       <c r="J3">
-        <v>6.389244375074163</v>
+        <v>1.998119687136913</v>
       </c>
       <c r="K3">
-        <v>8.462110884295246</v>
+        <v>2.646370894594186</v>
       </c>
       <c r="L3">
-        <v>23.01821407599575</v>
+        <v>7.198526775311404</v>
       </c>
       <c r="M3">
-        <v>14.48427313367601</v>
+        <v>4.529692339703375</v>
       </c>
       <c r="N3">
-        <v>0.1691746662420349</v>
+        <v>0.05290629240943735</v>
       </c>
       <c r="O3">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="P3">
-        <v>87.67474731866267</v>
+        <v>27.41867870410588</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>2.625128640729824</v>
+        <v>0.8209611200304631</v>
       </c>
       <c r="C4">
-        <v>20.02757909936994</v>
+        <v>6.263260212781944</v>
       </c>
       <c r="D4">
-        <v>0.01974784171443128</v>
+        <v>0.006175777445922267</v>
       </c>
       <c r="E4">
-        <v>1.878371481827158</v>
+        <v>0.5874264337481715</v>
       </c>
       <c r="F4">
-        <v>4.338996665947825</v>
+        <v>1.356942097014586</v>
       </c>
       <c r="G4">
-        <v>7.837620748446807</v>
+        <v>2.451072990552585</v>
       </c>
       <c r="H4">
-        <v>0.556531524732529</v>
+        <v>0.1740450874627067</v>
       </c>
       <c r="I4">
-        <v>4.124797591250696</v>
+        <v>1.289955241763197</v>
       </c>
       <c r="J4">
-        <v>5.307027086787984</v>
+        <v>1.65967596162838</v>
       </c>
       <c r="K4">
-        <v>7.028789170994421</v>
+        <v>2.198125661633608</v>
       </c>
       <c r="L4">
-        <v>24.77532965431603</v>
+        <v>7.748032636022193</v>
       </c>
       <c r="M4">
-        <v>15.58994283853677</v>
+        <v>4.875470380902106</v>
       </c>
       <c r="N4">
-        <v>0.2082149738363506</v>
+        <v>0.0651154368116152</v>
       </c>
       <c r="O4">
-        <v>0.8653537092457557</v>
+        <v>0.2706235951040497</v>
       </c>
       <c r="P4">
-        <v>95.18343102773652</v>
+        <v>29.76688263290153</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2.421095653875066</v>
+        <v>0.7571535233997434</v>
       </c>
       <c r="C5">
-        <v>18.47097470303139</v>
+        <v>5.776460568438741</v>
       </c>
       <c r="D5">
-        <v>0.01369608376968621</v>
+        <v>0.004283200486688024</v>
       </c>
       <c r="E5">
-        <v>1.302741511589802</v>
+        <v>0.4074086556640544</v>
       </c>
       <c r="F5">
-        <v>3.405288522642598</v>
+        <v>1.064941898922839</v>
       </c>
       <c r="G5">
-        <v>6.151044131692429</v>
+        <v>1.923626903977979</v>
       </c>
       <c r="H5">
-        <v>0.5701054643601513</v>
+        <v>0.1782900895959435</v>
       </c>
       <c r="I5">
-        <v>4.225402410549491</v>
+        <v>1.32141756473303</v>
       </c>
       <c r="J5">
-        <v>4.474552249644771</v>
+        <v>1.399334634314125</v>
       </c>
       <c r="K5">
-        <v>5.926234006916865</v>
+        <v>1.853321636279316</v>
       </c>
       <c r="L5">
-        <v>23.54534874949183</v>
+        <v>7.363378533524642</v>
       </c>
       <c r="M5">
-        <v>14.81597404513424</v>
+        <v>4.633425752062993</v>
       </c>
       <c r="N5">
-        <v>0.2342418455658944</v>
+        <v>0.0732548664130671</v>
       </c>
       <c r="O5">
-        <v>0.9735229229014749</v>
+        <v>0.3044515444920559</v>
       </c>
       <c r="P5">
-        <v>86.53022230116571</v>
+        <v>27.06074937230521</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2.502996219020989</v>
+        <v>0.782766431906441</v>
       </c>
       <c r="C6">
-        <v>19.09580886212503</v>
+        <v>5.971866059477915</v>
       </c>
       <c r="D6">
-        <v>0.01560716522592149</v>
+        <v>0.004880856368551469</v>
       </c>
       <c r="E6">
-        <v>1.484519396927914</v>
+        <v>0.4642563750590387</v>
       </c>
       <c r="F6">
-        <v>5.217780800823338</v>
+        <v>1.631765812865642</v>
       </c>
       <c r="G6">
-        <v>9.424986975980337</v>
+        <v>2.94749283674045</v>
       </c>
       <c r="H6">
-        <v>0.5701054643601513</v>
+        <v>0.1782900895959435</v>
       </c>
       <c r="I6">
-        <v>4.225402410549491</v>
+        <v>1.32141756473303</v>
       </c>
       <c r="J6">
-        <v>5.431898312359467</v>
+        <v>1.698727160725519</v>
       </c>
       <c r="K6">
-        <v>7.194172445606054</v>
+        <v>2.249846265436751</v>
       </c>
       <c r="L6">
-        <v>20.73396382417938</v>
+        <v>6.484169156387371</v>
       </c>
       <c r="M6">
-        <v>13.04690251735702</v>
+        <v>4.080180886145024</v>
       </c>
       <c r="N6">
-        <v>0.2212284097011225</v>
+        <v>0.06918515161234116</v>
       </c>
       <c r="O6">
-        <v>0.9194383160736154</v>
+        <v>0.2875375697980528</v>
       </c>
       <c r="P6">
-        <v>90.08481112028983</v>
+        <v>28.17238221685208</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2.579149376086496</v>
+        <v>0.8065819433249497</v>
       </c>
       <c r="C7">
-        <v>19.6767950100542</v>
+        <v>6.153558884479253</v>
       </c>
       <c r="D7">
-        <v>0.01465162449780386</v>
+        <v>0.004582028427619747</v>
       </c>
       <c r="E7">
-        <v>1.393630454258859</v>
+        <v>0.4358325153615465</v>
       </c>
       <c r="F7">
-        <v>5.162856792393615</v>
+        <v>1.614589330624951</v>
       </c>
       <c r="G7">
-        <v>9.325776586759492</v>
+        <v>2.916466596353709</v>
       </c>
       <c r="H7">
-        <v>0.4750878869667927</v>
+        <v>0.1485750746632863</v>
       </c>
       <c r="I7">
-        <v>3.52116867545791</v>
+        <v>1.101181303944192</v>
       </c>
       <c r="J7">
-        <v>5.61920515071669</v>
+        <v>1.757303959371227</v>
       </c>
       <c r="K7">
-        <v>7.442247357523505</v>
+        <v>2.327427171141467</v>
       </c>
       <c r="L7">
-        <v>24.07248342298792</v>
+        <v>7.528230291737878</v>
       </c>
       <c r="M7">
-        <v>15.14767495659247</v>
+        <v>4.737159164422614</v>
       </c>
       <c r="N7">
-        <v>0.27328215316021</v>
+        <v>0.08546401081524491</v>
       </c>
       <c r="O7">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="P7">
-        <v>95.83978619084102</v>
+        <v>29.972145743242</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2.735766246277822</v>
+        <v>0.8555610139781069</v>
       </c>
       <c r="C8">
-        <v>20.87165331428591</v>
+        <v>6.527229034010304</v>
       </c>
       <c r="D8">
-        <v>0.01528865164988228</v>
+        <v>0.004781247054907561</v>
       </c>
       <c r="E8">
-        <v>1.454223082704896</v>
+        <v>0.4547817551598747</v>
       </c>
       <c r="F8">
-        <v>5.272704809253056</v>
+        <v>1.648942295106332</v>
       </c>
       <c r="G8">
-        <v>9.524197365201177</v>
+        <v>2.978519077127193</v>
       </c>
       <c r="H8">
-        <v>0.4072181888286796</v>
+        <v>0.1273500639971025</v>
       </c>
       <c r="I8">
-        <v>3.018144578963924</v>
+        <v>0.9438696890950217</v>
       </c>
       <c r="J8">
-        <v>5.681640763502429</v>
+        <v>1.776829558919796</v>
       </c>
       <c r="K8">
-        <v>7.524938994829323</v>
+        <v>2.353287473043039</v>
       </c>
       <c r="L8">
-        <v>13.70550151089824</v>
+        <v>4.286145713544195</v>
       </c>
       <c r="M8">
-        <v>8.624223697913962</v>
+        <v>2.697068721350103</v>
       </c>
       <c r="N8">
-        <v>0.299309024889754</v>
+        <v>0.09360344041669683</v>
       </c>
       <c r="O8">
-        <v>1.243945957040774</v>
+        <v>0.3890214179620714</v>
       </c>
       <c r="P8">
-        <v>80.37875618623983</v>
+        <v>25.13699050076474</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>3.201306300791486</v>
+        <v>1.001150178121441</v>
       </c>
       <c r="C9">
-        <v>24.42334221860767</v>
+        <v>7.63795498307508</v>
       </c>
       <c r="D9">
-        <v>0.01305905661760778</v>
+        <v>0.004083981859400209</v>
       </c>
       <c r="E9">
-        <v>1.242148883143765</v>
+        <v>0.3884594158657262</v>
       </c>
       <c r="F9">
-        <v>6.206412952558284</v>
+        <v>1.940942493198079</v>
       </c>
       <c r="G9">
-        <v>11.21077398195556</v>
+        <v>3.5059651637018</v>
       </c>
       <c r="H9">
-        <v>0.5701054643601513</v>
+        <v>0.1782900895959435</v>
       </c>
       <c r="I9">
-        <v>4.225402410549491</v>
+        <v>1.32141756473303</v>
       </c>
       <c r="J9">
-        <v>5.411086441430886</v>
+        <v>1.692218627542663</v>
       </c>
       <c r="K9">
-        <v>7.166608566504115</v>
+        <v>2.241226164802893</v>
       </c>
       <c r="L9">
-        <v>13.70550151089824</v>
+        <v>4.286145713544195</v>
       </c>
       <c r="M9">
-        <v>8.624223697913962</v>
+        <v>2.697068721350103</v>
       </c>
       <c r="N9">
-        <v>0.2342418455658944</v>
+        <v>0.0732548664130671</v>
       </c>
       <c r="O9">
-        <v>0.9735229229014749</v>
+        <v>0.3044515444920559</v>
       </c>
       <c r="P9">
-        <v>87.20773625379859</v>
+        <v>27.27262950829547</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>3.625177646722136</v>
+        <v>1.133708213375402</v>
       </c>
       <c r="C10">
-        <v>27.65713304198705</v>
+        <v>8.649264103365537</v>
       </c>
       <c r="D10">
-        <v>0.01242202946552935</v>
+        <v>0.003884763232112393</v>
       </c>
       <c r="E10">
-        <v>1.181556254697728</v>
+        <v>0.3695101760673983</v>
       </c>
       <c r="F10">
-        <v>4.284072657518107</v>
+        <v>1.339765614773895</v>
       </c>
       <c r="G10">
-        <v>7.738410359225959</v>
+        <v>2.420046750165845</v>
       </c>
       <c r="H10">
-        <v>0.9637497135612084</v>
+        <v>0.3013951514598092</v>
       </c>
       <c r="I10">
-        <v>7.14294217021462</v>
+        <v>2.233824930858218</v>
       </c>
       <c r="J10">
-        <v>3.662889283430138</v>
+        <v>1.145501840182725</v>
       </c>
       <c r="K10">
-        <v>4.851242721941247</v>
+        <v>1.517137711558882</v>
       </c>
       <c r="L10">
-        <v>7.555596986777231</v>
+        <v>2.362875201056414</v>
       </c>
       <c r="M10">
-        <v>4.754379730901285</v>
+        <v>1.486845577154543</v>
       </c>
       <c r="N10">
-        <v>0.3773896400783854</v>
+        <v>0.1180217292210525</v>
       </c>
       <c r="O10">
-        <v>1.568453598007932</v>
+        <v>0.4905052661260899</v>
       </c>
       <c r="P10">
-        <v>75.37541583452857</v>
+        <v>23.57228702859792</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>3.653914687124211</v>
+        <v>1.142695198816348</v>
       </c>
       <c r="C11">
-        <v>27.87637309780939</v>
+        <v>8.71782743355473</v>
       </c>
       <c r="D11">
-        <v>0.01210351588949014</v>
+        <v>0.003785153918468486</v>
       </c>
       <c r="E11">
-        <v>1.151259940474709</v>
+        <v>0.3600355561682341</v>
       </c>
       <c r="F11">
-        <v>3.789756581650634</v>
+        <v>1.185177274607677</v>
       </c>
       <c r="G11">
-        <v>6.845516856238347</v>
+        <v>2.14081058668517</v>
       </c>
       <c r="H11">
-        <v>0.9637497135612084</v>
+        <v>0.3013951514598092</v>
       </c>
       <c r="I11">
-        <v>7.14294217021462</v>
+        <v>2.233824930858218</v>
       </c>
       <c r="J11">
-        <v>2.976097542786988</v>
+        <v>0.9307202451484644</v>
       </c>
       <c r="K11">
-        <v>3.941634711577264</v>
+        <v>1.232674390641592</v>
       </c>
       <c r="L11">
-        <v>1.581404020488258</v>
+        <v>0.4945552746397146</v>
       </c>
       <c r="M11">
-        <v>0.9951027343746879</v>
+        <v>0.3112002370788579</v>
       </c>
       <c r="N11">
-        <v>0.156161230377263</v>
+        <v>0.04883657760871139</v>
       </c>
       <c r="O11">
-        <v>0.6490152819343167</v>
+        <v>0.2029676963280372</v>
       </c>
       <c r="P11">
-        <v>61.73503208450138</v>
+        <v>19.30650570751403</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2.745824210418549</v>
+        <v>0.8587064588824389</v>
       </c>
       <c r="C12">
-        <v>20.94838733382372</v>
+        <v>6.551226199576516</v>
       </c>
       <c r="D12">
-        <v>0.005733244368705854</v>
+        <v>0.001792967645590335</v>
       </c>
       <c r="E12">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="F12">
-        <v>2.691276413056247</v>
+        <v>0.8416476297938572</v>
       </c>
       <c r="G12">
-        <v>4.861309071821434</v>
+        <v>1.520285778950338</v>
       </c>
       <c r="H12">
-        <v>0.8823060757954726</v>
+        <v>0.2759251386603887</v>
       </c>
       <c r="I12">
-        <v>6.539313254421834</v>
+        <v>2.045050993039214</v>
       </c>
       <c r="J12">
-        <v>2.018751480072293</v>
+        <v>0.6313277187370702</v>
       </c>
       <c r="K12">
-        <v>2.673696272888074</v>
+        <v>0.8361497614841567</v>
       </c>
       <c r="L12">
-        <v>3.162808040976515</v>
+        <v>0.9891105492794292</v>
       </c>
       <c r="M12">
-        <v>1.990205468749376</v>
+        <v>0.6224004741577157</v>
       </c>
       <c r="N12">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O12">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P12">
-        <v>49.26623865048445</v>
+        <v>15.40711789687585</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>2.247236559442495</v>
+        <v>0.7027822614820164</v>
       </c>
       <c r="C13">
-        <v>17.14457236530628</v>
+        <v>5.361652420794177</v>
       </c>
       <c r="D13">
-        <v>0.008599866553058784</v>
+        <v>0.002689451468385503</v>
       </c>
       <c r="E13">
-        <v>0.8180004840215038</v>
+        <v>0.2558147372774295</v>
       </c>
       <c r="F13">
-        <v>1.812492278180738</v>
+        <v>0.5668239139428017</v>
       </c>
       <c r="G13">
-        <v>3.273942844287906</v>
+        <v>1.023865932762472</v>
       </c>
       <c r="H13">
-        <v>0.9908975928164536</v>
+        <v>0.3098851557262828</v>
       </c>
       <c r="I13">
-        <v>7.344151808812213</v>
+        <v>2.296749576797886</v>
       </c>
       <c r="J13">
-        <v>1.227900384786239</v>
+        <v>0.3840034577885272</v>
       </c>
       <c r="K13">
-        <v>1.626268867014395</v>
+        <v>0.5085859373975797</v>
       </c>
       <c r="L13">
-        <v>2.987096483144486</v>
+        <v>0.9341599632083502</v>
       </c>
       <c r="M13">
-        <v>1.879638498263299</v>
+        <v>0.5878226700378426</v>
       </c>
       <c r="N13">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O13">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P13">
-        <v>41.56209216070696</v>
+        <v>12.99778654716794</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.643758710998859</v>
+        <v>0.5140555672221401</v>
       </c>
       <c r="C14">
-        <v>12.54053119303733</v>
+        <v>3.921822486821316</v>
       </c>
       <c r="D14">
-        <v>0.004777703640588213</v>
+        <v>0.001494139704658613</v>
       </c>
       <c r="E14">
-        <v>0.4544447133452799</v>
+        <v>0.1421192984874608</v>
       </c>
       <c r="F14">
-        <v>1.537872236032141</v>
+        <v>0.4809415027393468</v>
       </c>
       <c r="G14">
-        <v>2.777890898183678</v>
+        <v>0.8687347308287645</v>
       </c>
       <c r="H14">
-        <v>0.7465666795192458</v>
+        <v>0.2334751173280213</v>
       </c>
       <c r="I14">
-        <v>5.533265061433859</v>
+        <v>1.730427763340873</v>
       </c>
       <c r="J14">
-        <v>1.103029159214757</v>
+        <v>0.3449522586913888</v>
       </c>
       <c r="K14">
-        <v>1.460885592402762</v>
+        <v>0.456865333594436</v>
       </c>
       <c r="L14">
-        <v>1.581404020488258</v>
+        <v>0.4945552746397146</v>
       </c>
       <c r="M14">
-        <v>0.9951027343746879</v>
+        <v>0.3112002370788579</v>
       </c>
       <c r="N14">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O14">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P14">
-        <v>30.5137247880567</v>
+        <v>9.542611089466437</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>1.155229024163533</v>
+        <v>0.3612768147260496</v>
       </c>
       <c r="C15">
-        <v>8.813450244057705</v>
+        <v>2.756245873605189</v>
       </c>
       <c r="D15">
-        <v>0.005733244368705854</v>
+        <v>0.001792967645590335</v>
       </c>
       <c r="E15">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="F15">
-        <v>0.7689361180160706</v>
+        <v>0.2404707513696734</v>
       </c>
       <c r="G15">
-        <v>1.388945449091839</v>
+        <v>0.4343673654143823</v>
       </c>
       <c r="H15">
-        <v>0.3800703095734344</v>
+        <v>0.118860059730629</v>
       </c>
       <c r="I15">
-        <v>2.816934940366329</v>
+        <v>0.8809450431553534</v>
       </c>
       <c r="J15">
-        <v>0.6035442569288295</v>
+        <v>0.1887474623028354</v>
       </c>
       <c r="K15">
-        <v>0.7993524939562283</v>
+        <v>0.2499829183818612</v>
       </c>
       <c r="L15">
-        <v>3.338519598808545</v>
+        <v>1.044061135350509</v>
       </c>
       <c r="M15">
-        <v>2.100772439235452</v>
+        <v>0.6569782782775888</v>
       </c>
       <c r="N15">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O15">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P15">
-        <v>22.85101785996627</v>
+        <v>7.146239207134073</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.6882521176297677</v>
+        <v>0.2152383013106687</v>
       </c>
       <c r="C16">
-        <v>5.250799336944826</v>
+        <v>1.642091758030953</v>
       </c>
       <c r="D16">
-        <v>0.0066887850968235</v>
+        <v>0.002091795586522058</v>
       </c>
       <c r="E16">
-        <v>0.6362225986833919</v>
+        <v>0.1989670178824451</v>
       </c>
       <c r="F16">
-        <v>0.659088101156632</v>
+        <v>0.2061177868882915</v>
       </c>
       <c r="G16">
-        <v>1.190524670650147</v>
+        <v>0.3723148846408991</v>
       </c>
       <c r="H16">
-        <v>0.1628872755314719</v>
+        <v>0.05094002559884098</v>
       </c>
       <c r="I16">
-        <v>1.207257831585569</v>
+        <v>0.3775478756380087</v>
       </c>
       <c r="J16">
-        <v>0.5411086441430887</v>
+        <v>0.1692218627542663</v>
       </c>
       <c r="K16">
-        <v>0.7166608566504116</v>
+        <v>0.2241226164802894</v>
       </c>
       <c r="L16">
-        <v>2.108538693984344</v>
+        <v>0.6594070328529528</v>
       </c>
       <c r="M16">
-        <v>1.326803645832917</v>
+        <v>0.4149336494384772</v>
       </c>
       <c r="N16">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O16">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P16">
-        <v>14.62902864327465</v>
+        <v>4.574961986092073</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.5072087630966761</v>
+        <v>0.1586202930327058</v>
       </c>
       <c r="C17">
-        <v>3.869586985264143</v>
+        <v>1.210142777839095</v>
       </c>
       <c r="D17">
-        <v>0.01051094800929407</v>
+        <v>0.003287107350248949</v>
       </c>
       <c r="E17">
-        <v>0.9997783693596159</v>
+        <v>0.3126624566724139</v>
       </c>
       <c r="F17">
-        <v>0.05492400842971935</v>
+        <v>0.01717648224069096</v>
       </c>
       <c r="G17">
-        <v>0.09921038922084563</v>
+        <v>0.03102624038674159</v>
       </c>
       <c r="H17">
-        <v>0.08144363776573593</v>
+        <v>0.02547001279942049</v>
       </c>
       <c r="I17">
-        <v>0.6036289157927845</v>
+        <v>0.1887739378190043</v>
       </c>
       <c r="J17">
-        <v>0.8532867080717937</v>
+        <v>0.2668498604971121</v>
       </c>
       <c r="K17">
-        <v>1.130119043179495</v>
+        <v>0.3534241259881487</v>
       </c>
       <c r="L17">
-        <v>2.811384925312458</v>
+        <v>0.8792093771372705</v>
       </c>
       <c r="M17">
-        <v>1.769071527777222</v>
+        <v>0.5532448659179696</v>
       </c>
       <c r="P17">
-        <v>12.79015422127978</v>
+        <v>3.999887537680822</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.2959915161414029</v>
+        <v>0.09256595004174901</v>
       </c>
       <c r="C18">
-        <v>2.258172574970009</v>
+        <v>0.7062023009485935</v>
       </c>
       <c r="D18">
-        <v>0.007644325824941142</v>
+        <v>0.00239062352745378</v>
       </c>
       <c r="E18">
-        <v>0.7271115413524478</v>
+        <v>0.2273908775799374</v>
       </c>
       <c r="F18">
-        <v>0.05492400842971935</v>
+        <v>0.01717648224069096</v>
       </c>
       <c r="G18">
-        <v>0.09921038922084563</v>
+        <v>0.03102624038674159</v>
       </c>
       <c r="H18">
-        <v>0.05429575851049061</v>
+        <v>0.016980008532947</v>
       </c>
       <c r="I18">
-        <v>0.4024192771951899</v>
+        <v>0.1258492918793362</v>
       </c>
       <c r="J18">
-        <v>0.6659798697145706</v>
+        <v>0.2082730618514046</v>
       </c>
       <c r="K18">
-        <v>0.8820441312620448</v>
+        <v>0.2758432202834331</v>
       </c>
       <c r="L18">
-        <v>2.63567336748043</v>
+        <v>0.8242587910661915</v>
       </c>
       <c r="M18">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="N18">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O18">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P18">
-        <v>9.809069360085871</v>
+        <v>3.067607599631304</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,43 +1324,43 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.2270226191764159</v>
+        <v>0.07099718498347739</v>
       </c>
       <c r="C19">
-        <v>1.731996440996414</v>
+        <v>0.5416503084945526</v>
       </c>
       <c r="D19">
-        <v>0.01082946158533328</v>
+        <v>0.003386716663892856</v>
       </c>
       <c r="E19">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="F19">
-        <v>0.4393920674377548</v>
+        <v>0.1374118579255277</v>
       </c>
       <c r="G19">
-        <v>0.793683113766765</v>
+        <v>0.2482099230939327</v>
       </c>
       <c r="H19">
-        <v>0.01357393962762265</v>
+        <v>0.00424500213323675</v>
       </c>
       <c r="I19">
-        <v>0.1006048192987975</v>
+        <v>0.03146232296983406</v>
       </c>
       <c r="J19">
-        <v>0.4370492895001868</v>
+        <v>0.1366791968399843</v>
       </c>
       <c r="K19">
-        <v>0.5788414611407171</v>
+        <v>0.181022113311003</v>
       </c>
       <c r="L19">
-        <v>3.514231156640572</v>
+        <v>1.099011721421588</v>
       </c>
       <c r="M19">
-        <v>2.211339409721528</v>
+        <v>0.6915560823974619</v>
       </c>
       <c r="P19">
-        <v>11.08863846247474</v>
+        <v>3.467769506806069</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,49 +1368,49 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.2816229959403642</v>
+        <v>0.08807245732127571</v>
       </c>
       <c r="C20">
-        <v>2.148552547058843</v>
+        <v>0.671920635854002</v>
       </c>
       <c r="D20">
-        <v>0.005733244368705854</v>
+        <v>0.001792967645590335</v>
       </c>
       <c r="E20">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="F20">
-        <v>0.329544050578316</v>
+        <v>0.1030588934441458</v>
       </c>
       <c r="G20">
-        <v>0.5952623353250736</v>
+        <v>0.1861574423204495</v>
       </c>
       <c r="H20">
-        <v>0.1221654566486039</v>
+        <v>0.03820501919913076</v>
       </c>
       <c r="I20">
-        <v>0.9054433736891769</v>
+        <v>0.2831609067285065</v>
       </c>
       <c r="J20">
-        <v>0.5411086441430887</v>
+        <v>0.1692218627542663</v>
       </c>
       <c r="K20">
-        <v>0.7166608566504116</v>
+        <v>0.2241226164802894</v>
       </c>
       <c r="L20">
-        <v>2.987096483144486</v>
+        <v>0.9341599632083502</v>
       </c>
       <c r="M20">
-        <v>1.879638498263299</v>
+        <v>0.5878226700378426</v>
       </c>
       <c r="N20">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O20">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P20">
-        <v>11.12526018451734</v>
+        <v>3.479222282673531</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1418,49 +1418,49 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.4152502338100266</v>
+        <v>0.129861939621677</v>
       </c>
       <c r="C21">
-        <v>3.168018806632681</v>
+        <v>0.9907401212337067</v>
       </c>
       <c r="D21">
-        <v>0.001592567880196071</v>
+        <v>0.0004980465682195376</v>
       </c>
       <c r="E21">
-        <v>0.1514815711150933</v>
+        <v>0.0473730994958203</v>
       </c>
       <c r="F21">
-        <v>0.7140121095863513</v>
+        <v>0.2232942691289825</v>
       </c>
       <c r="G21">
-        <v>1.289735059870993</v>
+        <v>0.4033411250276407</v>
       </c>
       <c r="H21">
-        <v>0.06786969813811328</v>
+        <v>0.02122501066618375</v>
       </c>
       <c r="I21">
-        <v>0.5030240964939872</v>
+        <v>0.1573116148491703</v>
       </c>
       <c r="J21">
-        <v>0.9989698045718556</v>
+        <v>0.3124095927771069</v>
       </c>
       <c r="K21">
-        <v>1.323066196893068</v>
+        <v>0.4137648304251497</v>
       </c>
       <c r="L21">
-        <v>5.095635177128834</v>
+        <v>1.593566996061302</v>
       </c>
       <c r="M21">
-        <v>3.206442144096216</v>
+        <v>1.00275631947632</v>
       </c>
       <c r="N21">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O21">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P21">
-        <v>17.00219550891005</v>
+        <v>5.317126654826009</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1468,49 +1468,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>1.100628647399585</v>
+        <v>0.3442015423882511</v>
       </c>
       <c r="C22">
-        <v>8.396894137995279</v>
+        <v>2.625975546245741</v>
       </c>
       <c r="D22">
-        <v>0.003185135760392143</v>
+        <v>0.0009960931364390753</v>
       </c>
       <c r="E22">
-        <v>0.3029631422301866</v>
+        <v>0.09474619899164059</v>
       </c>
       <c r="F22">
-        <v>1.428024219172703</v>
+        <v>0.446588538257965</v>
       </c>
       <c r="G22">
-        <v>2.579470119741985</v>
+        <v>0.8066822500552815</v>
       </c>
       <c r="H22">
-        <v>0.4886618265944154</v>
+        <v>0.152820076796523</v>
       </c>
       <c r="I22">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="J22">
-        <v>2.143622705643774</v>
+        <v>0.6703789178342083</v>
       </c>
       <c r="K22">
-        <v>2.839079547499707</v>
+        <v>0.8878703652873003</v>
       </c>
       <c r="L22">
-        <v>7.907020102441287</v>
+        <v>2.472776373198573</v>
       </c>
       <c r="M22">
-        <v>4.975513671873439</v>
+        <v>1.556001185394289</v>
       </c>
       <c r="N22">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O22">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P22">
-        <v>35.92103283649472</v>
+        <v>11.2336480934897</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1518,49 +1518,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.806122989270601</v>
+        <v>0.5648320349634879</v>
       </c>
       <c r="C23">
-        <v>13.7792375084335</v>
+        <v>4.309205302390204</v>
       </c>
       <c r="D23">
-        <v>0.007007298672862713</v>
+        <v>0.002191404900165966</v>
       </c>
       <c r="E23">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="F23">
-        <v>2.856048438345405</v>
+        <v>0.8931770765159299</v>
       </c>
       <c r="G23">
-        <v>5.158940239483971</v>
+        <v>1.613364500110563</v>
       </c>
       <c r="H23">
-        <v>1.194506687230793</v>
+        <v>0.373560187724834</v>
       </c>
       <c r="I23">
-        <v>8.853224098294174</v>
+        <v>2.768684421345397</v>
       </c>
       <c r="J23">
-        <v>3.78776050900162</v>
+        <v>1.184553039279864</v>
       </c>
       <c r="K23">
-        <v>5.016625996552881</v>
+        <v>1.568858315362026</v>
       </c>
       <c r="L23">
-        <v>10.54269346992172</v>
+        <v>3.297035164264766</v>
       </c>
       <c r="M23">
-        <v>6.634018229164585</v>
+        <v>2.074668247192385</v>
       </c>
       <c r="N23">
-        <v>0.1691746662420349</v>
+        <v>0.05290629240943735</v>
       </c>
       <c r="O23">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="P23">
-        <v>61.17497893228273</v>
+        <v>19.13135929526271</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1568,49 +1568,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>3.036068318479538</v>
+        <v>0.9494750118359985</v>
       </c>
       <c r="C24">
-        <v>23.16271189762928</v>
+        <v>7.243715834487274</v>
       </c>
       <c r="D24">
-        <v>0.007007298672862713</v>
+        <v>0.002191404900165966</v>
       </c>
       <c r="E24">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="F24">
-        <v>4.668540716526143</v>
+        <v>1.460000990458732</v>
       </c>
       <c r="G24">
-        <v>8.432883083771877</v>
+        <v>2.637230432873035</v>
       </c>
       <c r="H24">
-        <v>1.506707298666115</v>
+        <v>0.4711952367892794</v>
       </c>
       <c r="I24">
-        <v>11.16713494216652</v>
+        <v>3.492317849651581</v>
       </c>
       <c r="J24">
-        <v>4.765918442644898</v>
+        <v>1.490454098874114</v>
       </c>
       <c r="K24">
-        <v>6.31212831434401</v>
+        <v>1.974003045153318</v>
       </c>
       <c r="L24">
-        <v>20.03111759285126</v>
+        <v>6.264366812103054</v>
       </c>
       <c r="M24">
-        <v>12.60463463541271</v>
+        <v>3.941869669665532</v>
       </c>
       <c r="N24">
-        <v>0.3383493324840698</v>
+        <v>0.1058125848188747</v>
       </c>
       <c r="O24">
-        <v>1.406199777524353</v>
+        <v>0.4397633420440807</v>
       </c>
       <c r="P24">
-        <v>98.10592056408002</v>
+        <v>30.68083795143665</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1618,49 +1618,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>3.491550408852473</v>
+        <v>1.091918731075001</v>
       </c>
       <c r="C25">
-        <v>26.63766678241322</v>
+        <v>8.330444617985837</v>
       </c>
       <c r="D25">
-        <v>0.006370271520784286</v>
+        <v>0.001992186272878151</v>
       </c>
       <c r="E25">
-        <v>0.6059262844603731</v>
+        <v>0.1894923979832812</v>
       </c>
       <c r="F25">
-        <v>4.284072657518107</v>
+        <v>1.339765614773895</v>
       </c>
       <c r="G25">
-        <v>7.738410359225959</v>
+        <v>2.420046750165845</v>
       </c>
       <c r="H25">
-        <v>0.8415842569126046</v>
+        <v>0.2631901322606785</v>
       </c>
       <c r="I25">
-        <v>6.237498796525441</v>
+        <v>1.950664024129712</v>
       </c>
       <c r="J25">
-        <v>3.954255476430262</v>
+        <v>1.236621304742715</v>
       </c>
       <c r="K25">
-        <v>5.237137029368393</v>
+        <v>1.637819120432884</v>
       </c>
       <c r="L25">
-        <v>11.59696281691389</v>
+        <v>3.626738680691241</v>
       </c>
       <c r="M25">
-        <v>7.297420052081044</v>
+        <v>2.282135071911624</v>
       </c>
       <c r="N25">
-        <v>0.1821881021068068</v>
+        <v>0.05697600721016328</v>
       </c>
       <c r="O25">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="P25">
-        <v>78.8682277899194</v>
+        <v>24.6646002853518</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1668,49 +1668,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2.823414219504158</v>
+        <v>0.8829713195729942</v>
       </c>
       <c r="C26">
-        <v>21.54033548454402</v>
+        <v>6.736347191087312</v>
       </c>
       <c r="D26">
-        <v>0.008918380129098</v>
+        <v>0.002789060782029411</v>
       </c>
       <c r="E26">
-        <v>0.8482967982445224</v>
+        <v>0.2652893571765936</v>
       </c>
       <c r="F26">
-        <v>4.998084767104459</v>
+        <v>1.563059883902877</v>
       </c>
       <c r="G26">
-        <v>9.028145419096953</v>
+        <v>2.823387875193485</v>
       </c>
       <c r="H26">
-        <v>0.7194188002640007</v>
+        <v>0.2249851130615477</v>
       </c>
       <c r="I26">
-        <v>5.332055422836265</v>
+        <v>1.667503117401205</v>
       </c>
       <c r="J26">
-        <v>5.348650828645145</v>
+        <v>1.672693027994093</v>
       </c>
       <c r="K26">
-        <v>7.083916929198299</v>
+        <v>2.215365862901322</v>
       </c>
       <c r="L26">
-        <v>28.64098392662067</v>
+        <v>8.956945529585946</v>
       </c>
       <c r="M26">
-        <v>18.02241618923046</v>
+        <v>5.636182071539312</v>
       </c>
       <c r="N26">
-        <v>0.1952015379715787</v>
+        <v>0.06104572201088925</v>
       </c>
       <c r="O26">
-        <v>0.811269102417896</v>
+        <v>0.2537096204100465</v>
       </c>
       <c r="P26">
-        <v>105.4011078058075</v>
+        <v>32.96227475261966</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1718,49 +1718,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2.428279913975586</v>
+        <v>0.7594002697599798</v>
       </c>
       <c r="C27">
-        <v>18.52578471698697</v>
+        <v>5.793601400986033</v>
       </c>
       <c r="D27">
-        <v>0.01751824668215678</v>
+        <v>0.005478512250414914</v>
       </c>
       <c r="E27">
-        <v>1.666297282266026</v>
+        <v>0.5211040944540231</v>
       </c>
       <c r="F27">
-        <v>4.503768691236986</v>
+        <v>1.408471543736659</v>
       </c>
       <c r="G27">
-        <v>8.135251916109343</v>
+        <v>2.54415171171281</v>
       </c>
       <c r="H27">
-        <v>0.556531524732529</v>
+        <v>0.1740450874627067</v>
       </c>
       <c r="I27">
-        <v>4.124797591250696</v>
+        <v>1.289955241763197</v>
       </c>
       <c r="J27">
-        <v>6.26437314950268</v>
+        <v>1.959068488039775</v>
       </c>
       <c r="K27">
-        <v>8.296727609683611</v>
+        <v>2.594650290791043</v>
       </c>
       <c r="L27">
-        <v>25.82959900130821</v>
+        <v>8.07773615244867</v>
       </c>
       <c r="M27">
-        <v>16.25334466145323</v>
+        <v>5.082937205621345</v>
       </c>
       <c r="N27">
-        <v>0.2862955890249821</v>
+        <v>0.08953372561597089</v>
       </c>
       <c r="O27">
-        <v>1.189861350212914</v>
+        <v>0.3721074432680683</v>
       </c>
       <c r="P27">
-        <v>98.07843124442591</v>
+        <v>30.67224116791069</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1768,49 +1768,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2.557596595784939</v>
+        <v>0.7998417042442395</v>
       </c>
       <c r="C28">
-        <v>19.51236496818745</v>
+        <v>6.102136386837361</v>
       </c>
       <c r="D28">
-        <v>0.01624419237799993</v>
+        <v>0.005080074995839285</v>
       </c>
       <c r="E28">
-        <v>1.545112025373952</v>
+        <v>0.4832056148573668</v>
       </c>
       <c r="F28">
-        <v>4.284072657518107</v>
+        <v>1.339765614773895</v>
       </c>
       <c r="G28">
-        <v>7.738410359225959</v>
+        <v>2.420046750165845</v>
       </c>
       <c r="H28">
-        <v>0.7872884984021138</v>
+        <v>0.2462101237277315</v>
       </c>
       <c r="I28">
-        <v>5.835079519330253</v>
+        <v>1.824814732250376</v>
       </c>
       <c r="J28">
-        <v>5.161343990287922</v>
+        <v>1.614116229348386</v>
       </c>
       <c r="K28">
-        <v>6.835842017280848</v>
+        <v>2.137784957196606</v>
       </c>
       <c r="L28">
-        <v>30.0466763892769</v>
+        <v>9.396550218154577</v>
       </c>
       <c r="M28">
-        <v>18.90695195311906</v>
+        <v>5.912804504498298</v>
       </c>
       <c r="N28">
-        <v>0.299309024889754</v>
+        <v>0.09360344041669683</v>
       </c>
       <c r="O28">
-        <v>1.243945957040774</v>
+        <v>0.3890214179620714</v>
       </c>
       <c r="P28">
-        <v>104.770238148096</v>
+        <v>32.76498176942929</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1818,49 +1818,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2.548975483664316</v>
+        <v>0.7971456086119553</v>
       </c>
       <c r="C29">
-        <v>19.44659295144075</v>
+        <v>6.081567387780606</v>
       </c>
       <c r="D29">
-        <v>0.01497013807384306</v>
+        <v>0.004681637741263654</v>
       </c>
       <c r="E29">
-        <v>1.423926768481877</v>
+        <v>0.4453071352607106</v>
       </c>
       <c r="F29">
-        <v>3.624984556361475</v>
+        <v>1.133647827885603</v>
       </c>
       <c r="G29">
-        <v>6.547885688575812</v>
+        <v>2.047731865524945</v>
       </c>
       <c r="H29">
-        <v>0.5293836454772834</v>
+        <v>0.1655550831962332</v>
       </c>
       <c r="I29">
-        <v>3.923587952653101</v>
+        <v>1.227030595823528</v>
       </c>
       <c r="J29">
-        <v>4.724294700787735</v>
+        <v>1.477437032508402</v>
       </c>
       <c r="K29">
-        <v>6.257000556140132</v>
+        <v>1.956762843885603</v>
       </c>
       <c r="L29">
-        <v>22.49107940249966</v>
+        <v>7.033675017098164</v>
       </c>
       <c r="M29">
-        <v>14.15257222221778</v>
+        <v>4.425958927343757</v>
       </c>
       <c r="N29">
-        <v>0.1821881021068068</v>
+        <v>0.05697600721016328</v>
       </c>
       <c r="O29">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="P29">
-        <v>86.62462666407062</v>
+        <v>27.09027261558698</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1868,49 +1868,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2.696971241735017</v>
+        <v>0.8434285836328295</v>
       </c>
       <c r="C30">
-        <v>20.57567923892576</v>
+        <v>6.434668538254903</v>
       </c>
       <c r="D30">
-        <v>0.01560716522592149</v>
+        <v>0.004880856368551469</v>
       </c>
       <c r="E30">
-        <v>1.484519396927914</v>
+        <v>0.4642563750590387</v>
       </c>
       <c r="F30">
-        <v>3.515136539502038</v>
+        <v>1.099294863404222</v>
       </c>
       <c r="G30">
-        <v>6.34946491013412</v>
+        <v>1.985679384751462</v>
       </c>
       <c r="H30">
-        <v>0.624401222870642</v>
+        <v>0.1952700981288905</v>
       </c>
       <c r="I30">
-        <v>4.627821687744682</v>
+        <v>1.447266856612366</v>
       </c>
       <c r="J30">
-        <v>5.889759472788234</v>
+        <v>1.84191489074836</v>
       </c>
       <c r="K30">
-        <v>7.80057778584871</v>
+        <v>2.439488479381612</v>
       </c>
       <c r="L30">
-        <v>18.62542513019504</v>
+        <v>5.824762123534414</v>
       </c>
       <c r="M30">
-        <v>11.7200988715241</v>
+        <v>3.665247236706549</v>
       </c>
       <c r="N30">
-        <v>0.27328215316021</v>
+        <v>0.08546401081524491</v>
       </c>
       <c r="O30">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="P30">
-        <v>85.33452155996746</v>
+        <v>26.6868157659725</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1918,49 +1918,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2.600702156388057</v>
+        <v>0.8133221824056588</v>
       </c>
       <c r="C31">
-        <v>19.84122505192096</v>
+        <v>6.204981382121134</v>
       </c>
       <c r="D31">
-        <v>0.01242202946552935</v>
+        <v>0.003884763232112393</v>
       </c>
       <c r="E31">
-        <v>1.181556254697728</v>
+        <v>0.3695101760673983</v>
       </c>
       <c r="F31">
-        <v>4.998084767104459</v>
+        <v>1.563059883902877</v>
       </c>
       <c r="G31">
-        <v>9.028145419096953</v>
+        <v>2.823387875193485</v>
       </c>
       <c r="H31">
-        <v>0.5701054643601513</v>
+        <v>0.1782900895959435</v>
       </c>
       <c r="I31">
-        <v>4.225402410549491</v>
+        <v>1.32141756473303</v>
       </c>
       <c r="J31">
-        <v>5.577581408859529</v>
+        <v>1.744286893005514</v>
       </c>
       <c r="K31">
-        <v>7.387119599319627</v>
+        <v>2.310186969873752</v>
       </c>
       <c r="L31">
-        <v>17.7468673410349</v>
+        <v>5.550009193179021</v>
       </c>
       <c r="M31">
-        <v>11.16726401909372</v>
+        <v>3.492358216107182</v>
       </c>
       <c r="N31">
-        <v>0.3123224607545259</v>
+        <v>0.09767315521742279</v>
       </c>
       <c r="O31">
-        <v>1.298030563868633</v>
+        <v>0.4059353926560745</v>
       </c>
       <c r="P31">
-        <v>85.94682894651427</v>
+        <v>26.8783037372906</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1968,49 +1968,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2.754445322539171</v>
+        <v>0.8614025545147227</v>
       </c>
       <c r="C32">
-        <v>21.01415935057042</v>
+        <v>6.571795198633274</v>
       </c>
       <c r="D32">
-        <v>0.01433311092176464</v>
+        <v>0.004482419113975839</v>
       </c>
       <c r="E32">
-        <v>1.36333414003584</v>
+        <v>0.4263578954623824</v>
       </c>
       <c r="F32">
-        <v>4.943160758674738</v>
+        <v>1.545883401662186</v>
       </c>
       <c r="G32">
-        <v>8.928935029876108</v>
+        <v>2.792361634806744</v>
       </c>
       <c r="H32">
-        <v>0.5972533436153967</v>
+        <v>0.186780093862417</v>
       </c>
       <c r="I32">
-        <v>4.426612049147087</v>
+        <v>1.384342210672699</v>
       </c>
       <c r="J32">
-        <v>5.431898312359467</v>
+        <v>1.698727160725519</v>
       </c>
       <c r="K32">
-        <v>7.194172445606054</v>
+        <v>2.249846265436751</v>
       </c>
       <c r="L32">
-        <v>17.57115578320287</v>
+        <v>5.495058607107941</v>
       </c>
       <c r="M32">
-        <v>11.05669704860764</v>
+        <v>3.457780411987309</v>
       </c>
       <c r="N32">
-        <v>0.1821881021068068</v>
+        <v>0.05697600721016328</v>
       </c>
       <c r="O32">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="P32">
-        <v>86.23552929285341</v>
+        <v>26.96858950691212</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2018,49 +2018,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>3.201306300791486</v>
+        <v>1.001150178121441</v>
       </c>
       <c r="C33">
-        <v>24.42334221860767</v>
+        <v>7.63795498307508</v>
       </c>
       <c r="D33">
-        <v>0.01305905661760778</v>
+        <v>0.004083981859400209</v>
       </c>
       <c r="E33">
-        <v>1.242148883143765</v>
+        <v>0.3884594158657262</v>
       </c>
       <c r="F33">
-        <v>6.206412952558284</v>
+        <v>1.940942493198079</v>
       </c>
       <c r="G33">
-        <v>11.21077398195556</v>
+        <v>3.5059651637018</v>
       </c>
       <c r="H33">
-        <v>0.5701054643601513</v>
+        <v>0.1782900895959435</v>
       </c>
       <c r="I33">
-        <v>4.225402410549491</v>
+        <v>1.32141756473303</v>
       </c>
       <c r="J33">
-        <v>5.411086441430886</v>
+        <v>1.692218627542663</v>
       </c>
       <c r="K33">
-        <v>7.166608566504115</v>
+        <v>2.241226164802893</v>
       </c>
       <c r="L33">
-        <v>13.70550151089824</v>
+        <v>4.286145713544195</v>
       </c>
       <c r="M33">
-        <v>8.624223697913962</v>
+        <v>2.697068721350103</v>
       </c>
       <c r="N33">
-        <v>0.2342418455658944</v>
+        <v>0.0732548664130671</v>
       </c>
       <c r="O33">
-        <v>0.9735229229014749</v>
+        <v>0.3044515444920559</v>
       </c>
       <c r="P33">
-        <v>87.20773625379859</v>
+        <v>27.27262950829547</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2068,49 +2068,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>3.625177646722136</v>
+        <v>1.133708213375402</v>
       </c>
       <c r="C34">
-        <v>27.65713304198705</v>
+        <v>8.649264103365537</v>
       </c>
       <c r="D34">
-        <v>0.01242202946552935</v>
+        <v>0.003884763232112393</v>
       </c>
       <c r="E34">
-        <v>1.181556254697728</v>
+        <v>0.3695101760673983</v>
       </c>
       <c r="F34">
-        <v>4.284072657518107</v>
+        <v>1.339765614773895</v>
       </c>
       <c r="G34">
-        <v>7.738410359225959</v>
+        <v>2.420046750165845</v>
       </c>
       <c r="H34">
-        <v>0.9637497135612084</v>
+        <v>0.3013951514598092</v>
       </c>
       <c r="I34">
-        <v>7.14294217021462</v>
+        <v>2.233824930858218</v>
       </c>
       <c r="J34">
-        <v>3.662889283430138</v>
+        <v>1.145501840182725</v>
       </c>
       <c r="K34">
-        <v>4.851242721941247</v>
+        <v>1.517137711558882</v>
       </c>
       <c r="L34">
-        <v>7.555596986777231</v>
+        <v>2.362875201056414</v>
       </c>
       <c r="M34">
-        <v>4.754379730901285</v>
+        <v>1.486845577154543</v>
       </c>
       <c r="N34">
-        <v>0.3773896400783854</v>
+        <v>0.1180217292210525</v>
       </c>
       <c r="O34">
-        <v>1.568453598007932</v>
+        <v>0.4905052661260899</v>
       </c>
       <c r="P34">
-        <v>75.37541583452857</v>
+        <v>23.57228702859792</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2118,49 +2118,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>3.653914687124211</v>
+        <v>1.142695198816348</v>
       </c>
       <c r="C35">
-        <v>27.87637309780939</v>
+        <v>8.71782743355473</v>
       </c>
       <c r="D35">
-        <v>0.01210351588949014</v>
+        <v>0.003785153918468486</v>
       </c>
       <c r="E35">
-        <v>1.151259940474709</v>
+        <v>0.3600355561682341</v>
       </c>
       <c r="F35">
-        <v>3.789756581650634</v>
+        <v>1.185177274607677</v>
       </c>
       <c r="G35">
-        <v>6.845516856238347</v>
+        <v>2.14081058668517</v>
       </c>
       <c r="H35">
-        <v>0.9637497135612084</v>
+        <v>0.3013951514598092</v>
       </c>
       <c r="I35">
-        <v>7.14294217021462</v>
+        <v>2.233824930858218</v>
       </c>
       <c r="J35">
-        <v>2.976097542786988</v>
+        <v>0.9307202451484644</v>
       </c>
       <c r="K35">
-        <v>3.941634711577264</v>
+        <v>1.232674390641592</v>
       </c>
       <c r="L35">
-        <v>1.581404020488258</v>
+        <v>0.4945552746397146</v>
       </c>
       <c r="M35">
-        <v>0.9951027343746879</v>
+        <v>0.3112002370788579</v>
       </c>
       <c r="N35">
-        <v>0.156161230377263</v>
+        <v>0.04883657760871139</v>
       </c>
       <c r="O35">
-        <v>0.6490152819343167</v>
+        <v>0.2029676963280372</v>
       </c>
       <c r="P35">
-        <v>61.73503208450138</v>
+        <v>19.30650570751403</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2168,49 +2168,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2.745824210418549</v>
+        <v>0.8587064588824389</v>
       </c>
       <c r="C36">
-        <v>20.94838733382372</v>
+        <v>6.551226199576516</v>
       </c>
       <c r="D36">
-        <v>0.005733244368705854</v>
+        <v>0.001792967645590335</v>
       </c>
       <c r="E36">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="F36">
-        <v>2.691276413056247</v>
+        <v>0.8416476297938572</v>
       </c>
       <c r="G36">
-        <v>4.861309071821434</v>
+        <v>1.520285778950338</v>
       </c>
       <c r="H36">
-        <v>0.8823060757954726</v>
+        <v>0.2759251386603887</v>
       </c>
       <c r="I36">
-        <v>6.539313254421834</v>
+        <v>2.045050993039214</v>
       </c>
       <c r="J36">
-        <v>2.018751480072293</v>
+        <v>0.6313277187370702</v>
       </c>
       <c r="K36">
-        <v>2.673696272888074</v>
+        <v>0.8361497614841567</v>
       </c>
       <c r="L36">
-        <v>3.162808040976515</v>
+        <v>0.9891105492794292</v>
       </c>
       <c r="M36">
-        <v>1.990205468749376</v>
+        <v>0.6224004741577157</v>
       </c>
       <c r="N36">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O36">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P36">
-        <v>49.26623865048445</v>
+        <v>15.40711789687585</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2218,49 +2218,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>2.247236559442495</v>
+        <v>0.7027822614820164</v>
       </c>
       <c r="C37">
-        <v>17.14457236530628</v>
+        <v>5.361652420794177</v>
       </c>
       <c r="D37">
-        <v>0.008599866553058784</v>
+        <v>0.002689451468385503</v>
       </c>
       <c r="E37">
-        <v>0.8180004840215038</v>
+        <v>0.2558147372774295</v>
       </c>
       <c r="F37">
-        <v>1.812492278180738</v>
+        <v>0.5668239139428017</v>
       </c>
       <c r="G37">
-        <v>3.273942844287906</v>
+        <v>1.023865932762472</v>
       </c>
       <c r="H37">
-        <v>0.9908975928164536</v>
+        <v>0.3098851557262828</v>
       </c>
       <c r="I37">
-        <v>7.344151808812213</v>
+        <v>2.296749576797886</v>
       </c>
       <c r="J37">
-        <v>1.227900384786239</v>
+        <v>0.3840034577885272</v>
       </c>
       <c r="K37">
-        <v>1.626268867014395</v>
+        <v>0.5085859373975797</v>
       </c>
       <c r="L37">
-        <v>2.987096483144486</v>
+        <v>0.9341599632083502</v>
       </c>
       <c r="M37">
-        <v>1.879638498263299</v>
+        <v>0.5878226700378426</v>
       </c>
       <c r="N37">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O37">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P37">
-        <v>41.56209216070696</v>
+        <v>12.99778654716794</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2268,49 +2268,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.643758710998859</v>
+        <v>0.5140555672221401</v>
       </c>
       <c r="C38">
-        <v>12.54053119303733</v>
+        <v>3.921822486821316</v>
       </c>
       <c r="D38">
-        <v>0.004777703640588213</v>
+        <v>0.001494139704658613</v>
       </c>
       <c r="E38">
-        <v>0.4544447133452799</v>
+        <v>0.1421192984874608</v>
       </c>
       <c r="F38">
-        <v>1.537872236032141</v>
+        <v>0.4809415027393468</v>
       </c>
       <c r="G38">
-        <v>2.777890898183678</v>
+        <v>0.8687347308287645</v>
       </c>
       <c r="H38">
-        <v>0.7465666795192458</v>
+        <v>0.2334751173280213</v>
       </c>
       <c r="I38">
-        <v>5.533265061433859</v>
+        <v>1.730427763340873</v>
       </c>
       <c r="J38">
-        <v>1.103029159214757</v>
+        <v>0.3449522586913888</v>
       </c>
       <c r="K38">
-        <v>1.460885592402762</v>
+        <v>0.456865333594436</v>
       </c>
       <c r="L38">
-        <v>1.581404020488258</v>
+        <v>0.4945552746397146</v>
       </c>
       <c r="M38">
-        <v>0.9951027343746879</v>
+        <v>0.3112002370788579</v>
       </c>
       <c r="N38">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O38">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P38">
-        <v>30.5137247880567</v>
+        <v>9.542611089466437</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2318,49 +2318,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>1.155229024163533</v>
+        <v>0.3612768147260496</v>
       </c>
       <c r="C39">
-        <v>8.813450244057705</v>
+        <v>2.756245873605189</v>
       </c>
       <c r="D39">
-        <v>0.005733244368705854</v>
+        <v>0.001792967645590335</v>
       </c>
       <c r="E39">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="F39">
-        <v>0.7689361180160706</v>
+        <v>0.2404707513696734</v>
       </c>
       <c r="G39">
-        <v>1.388945449091839</v>
+        <v>0.4343673654143823</v>
       </c>
       <c r="H39">
-        <v>0.3800703095734344</v>
+        <v>0.118860059730629</v>
       </c>
       <c r="I39">
-        <v>2.816934940366329</v>
+        <v>0.8809450431553534</v>
       </c>
       <c r="J39">
-        <v>0.6035442569288295</v>
+        <v>0.1887474623028354</v>
       </c>
       <c r="K39">
-        <v>0.7993524939562283</v>
+        <v>0.2499829183818612</v>
       </c>
       <c r="L39">
-        <v>3.338519598808545</v>
+        <v>1.044061135350509</v>
       </c>
       <c r="M39">
-        <v>2.100772439235452</v>
+        <v>0.6569782782775888</v>
       </c>
       <c r="N39">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O39">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P39">
-        <v>22.85101785996627</v>
+        <v>7.146239207134073</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2368,49 +2368,49 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.6882521176297677</v>
+        <v>0.2152383013106687</v>
       </c>
       <c r="C40">
-        <v>5.250799336944826</v>
+        <v>1.642091758030953</v>
       </c>
       <c r="D40">
-        <v>0.0066887850968235</v>
+        <v>0.002091795586522058</v>
       </c>
       <c r="E40">
-        <v>0.6362225986833919</v>
+        <v>0.1989670178824451</v>
       </c>
       <c r="F40">
-        <v>0.659088101156632</v>
+        <v>0.2061177868882915</v>
       </c>
       <c r="G40">
-        <v>1.190524670650147</v>
+        <v>0.3723148846408991</v>
       </c>
       <c r="H40">
-        <v>0.1628872755314719</v>
+        <v>0.05094002559884098</v>
       </c>
       <c r="I40">
-        <v>1.207257831585569</v>
+        <v>0.3775478756380087</v>
       </c>
       <c r="J40">
-        <v>0.5411086441430887</v>
+        <v>0.1692218627542663</v>
       </c>
       <c r="K40">
-        <v>0.7166608566504116</v>
+        <v>0.2241226164802894</v>
       </c>
       <c r="L40">
-        <v>2.108538693984344</v>
+        <v>0.6594070328529528</v>
       </c>
       <c r="M40">
-        <v>1.326803645832917</v>
+        <v>0.4149336494384772</v>
       </c>
       <c r="N40">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O40">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P40">
-        <v>14.62902864327465</v>
+        <v>4.574961986092073</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2418,43 +2418,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.5072087630966761</v>
+        <v>0.1586202930327058</v>
       </c>
       <c r="C41">
-        <v>3.869586985264143</v>
+        <v>1.210142777839095</v>
       </c>
       <c r="D41">
-        <v>0.01051094800929407</v>
+        <v>0.003287107350248949</v>
       </c>
       <c r="E41">
-        <v>0.9997783693596159</v>
+        <v>0.3126624566724139</v>
       </c>
       <c r="F41">
-        <v>0.05492400842971935</v>
+        <v>0.01717648224069096</v>
       </c>
       <c r="G41">
-        <v>0.09921038922084563</v>
+        <v>0.03102624038674159</v>
       </c>
       <c r="H41">
-        <v>0.08144363776573593</v>
+        <v>0.02547001279942049</v>
       </c>
       <c r="I41">
-        <v>0.6036289157927845</v>
+        <v>0.1887739378190043</v>
       </c>
       <c r="J41">
-        <v>0.8532867080717937</v>
+        <v>0.2668498604971121</v>
       </c>
       <c r="K41">
-        <v>1.130119043179495</v>
+        <v>0.3534241259881487</v>
       </c>
       <c r="L41">
-        <v>2.811384925312458</v>
+        <v>0.8792093771372705</v>
       </c>
       <c r="M41">
-        <v>1.769071527777222</v>
+        <v>0.5532448659179696</v>
       </c>
       <c r="P41">
-        <v>12.79015422127978</v>
+        <v>3.999887537680822</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.2959915161414029</v>
+        <v>0.09256595004174901</v>
       </c>
       <c r="C42">
-        <v>2.258172574970009</v>
+        <v>0.7062023009485935</v>
       </c>
       <c r="D42">
-        <v>0.007644325824941142</v>
+        <v>0.00239062352745378</v>
       </c>
       <c r="E42">
-        <v>0.7271115413524478</v>
+        <v>0.2273908775799374</v>
       </c>
       <c r="F42">
-        <v>0.05492400842971935</v>
+        <v>0.01717648224069096</v>
       </c>
       <c r="G42">
-        <v>0.09921038922084563</v>
+        <v>0.03102624038674159</v>
       </c>
       <c r="H42">
-        <v>0.05429575851049061</v>
+        <v>0.016980008532947</v>
       </c>
       <c r="I42">
-        <v>0.4024192771951899</v>
+        <v>0.1258492918793362</v>
       </c>
       <c r="J42">
-        <v>0.6659798697145706</v>
+        <v>0.2082730618514046</v>
       </c>
       <c r="K42">
-        <v>0.8820441312620448</v>
+        <v>0.2758432202834331</v>
       </c>
       <c r="L42">
-        <v>2.63567336748043</v>
+        <v>0.8242587910661915</v>
       </c>
       <c r="M42">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="N42">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O42">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P42">
-        <v>9.809069360085871</v>
+        <v>3.067607599631304</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2512,43 +2512,43 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.2270226191764159</v>
+        <v>0.07099718498347739</v>
       </c>
       <c r="C43">
-        <v>1.731996440996414</v>
+        <v>0.5416503084945526</v>
       </c>
       <c r="D43">
-        <v>0.01082946158533328</v>
+        <v>0.003386716663892856</v>
       </c>
       <c r="E43">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="F43">
-        <v>0.4393920674377548</v>
+        <v>0.1374118579255277</v>
       </c>
       <c r="G43">
-        <v>0.793683113766765</v>
+        <v>0.2482099230939327</v>
       </c>
       <c r="H43">
-        <v>0.01357393962762265</v>
+        <v>0.00424500213323675</v>
       </c>
       <c r="I43">
-        <v>0.1006048192987975</v>
+        <v>0.03146232296983406</v>
       </c>
       <c r="J43">
-        <v>0.4370492895001868</v>
+        <v>0.1366791968399843</v>
       </c>
       <c r="K43">
-        <v>0.5788414611407171</v>
+        <v>0.181022113311003</v>
       </c>
       <c r="L43">
-        <v>3.514231156640572</v>
+        <v>1.099011721421588</v>
       </c>
       <c r="M43">
-        <v>2.211339409721528</v>
+        <v>0.6915560823974619</v>
       </c>
       <c r="P43">
-        <v>11.08863846247474</v>
+        <v>3.467769506806069</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2556,49 +2556,49 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.2816229959403642</v>
+        <v>0.08807245732127571</v>
       </c>
       <c r="C44">
-        <v>2.148552547058843</v>
+        <v>0.671920635854002</v>
       </c>
       <c r="D44">
-        <v>0.005733244368705854</v>
+        <v>0.001792967645590335</v>
       </c>
       <c r="E44">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="F44">
-        <v>0.329544050578316</v>
+        <v>0.1030588934441458</v>
       </c>
       <c r="G44">
-        <v>0.5952623353250736</v>
+        <v>0.1861574423204495</v>
       </c>
       <c r="H44">
-        <v>0.1221654566486039</v>
+        <v>0.03820501919913076</v>
       </c>
       <c r="I44">
-        <v>0.9054433736891769</v>
+        <v>0.2831609067285065</v>
       </c>
       <c r="J44">
-        <v>0.5411086441430887</v>
+        <v>0.1692218627542663</v>
       </c>
       <c r="K44">
-        <v>0.7166608566504116</v>
+        <v>0.2241226164802894</v>
       </c>
       <c r="L44">
-        <v>2.987096483144486</v>
+        <v>0.9341599632083502</v>
       </c>
       <c r="M44">
-        <v>1.879638498263299</v>
+        <v>0.5878226700378426</v>
       </c>
       <c r="N44">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O44">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P44">
-        <v>11.12526018451734</v>
+        <v>3.479222282673531</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2606,49 +2606,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.4152502338100266</v>
+        <v>0.129861939621677</v>
       </c>
       <c r="C45">
-        <v>3.168018806632681</v>
+        <v>0.9907401212337067</v>
       </c>
       <c r="D45">
-        <v>0.001592567880196071</v>
+        <v>0.0004980465682195376</v>
       </c>
       <c r="E45">
-        <v>0.1514815711150933</v>
+        <v>0.0473730994958203</v>
       </c>
       <c r="F45">
-        <v>0.7140121095863513</v>
+        <v>0.2232942691289825</v>
       </c>
       <c r="G45">
-        <v>1.289735059870993</v>
+        <v>0.4033411250276407</v>
       </c>
       <c r="H45">
-        <v>0.06786969813811328</v>
+        <v>0.02122501066618375</v>
       </c>
       <c r="I45">
-        <v>0.5030240964939872</v>
+        <v>0.1573116148491703</v>
       </c>
       <c r="J45">
-        <v>0.9989698045718556</v>
+        <v>0.3124095927771069</v>
       </c>
       <c r="K45">
-        <v>1.323066196893068</v>
+        <v>0.4137648304251497</v>
       </c>
       <c r="L45">
-        <v>5.095635177128834</v>
+        <v>1.593566996061302</v>
       </c>
       <c r="M45">
-        <v>3.206442144096216</v>
+        <v>1.00275631947632</v>
       </c>
       <c r="N45">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O45">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P45">
-        <v>17.00219550891005</v>
+        <v>5.317126654826009</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2656,49 +2656,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>1.100628647399585</v>
+        <v>0.3442015423882511</v>
       </c>
       <c r="C46">
-        <v>8.396894137995279</v>
+        <v>2.625975546245741</v>
       </c>
       <c r="D46">
-        <v>0.003185135760392143</v>
+        <v>0.0009960931364390753</v>
       </c>
       <c r="E46">
-        <v>0.3029631422301866</v>
+        <v>0.09474619899164059</v>
       </c>
       <c r="F46">
-        <v>1.428024219172703</v>
+        <v>0.446588538257965</v>
       </c>
       <c r="G46">
-        <v>2.579470119741985</v>
+        <v>0.8066822500552815</v>
       </c>
       <c r="H46">
-        <v>0.4886618265944154</v>
+        <v>0.152820076796523</v>
       </c>
       <c r="I46">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="J46">
-        <v>2.143622705643774</v>
+        <v>0.6703789178342083</v>
       </c>
       <c r="K46">
-        <v>2.839079547499707</v>
+        <v>0.8878703652873003</v>
       </c>
       <c r="L46">
-        <v>7.907020102441287</v>
+        <v>2.472776373198573</v>
       </c>
       <c r="M46">
-        <v>4.975513671873439</v>
+        <v>1.556001185394289</v>
       </c>
       <c r="N46">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O46">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P46">
-        <v>35.92103283649472</v>
+        <v>11.2336480934897</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2706,49 +2706,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.806122989270601</v>
+        <v>0.5648320349634879</v>
       </c>
       <c r="C47">
-        <v>13.7792375084335</v>
+        <v>4.309205302390204</v>
       </c>
       <c r="D47">
-        <v>0.007007298672862713</v>
+        <v>0.002191404900165966</v>
       </c>
       <c r="E47">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="F47">
-        <v>2.856048438345405</v>
+        <v>0.8931770765159299</v>
       </c>
       <c r="G47">
-        <v>5.158940239483971</v>
+        <v>1.613364500110563</v>
       </c>
       <c r="H47">
-        <v>1.194506687230793</v>
+        <v>0.373560187724834</v>
       </c>
       <c r="I47">
-        <v>8.853224098294174</v>
+        <v>2.768684421345397</v>
       </c>
       <c r="J47">
-        <v>3.78776050900162</v>
+        <v>1.184553039279864</v>
       </c>
       <c r="K47">
-        <v>5.016625996552881</v>
+        <v>1.568858315362026</v>
       </c>
       <c r="L47">
-        <v>10.54269346992172</v>
+        <v>3.297035164264766</v>
       </c>
       <c r="M47">
-        <v>6.634018229164585</v>
+        <v>2.074668247192385</v>
       </c>
       <c r="N47">
-        <v>0.1691746662420349</v>
+        <v>0.05290629240943735</v>
       </c>
       <c r="O47">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="P47">
-        <v>61.17497893228273</v>
+        <v>19.13135929526271</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2756,49 +2756,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>3.036068318479538</v>
+        <v>0.9494750118359985</v>
       </c>
       <c r="C48">
-        <v>23.16271189762928</v>
+        <v>7.243715834487274</v>
       </c>
       <c r="D48">
-        <v>0.007007298672862713</v>
+        <v>0.002191404900165966</v>
       </c>
       <c r="E48">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="F48">
-        <v>4.668540716526143</v>
+        <v>1.460000990458732</v>
       </c>
       <c r="G48">
-        <v>8.432883083771877</v>
+        <v>2.637230432873035</v>
       </c>
       <c r="H48">
-        <v>1.506707298666115</v>
+        <v>0.4711952367892794</v>
       </c>
       <c r="I48">
-        <v>11.16713494216652</v>
+        <v>3.492317849651581</v>
       </c>
       <c r="J48">
-        <v>4.765918442644898</v>
+        <v>1.490454098874114</v>
       </c>
       <c r="K48">
-        <v>6.31212831434401</v>
+        <v>1.974003045153318</v>
       </c>
       <c r="L48">
-        <v>20.03111759285126</v>
+        <v>6.264366812103054</v>
       </c>
       <c r="M48">
-        <v>12.60463463541271</v>
+        <v>3.941869669665532</v>
       </c>
       <c r="N48">
-        <v>0.3383493324840698</v>
+        <v>0.1058125848188747</v>
       </c>
       <c r="O48">
-        <v>1.406199777524353</v>
+        <v>0.4397633420440807</v>
       </c>
       <c r="P48">
-        <v>98.10592056408002</v>
+        <v>30.68083795143665</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2806,49 +2806,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>3.491550408852473</v>
+        <v>1.091918731075001</v>
       </c>
       <c r="C49">
-        <v>26.63766678241322</v>
+        <v>8.330444617985837</v>
       </c>
       <c r="D49">
-        <v>0.006370271520784286</v>
+        <v>0.001992186272878151</v>
       </c>
       <c r="E49">
-        <v>0.6059262844603731</v>
+        <v>0.1894923979832812</v>
       </c>
       <c r="F49">
-        <v>4.284072657518107</v>
+        <v>1.339765614773895</v>
       </c>
       <c r="G49">
-        <v>7.738410359225959</v>
+        <v>2.420046750165845</v>
       </c>
       <c r="H49">
-        <v>0.8415842569126046</v>
+        <v>0.2631901322606785</v>
       </c>
       <c r="I49">
-        <v>6.237498796525441</v>
+        <v>1.950664024129712</v>
       </c>
       <c r="J49">
-        <v>3.954255476430262</v>
+        <v>1.236621304742715</v>
       </c>
       <c r="K49">
-        <v>5.237137029368393</v>
+        <v>1.637819120432884</v>
       </c>
       <c r="L49">
-        <v>11.59696281691389</v>
+        <v>3.626738680691241</v>
       </c>
       <c r="M49">
-        <v>7.297420052081044</v>
+        <v>2.282135071911624</v>
       </c>
       <c r="N49">
-        <v>0.1821881021068068</v>
+        <v>0.05697600721016328</v>
       </c>
       <c r="O49">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="P49">
-        <v>78.8682277899194</v>
+        <v>24.6646002853518</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.8829713195729942</v>
+        <v>2.823414219504158</v>
       </c>
       <c r="C2">
-        <v>6.736347191087312</v>
+        <v>21.54033548454402</v>
       </c>
       <c r="D2">
-        <v>0.002789060782029411</v>
+        <v>0.008918380129098</v>
       </c>
       <c r="E2">
-        <v>0.2652893571765936</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="F2">
-        <v>1.563059883902877</v>
+        <v>4.998084767104459</v>
       </c>
       <c r="G2">
-        <v>2.823387875193485</v>
+        <v>9.028145419096953</v>
       </c>
       <c r="H2">
-        <v>0.2249851130615477</v>
+        <v>0.7194188002640007</v>
       </c>
       <c r="I2">
-        <v>1.667503117401205</v>
+        <v>5.332055422836265</v>
       </c>
       <c r="J2">
-        <v>1.672693027994093</v>
+        <v>5.348650828645145</v>
       </c>
       <c r="K2">
-        <v>2.215365862901322</v>
+        <v>7.083916929198299</v>
       </c>
       <c r="L2">
-        <v>8.956945529585946</v>
+        <v>28.64098392662067</v>
       </c>
       <c r="M2">
-        <v>5.636182071539312</v>
+        <v>18.02241618923046</v>
       </c>
       <c r="N2">
-        <v>0.06104572201088925</v>
+        <v>0.1952015379715787</v>
       </c>
       <c r="O2">
-        <v>0.2537096204100465</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="P2">
-        <v>32.96227475261966</v>
+        <v>105.4011078058075</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.7688366044729742</v>
+        <v>2.45845380639777</v>
       </c>
       <c r="C3">
-        <v>5.865592897684679</v>
+        <v>18.75598677560042</v>
       </c>
       <c r="D3">
-        <v>0.006374996073210081</v>
+        <v>0.0203848688665097</v>
       </c>
       <c r="E3">
-        <v>0.6063756735464995</v>
+        <v>1.938964110273194</v>
       </c>
       <c r="F3">
-        <v>0.772941700831093</v>
+        <v>2.471580379337369</v>
       </c>
       <c r="G3">
-        <v>1.396180817403372</v>
+        <v>4.464467514938054</v>
       </c>
       <c r="H3">
-        <v>0.1613100810629965</v>
+        <v>0.5158097058496608</v>
       </c>
       <c r="I3">
-        <v>1.195568272853694</v>
+        <v>3.822983133354303</v>
       </c>
       <c r="J3">
-        <v>1.998119687136913</v>
+        <v>6.389244375074163</v>
       </c>
       <c r="K3">
-        <v>2.646370894594186</v>
+        <v>8.462110884295246</v>
       </c>
       <c r="L3">
-        <v>7.198526775311404</v>
+        <v>23.01821407599575</v>
       </c>
       <c r="M3">
-        <v>4.529692339703375</v>
+        <v>14.48427313367601</v>
       </c>
       <c r="N3">
-        <v>0.05290629240943735</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O3">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P3">
-        <v>27.41867870410588</v>
+        <v>87.67474731866267</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.8209611200304631</v>
+        <v>2.625128640729824</v>
       </c>
       <c r="C4">
-        <v>6.263260212781944</v>
+        <v>20.02757909936994</v>
       </c>
       <c r="D4">
-        <v>0.006175777445922267</v>
+        <v>0.01974784171443128</v>
       </c>
       <c r="E4">
-        <v>0.5874264337481715</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="F4">
-        <v>1.356942097014586</v>
+        <v>4.338996665947825</v>
       </c>
       <c r="G4">
-        <v>2.451072990552585</v>
+        <v>7.837620748446807</v>
       </c>
       <c r="H4">
-        <v>0.1740450874627067</v>
+        <v>0.556531524732529</v>
       </c>
       <c r="I4">
-        <v>1.289955241763197</v>
+        <v>4.124797591250696</v>
       </c>
       <c r="J4">
-        <v>1.65967596162838</v>
+        <v>5.307027086787984</v>
       </c>
       <c r="K4">
-        <v>2.198125661633608</v>
+        <v>7.028789170994421</v>
       </c>
       <c r="L4">
-        <v>7.748032636022193</v>
+        <v>24.77532965431603</v>
       </c>
       <c r="M4">
-        <v>4.875470380902106</v>
+        <v>15.58994283853677</v>
       </c>
       <c r="N4">
-        <v>0.0651154368116152</v>
+        <v>0.2082149738363506</v>
       </c>
       <c r="O4">
-        <v>0.2706235951040497</v>
+        <v>0.8653537092457557</v>
       </c>
       <c r="P4">
-        <v>29.76688263290153</v>
+        <v>95.18343102773652</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.7571535233997434</v>
+        <v>2.421095653875066</v>
       </c>
       <c r="C5">
-        <v>5.776460568438741</v>
+        <v>18.47097470303139</v>
       </c>
       <c r="D5">
-        <v>0.004283200486688024</v>
+        <v>0.01369608376968621</v>
       </c>
       <c r="E5">
-        <v>0.4074086556640544</v>
+        <v>1.302741511589802</v>
       </c>
       <c r="F5">
-        <v>1.064941898922839</v>
+        <v>3.405288522642598</v>
       </c>
       <c r="G5">
-        <v>1.923626903977979</v>
+        <v>6.151044131692429</v>
       </c>
       <c r="H5">
-        <v>0.1782900895959435</v>
+        <v>0.5701054643601513</v>
       </c>
       <c r="I5">
-        <v>1.32141756473303</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="J5">
-        <v>1.399334634314125</v>
+        <v>4.474552249644771</v>
       </c>
       <c r="K5">
-        <v>1.853321636279316</v>
+        <v>5.926234006916865</v>
       </c>
       <c r="L5">
-        <v>7.363378533524642</v>
+        <v>23.54534874949183</v>
       </c>
       <c r="M5">
-        <v>4.633425752062993</v>
+        <v>14.81597404513424</v>
       </c>
       <c r="N5">
-        <v>0.0732548664130671</v>
+        <v>0.2342418455658944</v>
       </c>
       <c r="O5">
-        <v>0.3044515444920559</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="P5">
-        <v>27.06074937230521</v>
+        <v>86.53022230116571</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.782766431906441</v>
+        <v>2.502996219020989</v>
       </c>
       <c r="C6">
-        <v>5.971866059477915</v>
+        <v>19.09580886212503</v>
       </c>
       <c r="D6">
-        <v>0.004880856368551469</v>
+        <v>0.01560716522592149</v>
       </c>
       <c r="E6">
-        <v>0.4642563750590387</v>
+        <v>1.484519396927914</v>
       </c>
       <c r="F6">
-        <v>1.631765812865642</v>
+        <v>5.217780800823338</v>
       </c>
       <c r="G6">
-        <v>2.94749283674045</v>
+        <v>9.424986975980337</v>
       </c>
       <c r="H6">
-        <v>0.1782900895959435</v>
+        <v>0.5701054643601513</v>
       </c>
       <c r="I6">
-        <v>1.32141756473303</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="J6">
-        <v>1.698727160725519</v>
+        <v>5.431898312359467</v>
       </c>
       <c r="K6">
-        <v>2.249846265436751</v>
+        <v>7.194172445606054</v>
       </c>
       <c r="L6">
-        <v>6.484169156387371</v>
+        <v>20.73396382417938</v>
       </c>
       <c r="M6">
-        <v>4.080180886145024</v>
+        <v>13.04690251735702</v>
       </c>
       <c r="N6">
-        <v>0.06918515161234116</v>
+        <v>0.2212284097011225</v>
       </c>
       <c r="O6">
-        <v>0.2875375697980528</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="P6">
-        <v>28.17238221685208</v>
+        <v>90.08481112028983</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.8065819433249497</v>
+        <v>2.579149376086496</v>
       </c>
       <c r="C7">
-        <v>6.153558884479253</v>
+        <v>19.6767950100542</v>
       </c>
       <c r="D7">
-        <v>0.004582028427619747</v>
+        <v>0.01465162449780386</v>
       </c>
       <c r="E7">
-        <v>0.4358325153615465</v>
+        <v>1.393630454258859</v>
       </c>
       <c r="F7">
-        <v>1.614589330624951</v>
+        <v>5.162856792393615</v>
       </c>
       <c r="G7">
-        <v>2.916466596353709</v>
+        <v>9.325776586759492</v>
       </c>
       <c r="H7">
-        <v>0.1485750746632863</v>
+        <v>0.4750878869667927</v>
       </c>
       <c r="I7">
-        <v>1.101181303944192</v>
+        <v>3.52116867545791</v>
       </c>
       <c r="J7">
-        <v>1.757303959371227</v>
+        <v>5.61920515071669</v>
       </c>
       <c r="K7">
-        <v>2.327427171141467</v>
+        <v>7.442247357523505</v>
       </c>
       <c r="L7">
-        <v>7.528230291737878</v>
+        <v>24.07248342298792</v>
       </c>
       <c r="M7">
-        <v>4.737159164422614</v>
+        <v>15.14767495659247</v>
       </c>
       <c r="N7">
-        <v>0.08546401081524491</v>
+        <v>0.27328215316021</v>
       </c>
       <c r="O7">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="P7">
-        <v>29.972145743242</v>
+        <v>95.83978619084102</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.8555610139781069</v>
+        <v>2.735766246277822</v>
       </c>
       <c r="C8">
-        <v>6.527229034010304</v>
+        <v>20.87165331428591</v>
       </c>
       <c r="D8">
-        <v>0.004781247054907561</v>
+        <v>0.01528865164988228</v>
       </c>
       <c r="E8">
-        <v>0.4547817551598747</v>
+        <v>1.454223082704896</v>
       </c>
       <c r="F8">
-        <v>1.648942295106332</v>
+        <v>5.272704809253056</v>
       </c>
       <c r="G8">
-        <v>2.978519077127193</v>
+        <v>9.524197365201177</v>
       </c>
       <c r="H8">
-        <v>0.1273500639971025</v>
+        <v>0.4072181888286796</v>
       </c>
       <c r="I8">
-        <v>0.9438696890950217</v>
+        <v>3.018144578963924</v>
       </c>
       <c r="J8">
-        <v>1.776829558919796</v>
+        <v>5.681640763502429</v>
       </c>
       <c r="K8">
-        <v>2.353287473043039</v>
+        <v>7.524938994829323</v>
       </c>
       <c r="L8">
-        <v>4.286145713544195</v>
+        <v>13.70550151089824</v>
       </c>
       <c r="M8">
-        <v>2.697068721350103</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="N8">
-        <v>0.09360344041669683</v>
+        <v>0.299309024889754</v>
       </c>
       <c r="O8">
-        <v>0.3890214179620714</v>
+        <v>1.243945957040774</v>
       </c>
       <c r="P8">
-        <v>25.13699050076474</v>
+        <v>80.37875618623983</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.001150178121441</v>
+        <v>3.201306300791486</v>
       </c>
       <c r="C9">
-        <v>7.63795498307508</v>
+        <v>24.42334221860767</v>
       </c>
       <c r="D9">
-        <v>0.004083981859400209</v>
+        <v>0.01305905661760778</v>
       </c>
       <c r="E9">
-        <v>0.3884594158657262</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="F9">
-        <v>1.940942493198079</v>
+        <v>6.206412952558284</v>
       </c>
       <c r="G9">
-        <v>3.5059651637018</v>
+        <v>11.21077398195556</v>
       </c>
       <c r="H9">
-        <v>0.1782900895959435</v>
+        <v>0.5701054643601513</v>
       </c>
       <c r="I9">
-        <v>1.32141756473303</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="J9">
-        <v>1.692218627542663</v>
+        <v>5.411086441430886</v>
       </c>
       <c r="K9">
-        <v>2.241226164802893</v>
+        <v>7.166608566504115</v>
       </c>
       <c r="L9">
-        <v>4.286145713544195</v>
+        <v>13.70550151089824</v>
       </c>
       <c r="M9">
-        <v>2.697068721350103</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="N9">
-        <v>0.0732548664130671</v>
+        <v>0.2342418455658944</v>
       </c>
       <c r="O9">
-        <v>0.3044515444920559</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="P9">
-        <v>27.27262950829547</v>
+        <v>87.20773625379859</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.133708213375402</v>
+        <v>3.625177646722136</v>
       </c>
       <c r="C10">
-        <v>8.649264103365537</v>
+        <v>27.65713304198705</v>
       </c>
       <c r="D10">
-        <v>0.003884763232112393</v>
+        <v>0.01242202946552935</v>
       </c>
       <c r="E10">
-        <v>0.3695101760673983</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="F10">
-        <v>1.339765614773895</v>
+        <v>4.284072657518107</v>
       </c>
       <c r="G10">
-        <v>2.420046750165845</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="H10">
-        <v>0.3013951514598092</v>
+        <v>0.9637497135612084</v>
       </c>
       <c r="I10">
-        <v>2.233824930858218</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="J10">
-        <v>1.145501840182725</v>
+        <v>3.662889283430138</v>
       </c>
       <c r="K10">
-        <v>1.517137711558882</v>
+        <v>4.851242721941247</v>
       </c>
       <c r="L10">
-        <v>2.362875201056414</v>
+        <v>7.555596986777231</v>
       </c>
       <c r="M10">
-        <v>1.486845577154543</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="N10">
-        <v>0.1180217292210525</v>
+        <v>0.3773896400783854</v>
       </c>
       <c r="O10">
-        <v>0.4905052661260899</v>
+        <v>1.568453598007932</v>
       </c>
       <c r="P10">
-        <v>23.57228702859792</v>
+        <v>75.37541583452857</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.142695198816348</v>
+        <v>3.653914687124211</v>
       </c>
       <c r="C11">
-        <v>8.71782743355473</v>
+        <v>27.87637309780939</v>
       </c>
       <c r="D11">
-        <v>0.003785153918468486</v>
+        <v>0.01210351588949014</v>
       </c>
       <c r="E11">
-        <v>0.3600355561682341</v>
+        <v>1.151259940474709</v>
       </c>
       <c r="F11">
-        <v>1.185177274607677</v>
+        <v>3.789756581650634</v>
       </c>
       <c r="G11">
-        <v>2.14081058668517</v>
+        <v>6.845516856238347</v>
       </c>
       <c r="H11">
-        <v>0.3013951514598092</v>
+        <v>0.9637497135612084</v>
       </c>
       <c r="I11">
-        <v>2.233824930858218</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="J11">
-        <v>0.9307202451484644</v>
+        <v>2.976097542786988</v>
       </c>
       <c r="K11">
-        <v>1.232674390641592</v>
+        <v>3.941634711577264</v>
       </c>
       <c r="L11">
-        <v>0.4945552746397146</v>
+        <v>1.581404020488258</v>
       </c>
       <c r="M11">
-        <v>0.3112002370788579</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="N11">
-        <v>0.04883657760871139</v>
+        <v>0.156161230377263</v>
       </c>
       <c r="O11">
-        <v>0.2029676963280372</v>
+        <v>0.6490152819343167</v>
       </c>
       <c r="P11">
-        <v>19.30650570751403</v>
+        <v>61.73503208450138</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.8587064588824389</v>
+        <v>2.745824210418549</v>
       </c>
       <c r="C12">
-        <v>6.551226199576516</v>
+        <v>20.94838733382372</v>
       </c>
       <c r="D12">
-        <v>0.001792967645590335</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E12">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F12">
-        <v>0.8416476297938572</v>
+        <v>2.691276413056247</v>
       </c>
       <c r="G12">
-        <v>1.520285778950338</v>
+        <v>4.861309071821434</v>
       </c>
       <c r="H12">
-        <v>0.2759251386603887</v>
+        <v>0.8823060757954726</v>
       </c>
       <c r="I12">
-        <v>2.045050993039214</v>
+        <v>6.539313254421834</v>
       </c>
       <c r="J12">
-        <v>0.6313277187370702</v>
+        <v>2.018751480072293</v>
       </c>
       <c r="K12">
-        <v>0.8361497614841567</v>
+        <v>2.673696272888074</v>
       </c>
       <c r="L12">
-        <v>0.9891105492794292</v>
+        <v>3.162808040976515</v>
       </c>
       <c r="M12">
-        <v>0.6224004741577157</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="N12">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O12">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P12">
-        <v>15.40711789687585</v>
+        <v>49.26623865048445</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.7027822614820164</v>
+        <v>2.247236559442495</v>
       </c>
       <c r="C13">
-        <v>5.361652420794177</v>
+        <v>17.14457236530628</v>
       </c>
       <c r="D13">
-        <v>0.002689451468385503</v>
+        <v>0.008599866553058784</v>
       </c>
       <c r="E13">
-        <v>0.2558147372774295</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="F13">
-        <v>0.5668239139428017</v>
+        <v>1.812492278180738</v>
       </c>
       <c r="G13">
-        <v>1.023865932762472</v>
+        <v>3.273942844287906</v>
       </c>
       <c r="H13">
-        <v>0.3098851557262828</v>
+        <v>0.9908975928164536</v>
       </c>
       <c r="I13">
-        <v>2.296749576797886</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="J13">
-        <v>0.3840034577885272</v>
+        <v>1.227900384786239</v>
       </c>
       <c r="K13">
-        <v>0.5085859373975797</v>
+        <v>1.626268867014395</v>
       </c>
       <c r="L13">
-        <v>0.9341599632083502</v>
+        <v>2.987096483144486</v>
       </c>
       <c r="M13">
-        <v>0.5878226700378426</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="N13">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O13">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P13">
-        <v>12.99778654716794</v>
+        <v>41.56209216070696</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.5140555672221401</v>
+        <v>1.643758710998859</v>
       </c>
       <c r="C14">
-        <v>3.921822486821316</v>
+        <v>12.54053119303733</v>
       </c>
       <c r="D14">
-        <v>0.001494139704658613</v>
+        <v>0.004777703640588213</v>
       </c>
       <c r="E14">
-        <v>0.1421192984874608</v>
+        <v>0.4544447133452799</v>
       </c>
       <c r="F14">
-        <v>0.4809415027393468</v>
+        <v>1.537872236032141</v>
       </c>
       <c r="G14">
-        <v>0.8687347308287645</v>
+        <v>2.777890898183678</v>
       </c>
       <c r="H14">
-        <v>0.2334751173280213</v>
+        <v>0.7465666795192458</v>
       </c>
       <c r="I14">
-        <v>1.730427763340873</v>
+        <v>5.533265061433859</v>
       </c>
       <c r="J14">
-        <v>0.3449522586913888</v>
+        <v>1.103029159214757</v>
       </c>
       <c r="K14">
-        <v>0.456865333594436</v>
+        <v>1.460885592402762</v>
       </c>
       <c r="L14">
-        <v>0.4945552746397146</v>
+        <v>1.581404020488258</v>
       </c>
       <c r="M14">
-        <v>0.3112002370788579</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="N14">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O14">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P14">
-        <v>9.542611089466437</v>
+        <v>30.5137247880567</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.3612768147260496</v>
+        <v>1.155229024163533</v>
       </c>
       <c r="C15">
-        <v>2.756245873605189</v>
+        <v>8.813450244057705</v>
       </c>
       <c r="D15">
-        <v>0.001792967645590335</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E15">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F15">
-        <v>0.2404707513696734</v>
+        <v>0.7689361180160706</v>
       </c>
       <c r="G15">
-        <v>0.4343673654143823</v>
+        <v>1.388945449091839</v>
       </c>
       <c r="H15">
-        <v>0.118860059730629</v>
+        <v>0.3800703095734344</v>
       </c>
       <c r="I15">
-        <v>0.8809450431553534</v>
+        <v>2.816934940366329</v>
       </c>
       <c r="J15">
-        <v>0.1887474623028354</v>
+        <v>0.6035442569288295</v>
       </c>
       <c r="K15">
-        <v>0.2499829183818612</v>
+        <v>0.7993524939562283</v>
       </c>
       <c r="L15">
-        <v>1.044061135350509</v>
+        <v>3.338519598808545</v>
       </c>
       <c r="M15">
-        <v>0.6569782782775888</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="N15">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O15">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P15">
-        <v>7.146239207134073</v>
+        <v>22.85101785996627</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.2152383013106687</v>
+        <v>0.6882521176297677</v>
       </c>
       <c r="C16">
-        <v>1.642091758030953</v>
+        <v>5.250799336944826</v>
       </c>
       <c r="D16">
-        <v>0.002091795586522058</v>
+        <v>0.0066887850968235</v>
       </c>
       <c r="E16">
-        <v>0.1989670178824451</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="F16">
-        <v>0.2061177868882915</v>
+        <v>0.659088101156632</v>
       </c>
       <c r="G16">
-        <v>0.3723148846408991</v>
+        <v>1.190524670650147</v>
       </c>
       <c r="H16">
-        <v>0.05094002559884098</v>
+        <v>0.1628872755314719</v>
       </c>
       <c r="I16">
-        <v>0.3775478756380087</v>
+        <v>1.207257831585569</v>
       </c>
       <c r="J16">
-        <v>0.1692218627542663</v>
+        <v>0.5411086441430887</v>
       </c>
       <c r="K16">
-        <v>0.2241226164802894</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="L16">
-        <v>0.6594070328529528</v>
+        <v>2.108538693984344</v>
       </c>
       <c r="M16">
-        <v>0.4149336494384772</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="N16">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O16">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P16">
-        <v>4.574961986092073</v>
+        <v>14.62902864327465</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1586202930327058</v>
+        <v>0.5072087630966761</v>
       </c>
       <c r="C17">
-        <v>1.210142777839095</v>
+        <v>3.869586985264143</v>
       </c>
       <c r="D17">
-        <v>0.003287107350248949</v>
+        <v>0.01051094800929407</v>
       </c>
       <c r="E17">
-        <v>0.3126624566724139</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="F17">
-        <v>0.01717648224069096</v>
+        <v>0.05492400842971935</v>
       </c>
       <c r="G17">
-        <v>0.03102624038674159</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="H17">
-        <v>0.02547001279942049</v>
+        <v>0.08144363776573593</v>
       </c>
       <c r="I17">
-        <v>0.1887739378190043</v>
+        <v>0.6036289157927845</v>
       </c>
       <c r="J17">
-        <v>0.2668498604971121</v>
+        <v>0.8532867080717937</v>
       </c>
       <c r="K17">
-        <v>0.3534241259881487</v>
+        <v>1.130119043179495</v>
       </c>
       <c r="L17">
-        <v>0.8792093771372705</v>
+        <v>2.811384925312458</v>
       </c>
       <c r="M17">
-        <v>0.5532448659179696</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="P17">
-        <v>3.999887537680822</v>
+        <v>12.79015422127978</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.09256595004174901</v>
+        <v>0.2959915161414029</v>
       </c>
       <c r="C18">
-        <v>0.7062023009485935</v>
+        <v>2.258172574970009</v>
       </c>
       <c r="D18">
-        <v>0.00239062352745378</v>
+        <v>0.007644325824941142</v>
       </c>
       <c r="E18">
-        <v>0.2273908775799374</v>
+        <v>0.7271115413524478</v>
       </c>
       <c r="F18">
-        <v>0.01717648224069096</v>
+        <v>0.05492400842971935</v>
       </c>
       <c r="G18">
-        <v>0.03102624038674159</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="H18">
-        <v>0.016980008532947</v>
+        <v>0.05429575851049061</v>
       </c>
       <c r="I18">
-        <v>0.1258492918793362</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="J18">
-        <v>0.2082730618514046</v>
+        <v>0.6659798697145706</v>
       </c>
       <c r="K18">
-        <v>0.2758432202834331</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="L18">
-        <v>0.8242587910661915</v>
+        <v>2.63567336748043</v>
       </c>
       <c r="M18">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="N18">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O18">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P18">
-        <v>3.067607599631304</v>
+        <v>9.809069360085871</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,43 +1324,43 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.07099718498347739</v>
+        <v>0.2270226191764159</v>
       </c>
       <c r="C19">
-        <v>0.5416503084945526</v>
+        <v>1.731996440996414</v>
       </c>
       <c r="D19">
-        <v>0.003386716663892856</v>
+        <v>0.01082946158533328</v>
       </c>
       <c r="E19">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="F19">
-        <v>0.1374118579255277</v>
+        <v>0.4393920674377548</v>
       </c>
       <c r="G19">
-        <v>0.2482099230939327</v>
+        <v>0.793683113766765</v>
       </c>
       <c r="H19">
-        <v>0.00424500213323675</v>
+        <v>0.01357393962762265</v>
       </c>
       <c r="I19">
-        <v>0.03146232296983406</v>
+        <v>0.1006048192987975</v>
       </c>
       <c r="J19">
-        <v>0.1366791968399843</v>
+        <v>0.4370492895001868</v>
       </c>
       <c r="K19">
-        <v>0.181022113311003</v>
+        <v>0.5788414611407171</v>
       </c>
       <c r="L19">
-        <v>1.099011721421588</v>
+        <v>3.514231156640572</v>
       </c>
       <c r="M19">
-        <v>0.6915560823974619</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="P19">
-        <v>3.467769506806069</v>
+        <v>11.08863846247474</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,49 +1368,49 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.08807245732127571</v>
+        <v>0.2816229959403642</v>
       </c>
       <c r="C20">
-        <v>0.671920635854002</v>
+        <v>2.148552547058843</v>
       </c>
       <c r="D20">
-        <v>0.001792967645590335</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E20">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F20">
-        <v>0.1030588934441458</v>
+        <v>0.329544050578316</v>
       </c>
       <c r="G20">
-        <v>0.1861574423204495</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="H20">
-        <v>0.03820501919913076</v>
+        <v>0.1221654566486039</v>
       </c>
       <c r="I20">
-        <v>0.2831609067285065</v>
+        <v>0.9054433736891769</v>
       </c>
       <c r="J20">
-        <v>0.1692218627542663</v>
+        <v>0.5411086441430887</v>
       </c>
       <c r="K20">
-        <v>0.2241226164802894</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="L20">
-        <v>0.9341599632083502</v>
+        <v>2.987096483144486</v>
       </c>
       <c r="M20">
-        <v>0.5878226700378426</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="N20">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O20">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P20">
-        <v>3.479222282673531</v>
+        <v>11.12526018451734</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1418,49 +1418,49 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.129861939621677</v>
+        <v>0.4152502338100266</v>
       </c>
       <c r="C21">
-        <v>0.9907401212337067</v>
+        <v>3.168018806632681</v>
       </c>
       <c r="D21">
-        <v>0.0004980465682195376</v>
+        <v>0.001592567880196071</v>
       </c>
       <c r="E21">
-        <v>0.0473730994958203</v>
+        <v>0.1514815711150933</v>
       </c>
       <c r="F21">
-        <v>0.2232942691289825</v>
+        <v>0.7140121095863513</v>
       </c>
       <c r="G21">
-        <v>0.4033411250276407</v>
+        <v>1.289735059870993</v>
       </c>
       <c r="H21">
-        <v>0.02122501066618375</v>
+        <v>0.06786969813811328</v>
       </c>
       <c r="I21">
-        <v>0.1573116148491703</v>
+        <v>0.5030240964939872</v>
       </c>
       <c r="J21">
-        <v>0.3124095927771069</v>
+        <v>0.9989698045718556</v>
       </c>
       <c r="K21">
-        <v>0.4137648304251497</v>
+        <v>1.323066196893068</v>
       </c>
       <c r="L21">
-        <v>1.593566996061302</v>
+        <v>5.095635177128834</v>
       </c>
       <c r="M21">
-        <v>1.00275631947632</v>
+        <v>3.206442144096216</v>
       </c>
       <c r="N21">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O21">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P21">
-        <v>5.317126654826009</v>
+        <v>17.00219550891005</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1468,49 +1468,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.3442015423882511</v>
+        <v>1.100628647399585</v>
       </c>
       <c r="C22">
-        <v>2.625975546245741</v>
+        <v>8.396894137995279</v>
       </c>
       <c r="D22">
-        <v>0.0009960931364390753</v>
+        <v>0.003185135760392143</v>
       </c>
       <c r="E22">
-        <v>0.09474619899164059</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="F22">
-        <v>0.446588538257965</v>
+        <v>1.428024219172703</v>
       </c>
       <c r="G22">
-        <v>0.8066822500552815</v>
+        <v>2.579470119741985</v>
       </c>
       <c r="H22">
-        <v>0.152820076796523</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I22">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J22">
-        <v>0.6703789178342083</v>
+        <v>2.143622705643774</v>
       </c>
       <c r="K22">
-        <v>0.8878703652873003</v>
+        <v>2.839079547499707</v>
       </c>
       <c r="L22">
-        <v>2.472776373198573</v>
+        <v>7.907020102441287</v>
       </c>
       <c r="M22">
-        <v>1.556001185394289</v>
+        <v>4.975513671873439</v>
       </c>
       <c r="N22">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O22">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P22">
-        <v>11.2336480934897</v>
+        <v>35.92103283649472</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1518,49 +1518,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.5648320349634879</v>
+        <v>1.806122989270601</v>
       </c>
       <c r="C23">
-        <v>4.309205302390204</v>
+        <v>13.7792375084335</v>
       </c>
       <c r="D23">
-        <v>0.002191404900165966</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E23">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F23">
-        <v>0.8931770765159299</v>
+        <v>2.856048438345405</v>
       </c>
       <c r="G23">
-        <v>1.613364500110563</v>
+        <v>5.158940239483971</v>
       </c>
       <c r="H23">
-        <v>0.373560187724834</v>
+        <v>1.194506687230793</v>
       </c>
       <c r="I23">
-        <v>2.768684421345397</v>
+        <v>8.853224098294174</v>
       </c>
       <c r="J23">
-        <v>1.184553039279864</v>
+        <v>3.78776050900162</v>
       </c>
       <c r="K23">
-        <v>1.568858315362026</v>
+        <v>5.016625996552881</v>
       </c>
       <c r="L23">
-        <v>3.297035164264766</v>
+        <v>10.54269346992172</v>
       </c>
       <c r="M23">
-        <v>2.074668247192385</v>
+        <v>6.634018229164585</v>
       </c>
       <c r="N23">
-        <v>0.05290629240943735</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O23">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P23">
-        <v>19.13135929526271</v>
+        <v>61.17497893228273</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1568,49 +1568,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.9494750118359985</v>
+        <v>3.036068318479538</v>
       </c>
       <c r="C24">
-        <v>7.243715834487274</v>
+        <v>23.16271189762928</v>
       </c>
       <c r="D24">
-        <v>0.002191404900165966</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E24">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F24">
-        <v>1.460000990458732</v>
+        <v>4.668540716526143</v>
       </c>
       <c r="G24">
-        <v>2.637230432873035</v>
+        <v>8.432883083771877</v>
       </c>
       <c r="H24">
-        <v>0.4711952367892794</v>
+        <v>1.506707298666115</v>
       </c>
       <c r="I24">
-        <v>3.492317849651581</v>
+        <v>11.16713494216652</v>
       </c>
       <c r="J24">
-        <v>1.490454098874114</v>
+        <v>4.765918442644898</v>
       </c>
       <c r="K24">
-        <v>1.974003045153318</v>
+        <v>6.31212831434401</v>
       </c>
       <c r="L24">
-        <v>6.264366812103054</v>
+        <v>20.03111759285126</v>
       </c>
       <c r="M24">
-        <v>3.941869669665532</v>
+        <v>12.60463463541271</v>
       </c>
       <c r="N24">
-        <v>0.1058125848188747</v>
+        <v>0.3383493324840698</v>
       </c>
       <c r="O24">
-        <v>0.4397633420440807</v>
+        <v>1.406199777524353</v>
       </c>
       <c r="P24">
-        <v>30.68083795143665</v>
+        <v>98.10592056408002</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1618,49 +1618,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.091918731075001</v>
+        <v>3.491550408852473</v>
       </c>
       <c r="C25">
-        <v>8.330444617985837</v>
+        <v>26.63766678241322</v>
       </c>
       <c r="D25">
-        <v>0.001992186272878151</v>
+        <v>0.006370271520784286</v>
       </c>
       <c r="E25">
-        <v>0.1894923979832812</v>
+        <v>0.6059262844603731</v>
       </c>
       <c r="F25">
-        <v>1.339765614773895</v>
+        <v>4.284072657518107</v>
       </c>
       <c r="G25">
-        <v>2.420046750165845</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="H25">
-        <v>0.2631901322606785</v>
+        <v>0.8415842569126046</v>
       </c>
       <c r="I25">
-        <v>1.950664024129712</v>
+        <v>6.237498796525441</v>
       </c>
       <c r="J25">
-        <v>1.236621304742715</v>
+        <v>3.954255476430262</v>
       </c>
       <c r="K25">
-        <v>1.637819120432884</v>
+        <v>5.237137029368393</v>
       </c>
       <c r="L25">
-        <v>3.626738680691241</v>
+        <v>11.59696281691389</v>
       </c>
       <c r="M25">
-        <v>2.282135071911624</v>
+        <v>7.297420052081044</v>
       </c>
       <c r="N25">
-        <v>0.05697600721016328</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O25">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P25">
-        <v>24.6646002853518</v>
+        <v>78.8682277899194</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1668,49 +1668,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.8829713195729942</v>
+        <v>2.823414219504158</v>
       </c>
       <c r="C26">
-        <v>6.736347191087312</v>
+        <v>21.54033548454402</v>
       </c>
       <c r="D26">
-        <v>0.002789060782029411</v>
+        <v>0.008918380129098</v>
       </c>
       <c r="E26">
-        <v>0.2652893571765936</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="F26">
-        <v>1.563059883902877</v>
+        <v>4.998084767104459</v>
       </c>
       <c r="G26">
-        <v>2.823387875193485</v>
+        <v>9.028145419096953</v>
       </c>
       <c r="H26">
-        <v>0.2249851130615477</v>
+        <v>0.7194188002640007</v>
       </c>
       <c r="I26">
-        <v>1.667503117401205</v>
+        <v>5.332055422836265</v>
       </c>
       <c r="J26">
-        <v>1.672693027994093</v>
+        <v>5.348650828645145</v>
       </c>
       <c r="K26">
-        <v>2.215365862901322</v>
+        <v>7.083916929198299</v>
       </c>
       <c r="L26">
-        <v>8.956945529585946</v>
+        <v>28.64098392662067</v>
       </c>
       <c r="M26">
-        <v>5.636182071539312</v>
+        <v>18.02241618923046</v>
       </c>
       <c r="N26">
-        <v>0.06104572201088925</v>
+        <v>0.1952015379715787</v>
       </c>
       <c r="O26">
-        <v>0.2537096204100465</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="P26">
-        <v>32.96227475261966</v>
+        <v>105.4011078058075</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1718,49 +1718,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.7594002697599798</v>
+        <v>2.428279913975586</v>
       </c>
       <c r="C27">
-        <v>5.793601400986033</v>
+        <v>18.52578471698697</v>
       </c>
       <c r="D27">
-        <v>0.005478512250414914</v>
+        <v>0.01751824668215678</v>
       </c>
       <c r="E27">
-        <v>0.5211040944540231</v>
+        <v>1.666297282266026</v>
       </c>
       <c r="F27">
-        <v>1.408471543736659</v>
+        <v>4.503768691236986</v>
       </c>
       <c r="G27">
-        <v>2.54415171171281</v>
+        <v>8.135251916109343</v>
       </c>
       <c r="H27">
-        <v>0.1740450874627067</v>
+        <v>0.556531524732529</v>
       </c>
       <c r="I27">
-        <v>1.289955241763197</v>
+        <v>4.124797591250696</v>
       </c>
       <c r="J27">
-        <v>1.959068488039775</v>
+        <v>6.26437314950268</v>
       </c>
       <c r="K27">
-        <v>2.594650290791043</v>
+        <v>8.296727609683611</v>
       </c>
       <c r="L27">
-        <v>8.07773615244867</v>
+        <v>25.82959900130821</v>
       </c>
       <c r="M27">
-        <v>5.082937205621345</v>
+        <v>16.25334466145323</v>
       </c>
       <c r="N27">
-        <v>0.08953372561597089</v>
+        <v>0.2862955890249821</v>
       </c>
       <c r="O27">
-        <v>0.3721074432680683</v>
+        <v>1.189861350212914</v>
       </c>
       <c r="P27">
-        <v>30.67224116791069</v>
+        <v>98.07843124442591</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1768,49 +1768,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.7998417042442395</v>
+        <v>2.557596595784939</v>
       </c>
       <c r="C28">
-        <v>6.102136386837361</v>
+        <v>19.51236496818745</v>
       </c>
       <c r="D28">
-        <v>0.005080074995839285</v>
+        <v>0.01624419237799993</v>
       </c>
       <c r="E28">
-        <v>0.4832056148573668</v>
+        <v>1.545112025373952</v>
       </c>
       <c r="F28">
-        <v>1.339765614773895</v>
+        <v>4.284072657518107</v>
       </c>
       <c r="G28">
-        <v>2.420046750165845</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="H28">
-        <v>0.2462101237277315</v>
+        <v>0.7872884984021138</v>
       </c>
       <c r="I28">
-        <v>1.824814732250376</v>
+        <v>5.835079519330253</v>
       </c>
       <c r="J28">
-        <v>1.614116229348386</v>
+        <v>5.161343990287922</v>
       </c>
       <c r="K28">
-        <v>2.137784957196606</v>
+        <v>6.835842017280848</v>
       </c>
       <c r="L28">
-        <v>9.396550218154577</v>
+        <v>30.0466763892769</v>
       </c>
       <c r="M28">
-        <v>5.912804504498298</v>
+        <v>18.90695195311906</v>
       </c>
       <c r="N28">
-        <v>0.09360344041669683</v>
+        <v>0.299309024889754</v>
       </c>
       <c r="O28">
-        <v>0.3890214179620714</v>
+        <v>1.243945957040774</v>
       </c>
       <c r="P28">
-        <v>32.76498176942929</v>
+        <v>104.770238148096</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1818,49 +1818,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.7971456086119553</v>
+        <v>2.548975483664316</v>
       </c>
       <c r="C29">
-        <v>6.081567387780606</v>
+        <v>19.44659295144075</v>
       </c>
       <c r="D29">
-        <v>0.004681637741263654</v>
+        <v>0.01497013807384306</v>
       </c>
       <c r="E29">
-        <v>0.4453071352607106</v>
+        <v>1.423926768481877</v>
       </c>
       <c r="F29">
-        <v>1.133647827885603</v>
+        <v>3.624984556361475</v>
       </c>
       <c r="G29">
-        <v>2.047731865524945</v>
+        <v>6.547885688575812</v>
       </c>
       <c r="H29">
-        <v>0.1655550831962332</v>
+        <v>0.5293836454772834</v>
       </c>
       <c r="I29">
-        <v>1.227030595823528</v>
+        <v>3.923587952653101</v>
       </c>
       <c r="J29">
-        <v>1.477437032508402</v>
+        <v>4.724294700787735</v>
       </c>
       <c r="K29">
-        <v>1.956762843885603</v>
+        <v>6.257000556140132</v>
       </c>
       <c r="L29">
-        <v>7.033675017098164</v>
+        <v>22.49107940249966</v>
       </c>
       <c r="M29">
-        <v>4.425958927343757</v>
+        <v>14.15257222221778</v>
       </c>
       <c r="N29">
-        <v>0.05697600721016328</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O29">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P29">
-        <v>27.09027261558698</v>
+        <v>86.62462666407062</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1868,49 +1868,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.8434285836328295</v>
+        <v>2.696971241735017</v>
       </c>
       <c r="C30">
-        <v>6.434668538254903</v>
+        <v>20.57567923892576</v>
       </c>
       <c r="D30">
-        <v>0.004880856368551469</v>
+        <v>0.01560716522592149</v>
       </c>
       <c r="E30">
-        <v>0.4642563750590387</v>
+        <v>1.484519396927914</v>
       </c>
       <c r="F30">
-        <v>1.099294863404222</v>
+        <v>3.515136539502038</v>
       </c>
       <c r="G30">
-        <v>1.985679384751462</v>
+        <v>6.34946491013412</v>
       </c>
       <c r="H30">
-        <v>0.1952700981288905</v>
+        <v>0.624401222870642</v>
       </c>
       <c r="I30">
-        <v>1.447266856612366</v>
+        <v>4.627821687744682</v>
       </c>
       <c r="J30">
-        <v>1.84191489074836</v>
+        <v>5.889759472788234</v>
       </c>
       <c r="K30">
-        <v>2.439488479381612</v>
+        <v>7.80057778584871</v>
       </c>
       <c r="L30">
-        <v>5.824762123534414</v>
+        <v>18.62542513019504</v>
       </c>
       <c r="M30">
-        <v>3.665247236706549</v>
+        <v>11.7200988715241</v>
       </c>
       <c r="N30">
-        <v>0.08546401081524491</v>
+        <v>0.27328215316021</v>
       </c>
       <c r="O30">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="P30">
-        <v>26.6868157659725</v>
+        <v>85.33452155996746</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1918,49 +1918,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.8133221824056588</v>
+        <v>2.600702156388057</v>
       </c>
       <c r="C31">
-        <v>6.204981382121134</v>
+        <v>19.84122505192096</v>
       </c>
       <c r="D31">
-        <v>0.003884763232112393</v>
+        <v>0.01242202946552935</v>
       </c>
       <c r="E31">
-        <v>0.3695101760673983</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="F31">
-        <v>1.563059883902877</v>
+        <v>4.998084767104459</v>
       </c>
       <c r="G31">
-        <v>2.823387875193485</v>
+        <v>9.028145419096953</v>
       </c>
       <c r="H31">
-        <v>0.1782900895959435</v>
+        <v>0.5701054643601513</v>
       </c>
       <c r="I31">
-        <v>1.32141756473303</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="J31">
-        <v>1.744286893005514</v>
+        <v>5.577581408859529</v>
       </c>
       <c r="K31">
-        <v>2.310186969873752</v>
+        <v>7.387119599319627</v>
       </c>
       <c r="L31">
-        <v>5.550009193179021</v>
+        <v>17.7468673410349</v>
       </c>
       <c r="M31">
-        <v>3.492358216107182</v>
+        <v>11.16726401909372</v>
       </c>
       <c r="N31">
-        <v>0.09767315521742279</v>
+        <v>0.3123224607545259</v>
       </c>
       <c r="O31">
-        <v>0.4059353926560745</v>
+        <v>1.298030563868633</v>
       </c>
       <c r="P31">
-        <v>26.8783037372906</v>
+        <v>85.94682894651427</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1968,49 +1968,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.8614025545147227</v>
+        <v>2.754445322539171</v>
       </c>
       <c r="C32">
-        <v>6.571795198633274</v>
+        <v>21.01415935057042</v>
       </c>
       <c r="D32">
-        <v>0.004482419113975839</v>
+        <v>0.01433311092176464</v>
       </c>
       <c r="E32">
-        <v>0.4263578954623824</v>
+        <v>1.36333414003584</v>
       </c>
       <c r="F32">
-        <v>1.545883401662186</v>
+        <v>4.943160758674738</v>
       </c>
       <c r="G32">
-        <v>2.792361634806744</v>
+        <v>8.928935029876108</v>
       </c>
       <c r="H32">
-        <v>0.186780093862417</v>
+        <v>0.5972533436153967</v>
       </c>
       <c r="I32">
-        <v>1.384342210672699</v>
+        <v>4.426612049147087</v>
       </c>
       <c r="J32">
-        <v>1.698727160725519</v>
+        <v>5.431898312359467</v>
       </c>
       <c r="K32">
-        <v>2.249846265436751</v>
+        <v>7.194172445606054</v>
       </c>
       <c r="L32">
-        <v>5.495058607107941</v>
+        <v>17.57115578320287</v>
       </c>
       <c r="M32">
-        <v>3.457780411987309</v>
+        <v>11.05669704860764</v>
       </c>
       <c r="N32">
-        <v>0.05697600721016328</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O32">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P32">
-        <v>26.96858950691212</v>
+        <v>86.23552929285341</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2018,49 +2018,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.001150178121441</v>
+        <v>3.201306300791486</v>
       </c>
       <c r="C33">
-        <v>7.63795498307508</v>
+        <v>24.42334221860767</v>
       </c>
       <c r="D33">
-        <v>0.004083981859400209</v>
+        <v>0.01305905661760778</v>
       </c>
       <c r="E33">
-        <v>0.3884594158657262</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="F33">
-        <v>1.940942493198079</v>
+        <v>6.206412952558284</v>
       </c>
       <c r="G33">
-        <v>3.5059651637018</v>
+        <v>11.21077398195556</v>
       </c>
       <c r="H33">
-        <v>0.1782900895959435</v>
+        <v>0.5701054643601513</v>
       </c>
       <c r="I33">
-        <v>1.32141756473303</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="J33">
-        <v>1.692218627542663</v>
+        <v>5.411086441430886</v>
       </c>
       <c r="K33">
-        <v>2.241226164802893</v>
+        <v>7.166608566504115</v>
       </c>
       <c r="L33">
-        <v>4.286145713544195</v>
+        <v>13.70550151089824</v>
       </c>
       <c r="M33">
-        <v>2.697068721350103</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="N33">
-        <v>0.0732548664130671</v>
+        <v>0.2342418455658944</v>
       </c>
       <c r="O33">
-        <v>0.3044515444920559</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="P33">
-        <v>27.27262950829547</v>
+        <v>87.20773625379859</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2068,49 +2068,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.133708213375402</v>
+        <v>3.625177646722136</v>
       </c>
       <c r="C34">
-        <v>8.649264103365537</v>
+        <v>27.65713304198705</v>
       </c>
       <c r="D34">
-        <v>0.003884763232112393</v>
+        <v>0.01242202946552935</v>
       </c>
       <c r="E34">
-        <v>0.3695101760673983</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="F34">
-        <v>1.339765614773895</v>
+        <v>4.284072657518107</v>
       </c>
       <c r="G34">
-        <v>2.420046750165845</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="H34">
-        <v>0.3013951514598092</v>
+        <v>0.9637497135612084</v>
       </c>
       <c r="I34">
-        <v>2.233824930858218</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="J34">
-        <v>1.145501840182725</v>
+        <v>3.662889283430138</v>
       </c>
       <c r="K34">
-        <v>1.517137711558882</v>
+        <v>4.851242721941247</v>
       </c>
       <c r="L34">
-        <v>2.362875201056414</v>
+        <v>7.555596986777231</v>
       </c>
       <c r="M34">
-        <v>1.486845577154543</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="N34">
-        <v>0.1180217292210525</v>
+        <v>0.3773896400783854</v>
       </c>
       <c r="O34">
-        <v>0.4905052661260899</v>
+        <v>1.568453598007932</v>
       </c>
       <c r="P34">
-        <v>23.57228702859792</v>
+        <v>75.37541583452857</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2118,49 +2118,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.142695198816348</v>
+        <v>3.653914687124211</v>
       </c>
       <c r="C35">
-        <v>8.71782743355473</v>
+        <v>27.87637309780939</v>
       </c>
       <c r="D35">
-        <v>0.003785153918468486</v>
+        <v>0.01210351588949014</v>
       </c>
       <c r="E35">
-        <v>0.3600355561682341</v>
+        <v>1.151259940474709</v>
       </c>
       <c r="F35">
-        <v>1.185177274607677</v>
+        <v>3.789756581650634</v>
       </c>
       <c r="G35">
-        <v>2.14081058668517</v>
+        <v>6.845516856238347</v>
       </c>
       <c r="H35">
-        <v>0.3013951514598092</v>
+        <v>0.9637497135612084</v>
       </c>
       <c r="I35">
-        <v>2.233824930858218</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="J35">
-        <v>0.9307202451484644</v>
+        <v>2.976097542786988</v>
       </c>
       <c r="K35">
-        <v>1.232674390641592</v>
+        <v>3.941634711577264</v>
       </c>
       <c r="L35">
-        <v>0.4945552746397146</v>
+        <v>1.581404020488258</v>
       </c>
       <c r="M35">
-        <v>0.3112002370788579</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="N35">
-        <v>0.04883657760871139</v>
+        <v>0.156161230377263</v>
       </c>
       <c r="O35">
-        <v>0.2029676963280372</v>
+        <v>0.6490152819343167</v>
       </c>
       <c r="P35">
-        <v>19.30650570751403</v>
+        <v>61.73503208450138</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2168,49 +2168,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.8587064588824389</v>
+        <v>2.745824210418549</v>
       </c>
       <c r="C36">
-        <v>6.551226199576516</v>
+        <v>20.94838733382372</v>
       </c>
       <c r="D36">
-        <v>0.001792967645590335</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E36">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F36">
-        <v>0.8416476297938572</v>
+        <v>2.691276413056247</v>
       </c>
       <c r="G36">
-        <v>1.520285778950338</v>
+        <v>4.861309071821434</v>
       </c>
       <c r="H36">
-        <v>0.2759251386603887</v>
+        <v>0.8823060757954726</v>
       </c>
       <c r="I36">
-        <v>2.045050993039214</v>
+        <v>6.539313254421834</v>
       </c>
       <c r="J36">
-        <v>0.6313277187370702</v>
+        <v>2.018751480072293</v>
       </c>
       <c r="K36">
-        <v>0.8361497614841567</v>
+        <v>2.673696272888074</v>
       </c>
       <c r="L36">
-        <v>0.9891105492794292</v>
+        <v>3.162808040976515</v>
       </c>
       <c r="M36">
-        <v>0.6224004741577157</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="N36">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O36">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P36">
-        <v>15.40711789687585</v>
+        <v>49.26623865048445</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2218,49 +2218,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.7027822614820164</v>
+        <v>2.247236559442495</v>
       </c>
       <c r="C37">
-        <v>5.361652420794177</v>
+        <v>17.14457236530628</v>
       </c>
       <c r="D37">
-        <v>0.002689451468385503</v>
+        <v>0.008599866553058784</v>
       </c>
       <c r="E37">
-        <v>0.2558147372774295</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="F37">
-        <v>0.5668239139428017</v>
+        <v>1.812492278180738</v>
       </c>
       <c r="G37">
-        <v>1.023865932762472</v>
+        <v>3.273942844287906</v>
       </c>
       <c r="H37">
-        <v>0.3098851557262828</v>
+        <v>0.9908975928164536</v>
       </c>
       <c r="I37">
-        <v>2.296749576797886</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="J37">
-        <v>0.3840034577885272</v>
+        <v>1.227900384786239</v>
       </c>
       <c r="K37">
-        <v>0.5085859373975797</v>
+        <v>1.626268867014395</v>
       </c>
       <c r="L37">
-        <v>0.9341599632083502</v>
+        <v>2.987096483144486</v>
       </c>
       <c r="M37">
-        <v>0.5878226700378426</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="N37">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O37">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P37">
-        <v>12.99778654716794</v>
+        <v>41.56209216070696</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2268,49 +2268,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.5140555672221401</v>
+        <v>1.643758710998859</v>
       </c>
       <c r="C38">
-        <v>3.921822486821316</v>
+        <v>12.54053119303733</v>
       </c>
       <c r="D38">
-        <v>0.001494139704658613</v>
+        <v>0.004777703640588213</v>
       </c>
       <c r="E38">
-        <v>0.1421192984874608</v>
+        <v>0.4544447133452799</v>
       </c>
       <c r="F38">
-        <v>0.4809415027393468</v>
+        <v>1.537872236032141</v>
       </c>
       <c r="G38">
-        <v>0.8687347308287645</v>
+        <v>2.777890898183678</v>
       </c>
       <c r="H38">
-        <v>0.2334751173280213</v>
+        <v>0.7465666795192458</v>
       </c>
       <c r="I38">
-        <v>1.730427763340873</v>
+        <v>5.533265061433859</v>
       </c>
       <c r="J38">
-        <v>0.3449522586913888</v>
+        <v>1.103029159214757</v>
       </c>
       <c r="K38">
-        <v>0.456865333594436</v>
+        <v>1.460885592402762</v>
       </c>
       <c r="L38">
-        <v>0.4945552746397146</v>
+        <v>1.581404020488258</v>
       </c>
       <c r="M38">
-        <v>0.3112002370788579</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="N38">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O38">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P38">
-        <v>9.542611089466437</v>
+        <v>30.5137247880567</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2318,49 +2318,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.3612768147260496</v>
+        <v>1.155229024163533</v>
       </c>
       <c r="C39">
-        <v>2.756245873605189</v>
+        <v>8.813450244057705</v>
       </c>
       <c r="D39">
-        <v>0.001792967645590335</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E39">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F39">
-        <v>0.2404707513696734</v>
+        <v>0.7689361180160706</v>
       </c>
       <c r="G39">
-        <v>0.4343673654143823</v>
+        <v>1.388945449091839</v>
       </c>
       <c r="H39">
-        <v>0.118860059730629</v>
+        <v>0.3800703095734344</v>
       </c>
       <c r="I39">
-        <v>0.8809450431553534</v>
+        <v>2.816934940366329</v>
       </c>
       <c r="J39">
-        <v>0.1887474623028354</v>
+        <v>0.6035442569288295</v>
       </c>
       <c r="K39">
-        <v>0.2499829183818612</v>
+        <v>0.7993524939562283</v>
       </c>
       <c r="L39">
-        <v>1.044061135350509</v>
+        <v>3.338519598808545</v>
       </c>
       <c r="M39">
-        <v>0.6569782782775888</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="N39">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O39">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P39">
-        <v>7.146239207134073</v>
+        <v>22.85101785996627</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2368,49 +2368,49 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.2152383013106687</v>
+        <v>0.6882521176297677</v>
       </c>
       <c r="C40">
-        <v>1.642091758030953</v>
+        <v>5.250799336944826</v>
       </c>
       <c r="D40">
-        <v>0.002091795586522058</v>
+        <v>0.0066887850968235</v>
       </c>
       <c r="E40">
-        <v>0.1989670178824451</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="F40">
-        <v>0.2061177868882915</v>
+        <v>0.659088101156632</v>
       </c>
       <c r="G40">
-        <v>0.3723148846408991</v>
+        <v>1.190524670650147</v>
       </c>
       <c r="H40">
-        <v>0.05094002559884098</v>
+        <v>0.1628872755314719</v>
       </c>
       <c r="I40">
-        <v>0.3775478756380087</v>
+        <v>1.207257831585569</v>
       </c>
       <c r="J40">
-        <v>0.1692218627542663</v>
+        <v>0.5411086441430887</v>
       </c>
       <c r="K40">
-        <v>0.2241226164802894</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="L40">
-        <v>0.6594070328529528</v>
+        <v>2.108538693984344</v>
       </c>
       <c r="M40">
-        <v>0.4149336494384772</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="N40">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O40">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P40">
-        <v>4.574961986092073</v>
+        <v>14.62902864327465</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2418,43 +2418,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1586202930327058</v>
+        <v>0.5072087630966761</v>
       </c>
       <c r="C41">
-        <v>1.210142777839095</v>
+        <v>3.869586985264143</v>
       </c>
       <c r="D41">
-        <v>0.003287107350248949</v>
+        <v>0.01051094800929407</v>
       </c>
       <c r="E41">
-        <v>0.3126624566724139</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="F41">
-        <v>0.01717648224069096</v>
+        <v>0.05492400842971935</v>
       </c>
       <c r="G41">
-        <v>0.03102624038674159</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="H41">
-        <v>0.02547001279942049</v>
+        <v>0.08144363776573593</v>
       </c>
       <c r="I41">
-        <v>0.1887739378190043</v>
+        <v>0.6036289157927845</v>
       </c>
       <c r="J41">
-        <v>0.2668498604971121</v>
+        <v>0.8532867080717937</v>
       </c>
       <c r="K41">
-        <v>0.3534241259881487</v>
+        <v>1.130119043179495</v>
       </c>
       <c r="L41">
-        <v>0.8792093771372705</v>
+        <v>2.811384925312458</v>
       </c>
       <c r="M41">
-        <v>0.5532448659179696</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="P41">
-        <v>3.999887537680822</v>
+        <v>12.79015422127978</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.09256595004174901</v>
+        <v>0.2959915161414029</v>
       </c>
       <c r="C42">
-        <v>0.7062023009485935</v>
+        <v>2.258172574970009</v>
       </c>
       <c r="D42">
-        <v>0.00239062352745378</v>
+        <v>0.007644325824941142</v>
       </c>
       <c r="E42">
-        <v>0.2273908775799374</v>
+        <v>0.7271115413524478</v>
       </c>
       <c r="F42">
-        <v>0.01717648224069096</v>
+        <v>0.05492400842971935</v>
       </c>
       <c r="G42">
-        <v>0.03102624038674159</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="H42">
-        <v>0.016980008532947</v>
+        <v>0.05429575851049061</v>
       </c>
       <c r="I42">
-        <v>0.1258492918793362</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="J42">
-        <v>0.2082730618514046</v>
+        <v>0.6659798697145706</v>
       </c>
       <c r="K42">
-        <v>0.2758432202834331</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="L42">
-        <v>0.8242587910661915</v>
+        <v>2.63567336748043</v>
       </c>
       <c r="M42">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="N42">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O42">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P42">
-        <v>3.067607599631304</v>
+        <v>9.809069360085871</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2512,43 +2512,43 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.07099718498347739</v>
+        <v>0.2270226191764159</v>
       </c>
       <c r="C43">
-        <v>0.5416503084945526</v>
+        <v>1.731996440996414</v>
       </c>
       <c r="D43">
-        <v>0.003386716663892856</v>
+        <v>0.01082946158533328</v>
       </c>
       <c r="E43">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="F43">
-        <v>0.1374118579255277</v>
+        <v>0.4393920674377548</v>
       </c>
       <c r="G43">
-        <v>0.2482099230939327</v>
+        <v>0.793683113766765</v>
       </c>
       <c r="H43">
-        <v>0.00424500213323675</v>
+        <v>0.01357393962762265</v>
       </c>
       <c r="I43">
-        <v>0.03146232296983406</v>
+        <v>0.1006048192987975</v>
       </c>
       <c r="J43">
-        <v>0.1366791968399843</v>
+        <v>0.4370492895001868</v>
       </c>
       <c r="K43">
-        <v>0.181022113311003</v>
+        <v>0.5788414611407171</v>
       </c>
       <c r="L43">
-        <v>1.099011721421588</v>
+        <v>3.514231156640572</v>
       </c>
       <c r="M43">
-        <v>0.6915560823974619</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="P43">
-        <v>3.467769506806069</v>
+        <v>11.08863846247474</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2556,49 +2556,49 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.08807245732127571</v>
+        <v>0.2816229959403642</v>
       </c>
       <c r="C44">
-        <v>0.671920635854002</v>
+        <v>2.148552547058843</v>
       </c>
       <c r="D44">
-        <v>0.001792967645590335</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E44">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F44">
-        <v>0.1030588934441458</v>
+        <v>0.329544050578316</v>
       </c>
       <c r="G44">
-        <v>0.1861574423204495</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="H44">
-        <v>0.03820501919913076</v>
+        <v>0.1221654566486039</v>
       </c>
       <c r="I44">
-        <v>0.2831609067285065</v>
+        <v>0.9054433736891769</v>
       </c>
       <c r="J44">
-        <v>0.1692218627542663</v>
+        <v>0.5411086441430887</v>
       </c>
       <c r="K44">
-        <v>0.2241226164802894</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="L44">
-        <v>0.9341599632083502</v>
+        <v>2.987096483144486</v>
       </c>
       <c r="M44">
-        <v>0.5878226700378426</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="N44">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O44">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P44">
-        <v>3.479222282673531</v>
+        <v>11.12526018451734</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2606,49 +2606,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.129861939621677</v>
+        <v>0.4152502338100266</v>
       </c>
       <c r="C45">
-        <v>0.9907401212337067</v>
+        <v>3.168018806632681</v>
       </c>
       <c r="D45">
-        <v>0.0004980465682195376</v>
+        <v>0.001592567880196071</v>
       </c>
       <c r="E45">
-        <v>0.0473730994958203</v>
+        <v>0.1514815711150933</v>
       </c>
       <c r="F45">
-        <v>0.2232942691289825</v>
+        <v>0.7140121095863513</v>
       </c>
       <c r="G45">
-        <v>0.4033411250276407</v>
+        <v>1.289735059870993</v>
       </c>
       <c r="H45">
-        <v>0.02122501066618375</v>
+        <v>0.06786969813811328</v>
       </c>
       <c r="I45">
-        <v>0.1573116148491703</v>
+        <v>0.5030240964939872</v>
       </c>
       <c r="J45">
-        <v>0.3124095927771069</v>
+        <v>0.9989698045718556</v>
       </c>
       <c r="K45">
-        <v>0.4137648304251497</v>
+        <v>1.323066196893068</v>
       </c>
       <c r="L45">
-        <v>1.593566996061302</v>
+        <v>5.095635177128834</v>
       </c>
       <c r="M45">
-        <v>1.00275631947632</v>
+        <v>3.206442144096216</v>
       </c>
       <c r="N45">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O45">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P45">
-        <v>5.317126654826009</v>
+        <v>17.00219550891005</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2656,49 +2656,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.3442015423882511</v>
+        <v>1.100628647399585</v>
       </c>
       <c r="C46">
-        <v>2.625975546245741</v>
+        <v>8.396894137995279</v>
       </c>
       <c r="D46">
-        <v>0.0009960931364390753</v>
+        <v>0.003185135760392143</v>
       </c>
       <c r="E46">
-        <v>0.09474619899164059</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="F46">
-        <v>0.446588538257965</v>
+        <v>1.428024219172703</v>
       </c>
       <c r="G46">
-        <v>0.8066822500552815</v>
+        <v>2.579470119741985</v>
       </c>
       <c r="H46">
-        <v>0.152820076796523</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I46">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J46">
-        <v>0.6703789178342083</v>
+        <v>2.143622705643774</v>
       </c>
       <c r="K46">
-        <v>0.8878703652873003</v>
+        <v>2.839079547499707</v>
       </c>
       <c r="L46">
-        <v>2.472776373198573</v>
+        <v>7.907020102441287</v>
       </c>
       <c r="M46">
-        <v>1.556001185394289</v>
+        <v>4.975513671873439</v>
       </c>
       <c r="N46">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O46">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P46">
-        <v>11.2336480934897</v>
+        <v>35.92103283649472</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2706,49 +2706,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.5648320349634879</v>
+        <v>1.806122989270601</v>
       </c>
       <c r="C47">
-        <v>4.309205302390204</v>
+        <v>13.7792375084335</v>
       </c>
       <c r="D47">
-        <v>0.002191404900165966</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E47">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F47">
-        <v>0.8931770765159299</v>
+        <v>2.856048438345405</v>
       </c>
       <c r="G47">
-        <v>1.613364500110563</v>
+        <v>5.158940239483971</v>
       </c>
       <c r="H47">
-        <v>0.373560187724834</v>
+        <v>1.194506687230793</v>
       </c>
       <c r="I47">
-        <v>2.768684421345397</v>
+        <v>8.853224098294174</v>
       </c>
       <c r="J47">
-        <v>1.184553039279864</v>
+        <v>3.78776050900162</v>
       </c>
       <c r="K47">
-        <v>1.568858315362026</v>
+        <v>5.016625996552881</v>
       </c>
       <c r="L47">
-        <v>3.297035164264766</v>
+        <v>10.54269346992172</v>
       </c>
       <c r="M47">
-        <v>2.074668247192385</v>
+        <v>6.634018229164585</v>
       </c>
       <c r="N47">
-        <v>0.05290629240943735</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O47">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P47">
-        <v>19.13135929526271</v>
+        <v>61.17497893228273</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2756,49 +2756,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.9494750118359985</v>
+        <v>3.036068318479538</v>
       </c>
       <c r="C48">
-        <v>7.243715834487274</v>
+        <v>23.16271189762928</v>
       </c>
       <c r="D48">
-        <v>0.002191404900165966</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E48">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F48">
-        <v>1.460000990458732</v>
+        <v>4.668540716526143</v>
       </c>
       <c r="G48">
-        <v>2.637230432873035</v>
+        <v>8.432883083771877</v>
       </c>
       <c r="H48">
-        <v>0.4711952367892794</v>
+        <v>1.506707298666115</v>
       </c>
       <c r="I48">
-        <v>3.492317849651581</v>
+        <v>11.16713494216652</v>
       </c>
       <c r="J48">
-        <v>1.490454098874114</v>
+        <v>4.765918442644898</v>
       </c>
       <c r="K48">
-        <v>1.974003045153318</v>
+        <v>6.31212831434401</v>
       </c>
       <c r="L48">
-        <v>6.264366812103054</v>
+        <v>20.03111759285126</v>
       </c>
       <c r="M48">
-        <v>3.941869669665532</v>
+        <v>12.60463463541271</v>
       </c>
       <c r="N48">
-        <v>0.1058125848188747</v>
+        <v>0.3383493324840698</v>
       </c>
       <c r="O48">
-        <v>0.4397633420440807</v>
+        <v>1.406199777524353</v>
       </c>
       <c r="P48">
-        <v>30.68083795143665</v>
+        <v>98.10592056408002</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2806,49 +2806,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.091918731075001</v>
+        <v>3.491550408852473</v>
       </c>
       <c r="C49">
-        <v>8.330444617985837</v>
+        <v>26.63766678241322</v>
       </c>
       <c r="D49">
-        <v>0.001992186272878151</v>
+        <v>0.006370271520784286</v>
       </c>
       <c r="E49">
-        <v>0.1894923979832812</v>
+        <v>0.6059262844603731</v>
       </c>
       <c r="F49">
-        <v>1.339765614773895</v>
+        <v>4.284072657518107</v>
       </c>
       <c r="G49">
-        <v>2.420046750165845</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="H49">
-        <v>0.2631901322606785</v>
+        <v>0.8415842569126046</v>
       </c>
       <c r="I49">
-        <v>1.950664024129712</v>
+        <v>6.237498796525441</v>
       </c>
       <c r="J49">
-        <v>1.236621304742715</v>
+        <v>3.954255476430262</v>
       </c>
       <c r="K49">
-        <v>1.637819120432884</v>
+        <v>5.237137029368393</v>
       </c>
       <c r="L49">
-        <v>3.626738680691241</v>
+        <v>11.59696281691389</v>
       </c>
       <c r="M49">
-        <v>2.282135071911624</v>
+        <v>7.297420052081044</v>
       </c>
       <c r="N49">
-        <v>0.05697600721016328</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O49">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P49">
-        <v>24.6646002853518</v>
+        <v>78.8682277899194</v>
       </c>
     </row>
   </sheetData>
